--- a/AAII_Financials/Yearly/LOMA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/LOMA_YR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -712,16 +712,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>454500</v>
+        <v>441600</v>
       </c>
       <c r="E8" s="3">
-        <v>521500</v>
+        <v>506700</v>
       </c>
       <c r="F8" s="3">
-        <v>450300</v>
+        <v>437500</v>
       </c>
       <c r="G8" s="3">
-        <v>271200</v>
+        <v>263500</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -739,16 +739,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>317000</v>
+        <v>308000</v>
       </c>
       <c r="E9" s="3">
-        <v>382000</v>
+        <v>371100</v>
       </c>
       <c r="F9" s="3">
-        <v>363100</v>
+        <v>352800</v>
       </c>
       <c r="G9" s="3">
-        <v>202100</v>
+        <v>196400</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -766,16 +766,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>137600</v>
+        <v>133700</v>
       </c>
       <c r="E10" s="3">
-        <v>139500</v>
+        <v>135500</v>
       </c>
       <c r="F10" s="3">
-        <v>87200</v>
+        <v>84700</v>
       </c>
       <c r="G10" s="3">
-        <v>69100</v>
+        <v>67100</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -863,13 +863,13 @@
         <v>1500</v>
       </c>
       <c r="E14" s="3">
-        <v>-16000</v>
+        <v>-15500</v>
       </c>
       <c r="F14" s="3">
-        <v>-3500</v>
+        <v>-3400</v>
       </c>
       <c r="G14" s="3">
-        <v>-3800</v>
+        <v>-3700</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
@@ -887,13 +887,13 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="E15" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="F15" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="G15" s="3">
         <v>500</v>
@@ -924,16 +924,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>364000</v>
+        <v>353700</v>
       </c>
       <c r="E17" s="3">
-        <v>409300</v>
+        <v>397700</v>
       </c>
       <c r="F17" s="3">
-        <v>367000</v>
+        <v>356600</v>
       </c>
       <c r="G17" s="3">
-        <v>222000</v>
+        <v>215700</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -951,16 +951,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>90500</v>
+        <v>87900</v>
       </c>
       <c r="E18" s="3">
-        <v>112200</v>
+        <v>109000</v>
       </c>
       <c r="F18" s="3">
-        <v>83300</v>
+        <v>80900</v>
       </c>
       <c r="G18" s="3">
-        <v>49300</v>
+        <v>47900</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -991,16 +991,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>7400</v>
+        <v>7200</v>
       </c>
       <c r="E20" s="3">
-        <v>-25300</v>
+        <v>-24600</v>
       </c>
       <c r="F20" s="3">
-        <v>-25000</v>
+        <v>-24300</v>
       </c>
       <c r="G20" s="3">
-        <v>-2600</v>
+        <v>-2500</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1018,16 +1018,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>141500</v>
+        <v>137500</v>
       </c>
       <c r="E21" s="3">
-        <v>126800</v>
+        <v>123200</v>
       </c>
       <c r="F21" s="3">
-        <v>94000</v>
+        <v>91300</v>
       </c>
       <c r="G21" s="3">
-        <v>65800</v>
+        <v>63900</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1045,16 +1045,16 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>4900</v>
+        <v>4700</v>
       </c>
       <c r="E22" s="3">
-        <v>13800</v>
+        <v>13400</v>
       </c>
       <c r="F22" s="3">
-        <v>6500</v>
+        <v>6300</v>
       </c>
       <c r="G22" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -1072,16 +1072,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>93000</v>
+        <v>90400</v>
       </c>
       <c r="E23" s="3">
-        <v>73000</v>
+        <v>70900</v>
       </c>
       <c r="F23" s="3">
-        <v>51800</v>
+        <v>50300</v>
       </c>
       <c r="G23" s="3">
-        <v>42600</v>
+        <v>41400</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1099,13 +1099,13 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>24700</v>
+        <v>24000</v>
       </c>
       <c r="E24" s="3">
-        <v>24000</v>
+        <v>23300</v>
       </c>
       <c r="F24" s="3">
-        <v>19000</v>
+        <v>18500</v>
       </c>
       <c r="G24" s="3">
         <v>2400</v>
@@ -1153,16 +1153,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>68300</v>
+        <v>66300</v>
       </c>
       <c r="E26" s="3">
-        <v>49000</v>
+        <v>47600</v>
       </c>
       <c r="F26" s="3">
-        <v>32800</v>
+        <v>31800</v>
       </c>
       <c r="G26" s="3">
-        <v>40200</v>
+        <v>39000</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1180,16 +1180,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>67900</v>
+        <v>66000</v>
       </c>
       <c r="E27" s="3">
-        <v>45900</v>
+        <v>44600</v>
       </c>
       <c r="F27" s="3">
-        <v>30200</v>
+        <v>29400</v>
       </c>
       <c r="G27" s="3">
-        <v>38300</v>
+        <v>37200</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1234,10 +1234,10 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>56000</v>
+        <v>54400</v>
       </c>
       <c r="E29" s="3">
-        <v>11100</v>
+        <v>10800</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>3</v>
@@ -1315,16 +1315,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-7400</v>
+        <v>-7200</v>
       </c>
       <c r="E32" s="3">
-        <v>25300</v>
+        <v>24600</v>
       </c>
       <c r="F32" s="3">
-        <v>25000</v>
+        <v>24300</v>
       </c>
       <c r="G32" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1342,16 +1342,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>124000</v>
+        <v>120400</v>
       </c>
       <c r="E33" s="3">
-        <v>57100</v>
+        <v>55500</v>
       </c>
       <c r="F33" s="3">
-        <v>30200</v>
+        <v>29400</v>
       </c>
       <c r="G33" s="3">
-        <v>38300</v>
+        <v>37200</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1396,16 +1396,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>124000</v>
+        <v>120400</v>
       </c>
       <c r="E35" s="3">
-        <v>57100</v>
+        <v>55500</v>
       </c>
       <c r="F35" s="3">
-        <v>30200</v>
+        <v>29400</v>
       </c>
       <c r="G35" s="3">
-        <v>38300</v>
+        <v>37200</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1481,13 +1481,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2900</v>
+        <v>3200</v>
       </c>
       <c r="E41" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="F41" s="3">
-        <v>13600</v>
+        <v>13200</v>
       </c>
       <c r="G41" s="3">
         <v>3000</v>
@@ -1508,16 +1508,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>44900</v>
+        <v>49200</v>
       </c>
       <c r="E42" s="3">
-        <v>15200</v>
+        <v>14700</v>
       </c>
       <c r="F42" s="3">
-        <v>35200</v>
+        <v>34200</v>
       </c>
       <c r="G42" s="3">
-        <v>48200</v>
+        <v>46900</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
@@ -1535,16 +1535,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>43700</v>
+        <v>48000</v>
       </c>
       <c r="E43" s="3">
-        <v>46000</v>
+        <v>44700</v>
       </c>
       <c r="F43" s="3">
-        <v>39600</v>
+        <v>38500</v>
       </c>
       <c r="G43" s="3">
-        <v>22900</v>
+        <v>22300</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1562,16 +1562,16 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>60000</v>
+        <v>65800</v>
       </c>
       <c r="E44" s="3">
-        <v>72000</v>
+        <v>70000</v>
       </c>
       <c r="F44" s="3">
-        <v>63500</v>
+        <v>61700</v>
       </c>
       <c r="G44" s="3">
-        <v>38000</v>
+        <v>36900</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
@@ -1589,16 +1589,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="E45" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="F45" s="3">
         <v>1500</v>
       </c>
       <c r="G45" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1616,16 +1616,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>153700</v>
+        <v>168700</v>
       </c>
       <c r="E46" s="3">
-        <v>135000</v>
+        <v>131200</v>
       </c>
       <c r="F46" s="3">
-        <v>153300</v>
+        <v>149000</v>
       </c>
       <c r="G46" s="3">
-        <v>110500</v>
+        <v>107400</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1643,16 +1643,16 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5300</v>
+        <v>5800</v>
       </c>
       <c r="E47" s="3">
-        <v>74100</v>
+        <v>72000</v>
       </c>
       <c r="F47" s="3">
-        <v>15900</v>
+        <v>15500</v>
       </c>
       <c r="G47" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -1670,16 +1670,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>589700</v>
+        <v>647200</v>
       </c>
       <c r="E48" s="3">
-        <v>1089400</v>
+        <v>1058500</v>
       </c>
       <c r="F48" s="3">
-        <v>696500</v>
+        <v>676700</v>
       </c>
       <c r="G48" s="3">
-        <v>265200</v>
+        <v>257700</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1697,16 +1697,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="E49" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="F49" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="G49" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -1778,16 +1778,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>23500</v>
+        <v>25800</v>
       </c>
       <c r="E52" s="3">
-        <v>22300</v>
+        <v>21600</v>
       </c>
       <c r="F52" s="3">
-        <v>11400</v>
+        <v>11100</v>
       </c>
       <c r="G52" s="3">
-        <v>7000</v>
+        <v>6800</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -1832,16 +1832,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>774700</v>
+        <v>850200</v>
       </c>
       <c r="E54" s="3">
-        <v>826900</v>
+        <v>803400</v>
       </c>
       <c r="F54" s="3">
-        <v>552100</v>
+        <v>536400</v>
       </c>
       <c r="G54" s="3">
-        <v>322400</v>
+        <v>313300</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -1885,16 +1885,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>35000</v>
+        <v>38400</v>
       </c>
       <c r="E57" s="3">
-        <v>27400</v>
+        <v>26600</v>
       </c>
       <c r="F57" s="3">
-        <v>34800</v>
+        <v>33800</v>
       </c>
       <c r="G57" s="3">
-        <v>20000</v>
+        <v>19400</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -1912,16 +1912,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>51500</v>
+        <v>56500</v>
       </c>
       <c r="E58" s="3">
-        <v>77600</v>
+        <v>75400</v>
       </c>
       <c r="F58" s="3">
-        <v>57000</v>
+        <v>55400</v>
       </c>
       <c r="G58" s="3">
-        <v>28400</v>
+        <v>27600</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -1939,16 +1939,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>80400</v>
+        <v>88300</v>
       </c>
       <c r="E59" s="3">
-        <v>128200</v>
+        <v>124500</v>
       </c>
       <c r="F59" s="3">
-        <v>73300</v>
+        <v>71200</v>
       </c>
       <c r="G59" s="3">
-        <v>42500</v>
+        <v>41300</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -1966,16 +1966,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>166800</v>
+        <v>183100</v>
       </c>
       <c r="E60" s="3">
-        <v>233100</v>
+        <v>226500</v>
       </c>
       <c r="F60" s="3">
-        <v>165200</v>
+        <v>160500</v>
       </c>
       <c r="G60" s="3">
-        <v>88300</v>
+        <v>85800</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -1993,16 +1993,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>24700</v>
+        <v>27100</v>
       </c>
       <c r="E61" s="3">
-        <v>65800</v>
+        <v>64000</v>
       </c>
       <c r="F61" s="3">
-        <v>43800</v>
+        <v>42600</v>
       </c>
       <c r="G61" s="3">
-        <v>42000</v>
+        <v>40800</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2020,16 +2020,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>87500</v>
+        <v>96100</v>
       </c>
       <c r="E62" s="3">
-        <v>91900</v>
+        <v>89300</v>
       </c>
       <c r="F62" s="3">
-        <v>65100</v>
+        <v>63200</v>
       </c>
       <c r="G62" s="3">
-        <v>37900</v>
+        <v>36800</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2128,16 +2128,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>282000</v>
+        <v>309500</v>
       </c>
       <c r="E66" s="3">
-        <v>424100</v>
+        <v>412000</v>
       </c>
       <c r="F66" s="3">
-        <v>297100</v>
+        <v>288700</v>
       </c>
       <c r="G66" s="3">
-        <v>179000</v>
+        <v>173900</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2276,16 +2276,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>328400</v>
+        <v>360400</v>
       </c>
       <c r="E72" s="3">
-        <v>233600</v>
+        <v>227000</v>
       </c>
       <c r="F72" s="3">
-        <v>129700</v>
+        <v>126000</v>
       </c>
       <c r="G72" s="3">
-        <v>64600</v>
+        <v>62800</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2384,16 +2384,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>492700</v>
+        <v>540700</v>
       </c>
       <c r="E76" s="3">
-        <v>402800</v>
+        <v>391400</v>
       </c>
       <c r="F76" s="3">
-        <v>255000</v>
+        <v>247700</v>
       </c>
       <c r="G76" s="3">
-        <v>143500</v>
+        <v>139400</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2470,16 +2470,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>124000</v>
+        <v>120400</v>
       </c>
       <c r="E81" s="3">
-        <v>57100</v>
+        <v>55500</v>
       </c>
       <c r="F81" s="3">
-        <v>30200</v>
+        <v>29400</v>
       </c>
       <c r="G81" s="3">
-        <v>38300</v>
+        <v>37200</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2510,16 +2510,16 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>43500</v>
+        <v>42300</v>
       </c>
       <c r="E83" s="3">
-        <v>39900</v>
+        <v>38800</v>
       </c>
       <c r="F83" s="3">
-        <v>35600</v>
+        <v>34600</v>
       </c>
       <c r="G83" s="3">
-        <v>19000</v>
+        <v>18500</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -2672,16 +2672,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>122600</v>
+        <v>119200</v>
       </c>
       <c r="E89" s="3">
-        <v>99400</v>
+        <v>96600</v>
       </c>
       <c r="F89" s="3">
-        <v>68600</v>
+        <v>66600</v>
       </c>
       <c r="G89" s="3">
-        <v>54900</v>
+        <v>53300</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2712,16 +2712,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-105300</v>
+        <v>-102300</v>
       </c>
       <c r="E91" s="3">
-        <v>-174100</v>
+        <v>-169200</v>
       </c>
       <c r="F91" s="3">
-        <v>-69900</v>
+        <v>-67900</v>
       </c>
       <c r="G91" s="3">
-        <v>-24200</v>
+        <v>-23500</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -2793,16 +2793,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-15600</v>
+        <v>-15200</v>
       </c>
       <c r="E94" s="3">
-        <v>-174400</v>
+        <v>-169500</v>
       </c>
       <c r="F94" s="3">
-        <v>-71000</v>
+        <v>-68900</v>
       </c>
       <c r="G94" s="3">
-        <v>-24300</v>
+        <v>-23600</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -2833,7 +2833,7 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-29100</v>
+        <v>-28300</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-8400</v>
+        <v>-8200</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -2941,16 +2941,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-114700</v>
+        <v>-111400</v>
       </c>
       <c r="E100" s="3">
-        <v>38200</v>
+        <v>37100</v>
       </c>
       <c r="F100" s="3">
-        <v>-40200</v>
+        <v>-39000</v>
       </c>
       <c r="G100" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -2968,13 +2968,13 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>36100</v>
+        <v>35000</v>
       </c>
       <c r="E101" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="F101" s="3">
-        <v>12400</v>
+        <v>12100</v>
       </c>
       <c r="G101" s="3">
         <v>1100</v>
@@ -2995,16 +2995,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>28400</v>
+        <v>27600</v>
       </c>
       <c r="E102" s="3">
-        <v>-33900</v>
+        <v>-33000</v>
       </c>
       <c r="F102" s="3">
-        <v>-30100</v>
+        <v>-29300</v>
       </c>
       <c r="G102" s="3">
-        <v>35100</v>
+        <v>34100</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/LOMA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/LOMA_YR_FIN.xlsx
@@ -712,16 +712,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>441600</v>
+        <v>427900</v>
       </c>
       <c r="E8" s="3">
-        <v>506700</v>
+        <v>490900</v>
       </c>
       <c r="F8" s="3">
-        <v>437500</v>
+        <v>423900</v>
       </c>
       <c r="G8" s="3">
-        <v>263500</v>
+        <v>255300</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -739,16 +739,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>308000</v>
+        <v>298400</v>
       </c>
       <c r="E9" s="3">
-        <v>371100</v>
+        <v>359600</v>
       </c>
       <c r="F9" s="3">
-        <v>352800</v>
+        <v>341900</v>
       </c>
       <c r="G9" s="3">
-        <v>196400</v>
+        <v>190300</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -766,16 +766,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>133700</v>
+        <v>129500</v>
       </c>
       <c r="E10" s="3">
-        <v>135500</v>
+        <v>131300</v>
       </c>
       <c r="F10" s="3">
-        <v>84700</v>
+        <v>82100</v>
       </c>
       <c r="G10" s="3">
-        <v>67100</v>
+        <v>65100</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -860,16 +860,16 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1500</v>
+        <v>10000</v>
       </c>
       <c r="E14" s="3">
-        <v>-15500</v>
+        <v>600</v>
       </c>
       <c r="F14" s="3">
-        <v>-3400</v>
+        <v>100</v>
       </c>
       <c r="G14" s="3">
-        <v>-3700</v>
+        <v>-100</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
@@ -887,7 +887,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="E15" s="3">
         <v>2400</v>
@@ -896,7 +896,7 @@
         <v>1000</v>
       </c>
       <c r="G15" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
@@ -924,16 +924,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>353700</v>
+        <v>351300</v>
       </c>
       <c r="E17" s="3">
-        <v>397700</v>
+        <v>400900</v>
       </c>
       <c r="F17" s="3">
-        <v>356600</v>
+        <v>348900</v>
       </c>
       <c r="G17" s="3">
-        <v>215700</v>
+        <v>212500</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -951,16 +951,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>87900</v>
+        <v>76600</v>
       </c>
       <c r="E18" s="3">
-        <v>109000</v>
+        <v>90000</v>
       </c>
       <c r="F18" s="3">
-        <v>80900</v>
+        <v>75000</v>
       </c>
       <c r="G18" s="3">
-        <v>47900</v>
+        <v>42900</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -991,16 +991,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>7200</v>
+        <v>15600</v>
       </c>
       <c r="E20" s="3">
-        <v>-24600</v>
+        <v>-8200</v>
       </c>
       <c r="F20" s="3">
-        <v>-24300</v>
+        <v>-20200</v>
       </c>
       <c r="G20" s="3">
-        <v>-2500</v>
+        <v>1100</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1018,16 +1018,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>137500</v>
+        <v>133100</v>
       </c>
       <c r="E21" s="3">
-        <v>123200</v>
+        <v>119300</v>
       </c>
       <c r="F21" s="3">
-        <v>91300</v>
+        <v>88400</v>
       </c>
       <c r="G21" s="3">
-        <v>63900</v>
+        <v>61900</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1045,16 +1045,16 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="E22" s="3">
-        <v>13400</v>
+        <v>13000</v>
       </c>
       <c r="F22" s="3">
-        <v>6300</v>
+        <v>6100</v>
       </c>
       <c r="G22" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -1072,16 +1072,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>90400</v>
+        <v>87600</v>
       </c>
       <c r="E23" s="3">
-        <v>70900</v>
+        <v>68700</v>
       </c>
       <c r="F23" s="3">
-        <v>50300</v>
+        <v>48700</v>
       </c>
       <c r="G23" s="3">
-        <v>41400</v>
+        <v>40100</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1099,16 +1099,16 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>24000</v>
+        <v>23300</v>
       </c>
       <c r="E24" s="3">
-        <v>23300</v>
+        <v>22600</v>
       </c>
       <c r="F24" s="3">
-        <v>18500</v>
+        <v>17900</v>
       </c>
       <c r="G24" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1153,16 +1153,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>66300</v>
+        <v>64300</v>
       </c>
       <c r="E26" s="3">
-        <v>47600</v>
+        <v>46100</v>
       </c>
       <c r="F26" s="3">
-        <v>31800</v>
+        <v>30800</v>
       </c>
       <c r="G26" s="3">
-        <v>39000</v>
+        <v>37800</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1180,16 +1180,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>66000</v>
+        <v>64000</v>
       </c>
       <c r="E27" s="3">
-        <v>44600</v>
+        <v>43200</v>
       </c>
       <c r="F27" s="3">
-        <v>29400</v>
+        <v>28500</v>
       </c>
       <c r="G27" s="3">
-        <v>37200</v>
+        <v>36100</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1234,10 +1234,10 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>54400</v>
+        <v>52700</v>
       </c>
       <c r="E29" s="3">
-        <v>10800</v>
+        <v>10500</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>3</v>
@@ -1315,16 +1315,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-7200</v>
+        <v>-15600</v>
       </c>
       <c r="E32" s="3">
-        <v>24600</v>
+        <v>8200</v>
       </c>
       <c r="F32" s="3">
-        <v>24300</v>
+        <v>20200</v>
       </c>
       <c r="G32" s="3">
-        <v>2500</v>
+        <v>-1100</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1342,16 +1342,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>120400</v>
+        <v>116700</v>
       </c>
       <c r="E33" s="3">
-        <v>55500</v>
+        <v>53700</v>
       </c>
       <c r="F33" s="3">
-        <v>29400</v>
+        <v>28500</v>
       </c>
       <c r="G33" s="3">
-        <v>37200</v>
+        <v>36100</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1396,16 +1396,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>120400</v>
+        <v>116700</v>
       </c>
       <c r="E35" s="3">
-        <v>55500</v>
+        <v>53700</v>
       </c>
       <c r="F35" s="3">
-        <v>29400</v>
+        <v>28500</v>
       </c>
       <c r="G35" s="3">
-        <v>37200</v>
+        <v>36100</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1481,16 +1481,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="E41" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="F41" s="3">
-        <v>13200</v>
+        <v>12800</v>
       </c>
       <c r="G41" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1508,16 +1508,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>49200</v>
+        <v>52900</v>
       </c>
       <c r="E42" s="3">
-        <v>14700</v>
+        <v>14300</v>
       </c>
       <c r="F42" s="3">
-        <v>34200</v>
+        <v>33100</v>
       </c>
       <c r="G42" s="3">
-        <v>46900</v>
+        <v>45400</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
@@ -1535,16 +1535,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>48000</v>
+        <v>51600</v>
       </c>
       <c r="E43" s="3">
-        <v>44700</v>
+        <v>43300</v>
       </c>
       <c r="F43" s="3">
-        <v>38500</v>
+        <v>37300</v>
       </c>
       <c r="G43" s="3">
-        <v>22300</v>
+        <v>21600</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1562,16 +1562,16 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>65800</v>
+        <v>70800</v>
       </c>
       <c r="E44" s="3">
-        <v>70000</v>
+        <v>67800</v>
       </c>
       <c r="F44" s="3">
-        <v>61700</v>
+        <v>59700</v>
       </c>
       <c r="G44" s="3">
-        <v>36900</v>
+        <v>35800</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
@@ -1589,13 +1589,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="E45" s="3">
         <v>1300</v>
       </c>
       <c r="F45" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="G45" s="3">
         <v>1400</v>
@@ -1616,16 +1616,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>168700</v>
+        <v>181300</v>
       </c>
       <c r="E46" s="3">
-        <v>131200</v>
+        <v>127100</v>
       </c>
       <c r="F46" s="3">
-        <v>149000</v>
+        <v>144300</v>
       </c>
       <c r="G46" s="3">
-        <v>107400</v>
+        <v>104100</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1643,16 +1643,16 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5800</v>
+        <v>6200</v>
       </c>
       <c r="E47" s="3">
-        <v>72000</v>
+        <v>69800</v>
       </c>
       <c r="F47" s="3">
-        <v>15500</v>
+        <v>15000</v>
       </c>
       <c r="G47" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -1670,16 +1670,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>647200</v>
+        <v>695800</v>
       </c>
       <c r="E48" s="3">
-        <v>1058500</v>
+        <v>1025500</v>
       </c>
       <c r="F48" s="3">
-        <v>676700</v>
+        <v>655700</v>
       </c>
       <c r="G48" s="3">
-        <v>257700</v>
+        <v>249700</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1697,16 +1697,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2700</v>
+        <v>2900</v>
       </c>
       <c r="E49" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="F49" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="G49" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -1778,16 +1778,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>25800</v>
+        <v>27800</v>
       </c>
       <c r="E52" s="3">
-        <v>21600</v>
+        <v>20900</v>
       </c>
       <c r="F52" s="3">
-        <v>11100</v>
+        <v>10700</v>
       </c>
       <c r="G52" s="3">
-        <v>6800</v>
+        <v>6600</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -1832,16 +1832,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>850200</v>
+        <v>914000</v>
       </c>
       <c r="E54" s="3">
-        <v>803400</v>
+        <v>778500</v>
       </c>
       <c r="F54" s="3">
-        <v>536400</v>
+        <v>519700</v>
       </c>
       <c r="G54" s="3">
-        <v>313300</v>
+        <v>303500</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -1885,16 +1885,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>38400</v>
+        <v>41300</v>
       </c>
       <c r="E57" s="3">
-        <v>26600</v>
+        <v>25800</v>
       </c>
       <c r="F57" s="3">
-        <v>33800</v>
+        <v>32700</v>
       </c>
       <c r="G57" s="3">
-        <v>19400</v>
+        <v>18800</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -1912,16 +1912,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>56500</v>
+        <v>60700</v>
       </c>
       <c r="E58" s="3">
-        <v>75400</v>
+        <v>73100</v>
       </c>
       <c r="F58" s="3">
-        <v>55400</v>
+        <v>53700</v>
       </c>
       <c r="G58" s="3">
-        <v>27600</v>
+        <v>26700</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -1939,16 +1939,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>88300</v>
+        <v>94900</v>
       </c>
       <c r="E59" s="3">
-        <v>124500</v>
+        <v>120600</v>
       </c>
       <c r="F59" s="3">
-        <v>71200</v>
+        <v>69000</v>
       </c>
       <c r="G59" s="3">
-        <v>41300</v>
+        <v>40000</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -1966,16 +1966,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>183100</v>
+        <v>196800</v>
       </c>
       <c r="E60" s="3">
-        <v>226500</v>
+        <v>219500</v>
       </c>
       <c r="F60" s="3">
-        <v>160500</v>
+        <v>155500</v>
       </c>
       <c r="G60" s="3">
-        <v>85800</v>
+        <v>83100</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -1993,16 +1993,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>27100</v>
+        <v>29100</v>
       </c>
       <c r="E61" s="3">
-        <v>64000</v>
+        <v>62000</v>
       </c>
       <c r="F61" s="3">
-        <v>42600</v>
+        <v>41200</v>
       </c>
       <c r="G61" s="3">
-        <v>40800</v>
+        <v>39500</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2020,16 +2020,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>96100</v>
+        <v>103300</v>
       </c>
       <c r="E62" s="3">
-        <v>89300</v>
+        <v>86500</v>
       </c>
       <c r="F62" s="3">
-        <v>63200</v>
+        <v>61300</v>
       </c>
       <c r="G62" s="3">
-        <v>36800</v>
+        <v>35600</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2128,16 +2128,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>309500</v>
+        <v>332700</v>
       </c>
       <c r="E66" s="3">
-        <v>412000</v>
+        <v>399200</v>
       </c>
       <c r="F66" s="3">
-        <v>288700</v>
+        <v>279700</v>
       </c>
       <c r="G66" s="3">
-        <v>173900</v>
+        <v>168500</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2276,16 +2276,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>360400</v>
+        <v>387400</v>
       </c>
       <c r="E72" s="3">
-        <v>227000</v>
+        <v>219900</v>
       </c>
       <c r="F72" s="3">
-        <v>126000</v>
+        <v>122100</v>
       </c>
       <c r="G72" s="3">
-        <v>62800</v>
+        <v>60800</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2384,16 +2384,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>540700</v>
+        <v>581300</v>
       </c>
       <c r="E76" s="3">
-        <v>391400</v>
+        <v>379200</v>
       </c>
       <c r="F76" s="3">
-        <v>247700</v>
+        <v>240000</v>
       </c>
       <c r="G76" s="3">
-        <v>139400</v>
+        <v>135100</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2470,16 +2470,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>120400</v>
+        <v>116700</v>
       </c>
       <c r="E81" s="3">
-        <v>55500</v>
+        <v>53700</v>
       </c>
       <c r="F81" s="3">
-        <v>29400</v>
+        <v>28500</v>
       </c>
       <c r="G81" s="3">
-        <v>37200</v>
+        <v>36100</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2510,16 +2510,16 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>42300</v>
+        <v>41000</v>
       </c>
       <c r="E83" s="3">
-        <v>38800</v>
+        <v>37600</v>
       </c>
       <c r="F83" s="3">
-        <v>34600</v>
+        <v>33500</v>
       </c>
       <c r="G83" s="3">
-        <v>18500</v>
+        <v>17900</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -2672,16 +2672,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>119200</v>
+        <v>115500</v>
       </c>
       <c r="E89" s="3">
-        <v>96600</v>
+        <v>93600</v>
       </c>
       <c r="F89" s="3">
-        <v>66600</v>
+        <v>64500</v>
       </c>
       <c r="G89" s="3">
-        <v>53300</v>
+        <v>51700</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2712,16 +2712,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-102300</v>
+        <v>-99100</v>
       </c>
       <c r="E91" s="3">
-        <v>-169200</v>
+        <v>-163900</v>
       </c>
       <c r="F91" s="3">
-        <v>-67900</v>
+        <v>-65800</v>
       </c>
       <c r="G91" s="3">
-        <v>-23500</v>
+        <v>-22800</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -2793,16 +2793,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-15200</v>
+        <v>-14700</v>
       </c>
       <c r="E94" s="3">
-        <v>-169500</v>
+        <v>-164200</v>
       </c>
       <c r="F94" s="3">
-        <v>-68900</v>
+        <v>-66800</v>
       </c>
       <c r="G94" s="3">
-        <v>-23600</v>
+        <v>-22900</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -2833,7 +2833,7 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-28300</v>
+        <v>-27400</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-8200</v>
+        <v>-7900</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -2941,16 +2941,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-111400</v>
+        <v>-108000</v>
       </c>
       <c r="E100" s="3">
-        <v>37100</v>
+        <v>36000</v>
       </c>
       <c r="F100" s="3">
-        <v>-39000</v>
+        <v>-37800</v>
       </c>
       <c r="G100" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -2968,13 +2968,13 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>35000</v>
+        <v>33900</v>
       </c>
       <c r="E101" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="F101" s="3">
-        <v>12100</v>
+        <v>11700</v>
       </c>
       <c r="G101" s="3">
         <v>1100</v>
@@ -2995,16 +2995,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>27600</v>
+        <v>26700</v>
       </c>
       <c r="E102" s="3">
-        <v>-33000</v>
+        <v>-31900</v>
       </c>
       <c r="F102" s="3">
-        <v>-29300</v>
+        <v>-28400</v>
       </c>
       <c r="G102" s="3">
-        <v>34100</v>
+        <v>33000</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/LOMA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/LOMA_YR_FIN.xlsx
@@ -712,16 +712,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>427900</v>
+        <v>412900</v>
       </c>
       <c r="E8" s="3">
-        <v>490900</v>
+        <v>473700</v>
       </c>
       <c r="F8" s="3">
-        <v>423900</v>
+        <v>409100</v>
       </c>
       <c r="G8" s="3">
-        <v>255300</v>
+        <v>246400</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -739,16 +739,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>298400</v>
+        <v>287900</v>
       </c>
       <c r="E9" s="3">
-        <v>359600</v>
+        <v>347000</v>
       </c>
       <c r="F9" s="3">
-        <v>341900</v>
+        <v>329900</v>
       </c>
       <c r="G9" s="3">
-        <v>190300</v>
+        <v>183600</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -766,16 +766,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>129500</v>
+        <v>125000</v>
       </c>
       <c r="E10" s="3">
-        <v>131300</v>
+        <v>126700</v>
       </c>
       <c r="F10" s="3">
-        <v>82100</v>
+        <v>79200</v>
       </c>
       <c r="G10" s="3">
-        <v>65100</v>
+        <v>62800</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -860,10 +860,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>10000</v>
+        <v>9700</v>
       </c>
       <c r="E14" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F14" s="3">
         <v>100</v>
@@ -887,10 +887,10 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="E15" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="F15" s="3">
         <v>1000</v>
@@ -924,16 +924,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>351300</v>
+        <v>339000</v>
       </c>
       <c r="E17" s="3">
-        <v>400900</v>
+        <v>386900</v>
       </c>
       <c r="F17" s="3">
-        <v>348900</v>
+        <v>336700</v>
       </c>
       <c r="G17" s="3">
-        <v>212500</v>
+        <v>205000</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -951,16 +951,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>76600</v>
+        <v>73900</v>
       </c>
       <c r="E18" s="3">
-        <v>90000</v>
+        <v>86800</v>
       </c>
       <c r="F18" s="3">
-        <v>75000</v>
+        <v>72400</v>
       </c>
       <c r="G18" s="3">
-        <v>42900</v>
+        <v>41400</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -991,13 +991,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>15600</v>
+        <v>15000</v>
       </c>
       <c r="E20" s="3">
-        <v>-8200</v>
+        <v>-8000</v>
       </c>
       <c r="F20" s="3">
-        <v>-20200</v>
+        <v>-19500</v>
       </c>
       <c r="G20" s="3">
         <v>1100</v>
@@ -1018,16 +1018,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>133100</v>
+        <v>128500</v>
       </c>
       <c r="E21" s="3">
-        <v>119300</v>
+        <v>115200</v>
       </c>
       <c r="F21" s="3">
-        <v>88400</v>
+        <v>85300</v>
       </c>
       <c r="G21" s="3">
-        <v>61900</v>
+        <v>59700</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1045,16 +1045,16 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>4600</v>
+        <v>4400</v>
       </c>
       <c r="E22" s="3">
-        <v>13000</v>
+        <v>12600</v>
       </c>
       <c r="F22" s="3">
-        <v>6100</v>
+        <v>5900</v>
       </c>
       <c r="G22" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -1072,16 +1072,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>87600</v>
+        <v>84500</v>
       </c>
       <c r="E23" s="3">
-        <v>68700</v>
+        <v>66300</v>
       </c>
       <c r="F23" s="3">
-        <v>48700</v>
+        <v>47000</v>
       </c>
       <c r="G23" s="3">
-        <v>40100</v>
+        <v>38700</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1099,16 +1099,16 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>23300</v>
+        <v>22500</v>
       </c>
       <c r="E24" s="3">
-        <v>22600</v>
+        <v>21800</v>
       </c>
       <c r="F24" s="3">
-        <v>17900</v>
+        <v>17300</v>
       </c>
       <c r="G24" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1153,16 +1153,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>64300</v>
+        <v>62000</v>
       </c>
       <c r="E26" s="3">
-        <v>46100</v>
+        <v>44500</v>
       </c>
       <c r="F26" s="3">
-        <v>30800</v>
+        <v>29800</v>
       </c>
       <c r="G26" s="3">
-        <v>37800</v>
+        <v>36500</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1180,16 +1180,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>64000</v>
+        <v>61700</v>
       </c>
       <c r="E27" s="3">
-        <v>43200</v>
+        <v>41700</v>
       </c>
       <c r="F27" s="3">
-        <v>28500</v>
+        <v>27500</v>
       </c>
       <c r="G27" s="3">
-        <v>36100</v>
+        <v>34800</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1234,10 +1234,10 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>52700</v>
+        <v>50900</v>
       </c>
       <c r="E29" s="3">
-        <v>10500</v>
+        <v>10100</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>3</v>
@@ -1315,13 +1315,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-15600</v>
+        <v>-15000</v>
       </c>
       <c r="E32" s="3">
-        <v>8200</v>
+        <v>8000</v>
       </c>
       <c r="F32" s="3">
-        <v>20200</v>
+        <v>19500</v>
       </c>
       <c r="G32" s="3">
         <v>-1100</v>
@@ -1342,16 +1342,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>116700</v>
+        <v>112600</v>
       </c>
       <c r="E33" s="3">
-        <v>53700</v>
+        <v>51800</v>
       </c>
       <c r="F33" s="3">
-        <v>28500</v>
+        <v>27500</v>
       </c>
       <c r="G33" s="3">
-        <v>36100</v>
+        <v>34800</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1396,16 +1396,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>116700</v>
+        <v>112600</v>
       </c>
       <c r="E35" s="3">
-        <v>53700</v>
+        <v>51800</v>
       </c>
       <c r="F35" s="3">
-        <v>28500</v>
+        <v>27500</v>
       </c>
       <c r="G35" s="3">
-        <v>36100</v>
+        <v>34800</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1481,16 +1481,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3400</v>
+        <v>3600</v>
       </c>
       <c r="E41" s="3">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="F41" s="3">
-        <v>12800</v>
+        <v>12300</v>
       </c>
       <c r="G41" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1508,16 +1508,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>52900</v>
+        <v>55800</v>
       </c>
       <c r="E42" s="3">
-        <v>14300</v>
+        <v>13800</v>
       </c>
       <c r="F42" s="3">
-        <v>33100</v>
+        <v>32000</v>
       </c>
       <c r="G42" s="3">
-        <v>45400</v>
+        <v>43800</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
@@ -1535,16 +1535,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>51600</v>
+        <v>54400</v>
       </c>
       <c r="E43" s="3">
-        <v>43300</v>
+        <v>41800</v>
       </c>
       <c r="F43" s="3">
-        <v>37300</v>
+        <v>36000</v>
       </c>
       <c r="G43" s="3">
-        <v>21600</v>
+        <v>20800</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1562,16 +1562,16 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>70800</v>
+        <v>74600</v>
       </c>
       <c r="E44" s="3">
-        <v>67800</v>
+        <v>65400</v>
       </c>
       <c r="F44" s="3">
-        <v>59700</v>
+        <v>57600</v>
       </c>
       <c r="G44" s="3">
-        <v>35800</v>
+        <v>34500</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
@@ -1589,16 +1589,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="E45" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="F45" s="3">
         <v>1400</v>
       </c>
       <c r="G45" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1616,16 +1616,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>181300</v>
+        <v>191200</v>
       </c>
       <c r="E46" s="3">
-        <v>127100</v>
+        <v>122700</v>
       </c>
       <c r="F46" s="3">
-        <v>144300</v>
+        <v>139300</v>
       </c>
       <c r="G46" s="3">
-        <v>104100</v>
+        <v>100400</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1643,16 +1643,16 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6200</v>
+        <v>6600</v>
       </c>
       <c r="E47" s="3">
-        <v>69800</v>
+        <v>67300</v>
       </c>
       <c r="F47" s="3">
-        <v>15000</v>
+        <v>14500</v>
       </c>
       <c r="G47" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -1670,16 +1670,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>695800</v>
+        <v>733700</v>
       </c>
       <c r="E48" s="3">
-        <v>1025500</v>
+        <v>985600</v>
       </c>
       <c r="F48" s="3">
-        <v>655700</v>
+        <v>632700</v>
       </c>
       <c r="G48" s="3">
-        <v>249700</v>
+        <v>240900</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1697,16 +1697,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2900</v>
+        <v>3100</v>
       </c>
       <c r="E49" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="F49" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="G49" s="3">
-        <v>3300</v>
+        <v>3100</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -1778,16 +1778,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>27800</v>
+        <v>29300</v>
       </c>
       <c r="E52" s="3">
-        <v>20900</v>
+        <v>20200</v>
       </c>
       <c r="F52" s="3">
-        <v>10700</v>
+        <v>10300</v>
       </c>
       <c r="G52" s="3">
-        <v>6600</v>
+        <v>6300</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -1832,16 +1832,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>914000</v>
+        <v>963900</v>
       </c>
       <c r="E54" s="3">
-        <v>778500</v>
+        <v>751200</v>
       </c>
       <c r="F54" s="3">
-        <v>519700</v>
+        <v>501500</v>
       </c>
       <c r="G54" s="3">
-        <v>303500</v>
+        <v>292900</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -1885,16 +1885,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>41300</v>
+        <v>43500</v>
       </c>
       <c r="E57" s="3">
-        <v>25800</v>
+        <v>24800</v>
       </c>
       <c r="F57" s="3">
-        <v>32700</v>
+        <v>31600</v>
       </c>
       <c r="G57" s="3">
-        <v>18800</v>
+        <v>18200</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -1912,16 +1912,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>60700</v>
+        <v>64000</v>
       </c>
       <c r="E58" s="3">
-        <v>73100</v>
+        <v>70500</v>
       </c>
       <c r="F58" s="3">
-        <v>53700</v>
+        <v>51800</v>
       </c>
       <c r="G58" s="3">
-        <v>26700</v>
+        <v>25800</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -1939,16 +1939,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>94900</v>
+        <v>100100</v>
       </c>
       <c r="E59" s="3">
-        <v>120600</v>
+        <v>116400</v>
       </c>
       <c r="F59" s="3">
-        <v>69000</v>
+        <v>66600</v>
       </c>
       <c r="G59" s="3">
-        <v>40000</v>
+        <v>38600</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -1966,16 +1966,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>196800</v>
+        <v>207600</v>
       </c>
       <c r="E60" s="3">
-        <v>219500</v>
+        <v>211800</v>
       </c>
       <c r="F60" s="3">
-        <v>155500</v>
+        <v>150000</v>
       </c>
       <c r="G60" s="3">
-        <v>83100</v>
+        <v>80200</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -1993,16 +1993,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>29100</v>
+        <v>30700</v>
       </c>
       <c r="E61" s="3">
-        <v>62000</v>
+        <v>59800</v>
       </c>
       <c r="F61" s="3">
-        <v>41200</v>
+        <v>39800</v>
       </c>
       <c r="G61" s="3">
-        <v>39500</v>
+        <v>38100</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2020,16 +2020,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>103300</v>
+        <v>108900</v>
       </c>
       <c r="E62" s="3">
-        <v>86500</v>
+        <v>83500</v>
       </c>
       <c r="F62" s="3">
-        <v>61300</v>
+        <v>59100</v>
       </c>
       <c r="G62" s="3">
-        <v>35600</v>
+        <v>34400</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2128,16 +2128,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>332700</v>
+        <v>350900</v>
       </c>
       <c r="E66" s="3">
-        <v>399200</v>
+        <v>385300</v>
       </c>
       <c r="F66" s="3">
-        <v>279700</v>
+        <v>269900</v>
       </c>
       <c r="G66" s="3">
-        <v>168500</v>
+        <v>162600</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2276,16 +2276,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>387400</v>
+        <v>408500</v>
       </c>
       <c r="E72" s="3">
-        <v>219900</v>
+        <v>212200</v>
       </c>
       <c r="F72" s="3">
-        <v>122100</v>
+        <v>117800</v>
       </c>
       <c r="G72" s="3">
-        <v>60800</v>
+        <v>58700</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2384,16 +2384,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>581300</v>
+        <v>613000</v>
       </c>
       <c r="E76" s="3">
-        <v>379200</v>
+        <v>365900</v>
       </c>
       <c r="F76" s="3">
-        <v>240000</v>
+        <v>231600</v>
       </c>
       <c r="G76" s="3">
-        <v>135100</v>
+        <v>130300</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2470,16 +2470,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>116700</v>
+        <v>112600</v>
       </c>
       <c r="E81" s="3">
-        <v>53700</v>
+        <v>51800</v>
       </c>
       <c r="F81" s="3">
-        <v>28500</v>
+        <v>27500</v>
       </c>
       <c r="G81" s="3">
-        <v>36100</v>
+        <v>34800</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2510,16 +2510,16 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>41000</v>
+        <v>39600</v>
       </c>
       <c r="E83" s="3">
-        <v>37600</v>
+        <v>36300</v>
       </c>
       <c r="F83" s="3">
-        <v>33500</v>
+        <v>32400</v>
       </c>
       <c r="G83" s="3">
-        <v>17900</v>
+        <v>17300</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -2672,16 +2672,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>115500</v>
+        <v>111400</v>
       </c>
       <c r="E89" s="3">
-        <v>93600</v>
+        <v>90300</v>
       </c>
       <c r="F89" s="3">
-        <v>64500</v>
+        <v>62300</v>
       </c>
       <c r="G89" s="3">
-        <v>51700</v>
+        <v>49900</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2712,16 +2712,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-99100</v>
+        <v>-95600</v>
       </c>
       <c r="E91" s="3">
-        <v>-163900</v>
+        <v>-158200</v>
       </c>
       <c r="F91" s="3">
-        <v>-65800</v>
+        <v>-63500</v>
       </c>
       <c r="G91" s="3">
-        <v>-22800</v>
+        <v>-22000</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -2793,16 +2793,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-14700</v>
+        <v>-14200</v>
       </c>
       <c r="E94" s="3">
-        <v>-164200</v>
+        <v>-158500</v>
       </c>
       <c r="F94" s="3">
-        <v>-66800</v>
+        <v>-64500</v>
       </c>
       <c r="G94" s="3">
-        <v>-22900</v>
+        <v>-22100</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -2833,7 +2833,7 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-27400</v>
+        <v>-26400</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-7900</v>
+        <v>-7700</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -2941,16 +2941,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-108000</v>
+        <v>-104200</v>
       </c>
       <c r="E100" s="3">
-        <v>36000</v>
+        <v>34700</v>
       </c>
       <c r="F100" s="3">
-        <v>-37800</v>
+        <v>-36500</v>
       </c>
       <c r="G100" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -2968,16 +2968,16 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>33900</v>
+        <v>32800</v>
       </c>
       <c r="E101" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="F101" s="3">
-        <v>11700</v>
+        <v>11300</v>
       </c>
       <c r="G101" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
@@ -2995,16 +2995,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>26700</v>
+        <v>25800</v>
       </c>
       <c r="E102" s="3">
-        <v>-31900</v>
+        <v>-30800</v>
       </c>
       <c r="F102" s="3">
-        <v>-28400</v>
+        <v>-27400</v>
       </c>
       <c r="G102" s="3">
-        <v>33000</v>
+        <v>31900</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/LOMA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/LOMA_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="92">
   <si>
     <t>LOMA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,66 +665,69 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>412900</v>
+        <v>677000</v>
       </c>
       <c r="E8" s="3">
-        <v>473700</v>
+        <v>577400</v>
       </c>
       <c r="F8" s="3">
-        <v>409100</v>
+        <v>438900</v>
       </c>
       <c r="G8" s="3">
-        <v>246400</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
+        <v>379000</v>
+      </c>
+      <c r="H8" s="3">
+        <v>228300</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -732,26 +735,29 @@
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>287900</v>
+        <v>463000</v>
       </c>
       <c r="E9" s="3">
-        <v>347000</v>
+        <v>402600</v>
       </c>
       <c r="F9" s="3">
-        <v>329900</v>
+        <v>321500</v>
       </c>
       <c r="G9" s="3">
-        <v>183600</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
+        <v>305600</v>
+      </c>
+      <c r="H9" s="3">
+        <v>170100</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -759,26 +765,29 @@
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>125000</v>
+        <v>214000</v>
       </c>
       <c r="E10" s="3">
-        <v>126700</v>
+        <v>174700</v>
       </c>
       <c r="F10" s="3">
-        <v>79200</v>
+        <v>117400</v>
       </c>
       <c r="G10" s="3">
-        <v>62800</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
+        <v>73400</v>
+      </c>
+      <c r="H10" s="3">
+        <v>58200</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -786,9 +795,12 @@
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -800,8 +812,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -826,9 +839,12 @@
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -853,63 +869,72 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>9700</v>
+        <v>1900</v>
       </c>
       <c r="E14" s="3">
+        <v>13600</v>
+      </c>
+      <c r="F14" s="3">
         <v>500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-100</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2800</v>
+        <v>3400</v>
       </c>
       <c r="E15" s="3">
-        <v>2300</v>
+        <v>4000</v>
       </c>
       <c r="F15" s="3">
-        <v>1000</v>
+        <v>2100</v>
       </c>
       <c r="G15" s="3">
+        <v>900</v>
+      </c>
+      <c r="H15" s="3">
         <v>400</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -918,25 +943,26 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>339000</v>
+        <v>527500</v>
       </c>
       <c r="E17" s="3">
-        <v>386900</v>
+        <v>474000</v>
       </c>
       <c r="F17" s="3">
-        <v>336700</v>
+        <v>358400</v>
       </c>
       <c r="G17" s="3">
-        <v>205000</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
+        <v>311900</v>
+      </c>
+      <c r="H17" s="3">
+        <v>189900</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -944,26 +970,29 @@
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>73900</v>
+        <v>149500</v>
       </c>
       <c r="E18" s="3">
-        <v>86800</v>
+        <v>103300</v>
       </c>
       <c r="F18" s="3">
-        <v>72400</v>
+        <v>80400</v>
       </c>
       <c r="G18" s="3">
-        <v>41400</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
+        <v>67100</v>
+      </c>
+      <c r="H18" s="3">
+        <v>38300</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -971,9 +1000,12 @@
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -985,25 +1017,26 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>15000</v>
+        <v>3900</v>
       </c>
       <c r="E20" s="3">
-        <v>-8000</v>
+        <v>21000</v>
       </c>
       <c r="F20" s="3">
-        <v>-19500</v>
+        <v>-7400</v>
       </c>
       <c r="G20" s="3">
-        <v>1100</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
+        <v>-18000</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1000</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1011,26 +1044,29 @@
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>128500</v>
+        <v>208200</v>
       </c>
       <c r="E21" s="3">
-        <v>115200</v>
+        <v>179700</v>
       </c>
       <c r="F21" s="3">
-        <v>85300</v>
+        <v>106700</v>
       </c>
       <c r="G21" s="3">
-        <v>59700</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
+        <v>79100</v>
+      </c>
+      <c r="H21" s="3">
+        <v>55300</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1038,26 +1074,29 @@
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>4400</v>
+        <v>3500</v>
       </c>
       <c r="E22" s="3">
-        <v>12600</v>
+        <v>6200</v>
       </c>
       <c r="F22" s="3">
-        <v>5900</v>
+        <v>11600</v>
       </c>
       <c r="G22" s="3">
-        <v>3800</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
+        <v>5500</v>
+      </c>
+      <c r="H22" s="3">
+        <v>3500</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
@@ -1065,26 +1104,29 @@
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>84500</v>
+        <v>149900</v>
       </c>
       <c r="E23" s="3">
-        <v>66300</v>
+        <v>118100</v>
       </c>
       <c r="F23" s="3">
-        <v>47000</v>
+        <v>61400</v>
       </c>
       <c r="G23" s="3">
-        <v>38700</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
+        <v>43600</v>
+      </c>
+      <c r="H23" s="3">
+        <v>35800</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1092,26 +1134,29 @@
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>22500</v>
+        <v>91600</v>
       </c>
       <c r="E24" s="3">
-        <v>21800</v>
+        <v>31400</v>
       </c>
       <c r="F24" s="3">
-        <v>17300</v>
+        <v>20200</v>
       </c>
       <c r="G24" s="3">
-        <v>2200</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
+        <v>16000</v>
+      </c>
+      <c r="H24" s="3">
+        <v>2000</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1119,9 +1164,12 @@
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1146,26 +1194,29 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>62000</v>
+        <v>58300</v>
       </c>
       <c r="E26" s="3">
-        <v>44500</v>
+        <v>86700</v>
       </c>
       <c r="F26" s="3">
-        <v>29800</v>
+        <v>41200</v>
       </c>
       <c r="G26" s="3">
-        <v>36500</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
+        <v>27600</v>
+      </c>
+      <c r="H26" s="3">
+        <v>33800</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1173,26 +1224,29 @@
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>61700</v>
+        <v>60500</v>
       </c>
       <c r="E27" s="3">
-        <v>41700</v>
+        <v>86300</v>
       </c>
       <c r="F27" s="3">
-        <v>27500</v>
+        <v>38700</v>
       </c>
       <c r="G27" s="3">
-        <v>34800</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
+        <v>25400</v>
+      </c>
+      <c r="H27" s="3">
+        <v>32300</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1200,9 +1254,12 @@
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1227,20 +1284,23 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>50900</v>
+        <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>10100</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>3</v>
+        <v>71100</v>
+      </c>
+      <c r="F29" s="3">
+        <v>9400</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>3</v>
@@ -1254,9 +1314,12 @@
       <c r="J29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1281,9 +1344,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1308,26 +1374,29 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-15000</v>
+        <v>-3900</v>
       </c>
       <c r="E32" s="3">
-        <v>8000</v>
+        <v>-21000</v>
       </c>
       <c r="F32" s="3">
-        <v>19500</v>
+        <v>7400</v>
       </c>
       <c r="G32" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
+        <v>18000</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-1000</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1335,26 +1404,29 @@
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>112600</v>
+        <v>60500</v>
       </c>
       <c r="E33" s="3">
-        <v>51800</v>
+        <v>157500</v>
       </c>
       <c r="F33" s="3">
-        <v>27500</v>
+        <v>48000</v>
       </c>
       <c r="G33" s="3">
-        <v>34800</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
+        <v>25400</v>
+      </c>
+      <c r="H33" s="3">
+        <v>32300</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1362,9 +1434,12 @@
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1389,26 +1464,29 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>112600</v>
+        <v>60500</v>
       </c>
       <c r="E35" s="3">
-        <v>51800</v>
+        <v>157500</v>
       </c>
       <c r="F35" s="3">
-        <v>27500</v>
+        <v>48000</v>
       </c>
       <c r="G35" s="3">
-        <v>34800</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
+        <v>25400</v>
+      </c>
+      <c r="H35" s="3">
+        <v>32300</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1416,41 +1494,47 @@
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1462,8 +1546,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1475,25 +1560,26 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F41" s="3">
         <v>3600</v>
       </c>
-      <c r="E41" s="3">
-        <v>3800</v>
-      </c>
-      <c r="F41" s="3">
-        <v>12300</v>
-      </c>
       <c r="G41" s="3">
-        <v>2800</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
+        <v>11400</v>
+      </c>
+      <c r="H41" s="3">
+        <v>2600</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1501,26 +1587,29 @@
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>55800</v>
+        <v>45400</v>
       </c>
       <c r="E42" s="3">
-        <v>13800</v>
+        <v>57000</v>
       </c>
       <c r="F42" s="3">
-        <v>32000</v>
+        <v>12800</v>
       </c>
       <c r="G42" s="3">
-        <v>43800</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
+        <v>29600</v>
+      </c>
+      <c r="H42" s="3">
+        <v>40600</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1528,26 +1617,29 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>54400</v>
+        <v>45000</v>
       </c>
       <c r="E43" s="3">
-        <v>41800</v>
+        <v>55500</v>
       </c>
       <c r="F43" s="3">
-        <v>36000</v>
+        <v>38800</v>
       </c>
       <c r="G43" s="3">
-        <v>20800</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
+        <v>33300</v>
+      </c>
+      <c r="H43" s="3">
+        <v>19300</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1555,26 +1647,29 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>74600</v>
+        <v>79900</v>
       </c>
       <c r="E44" s="3">
-        <v>65400</v>
+        <v>76200</v>
       </c>
       <c r="F44" s="3">
-        <v>57600</v>
+        <v>60600</v>
       </c>
       <c r="G44" s="3">
-        <v>34500</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
+        <v>53400</v>
+      </c>
+      <c r="H44" s="3">
+        <v>32000</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
@@ -1582,26 +1677,29 @@
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E45" s="3">
         <v>2800</v>
       </c>
-      <c r="E45" s="3">
-        <v>1200</v>
-      </c>
       <c r="F45" s="3">
-        <v>1400</v>
+        <v>1100</v>
       </c>
       <c r="G45" s="3">
         <v>1300</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
+      <c r="H45" s="3">
+        <v>1200</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1609,26 +1707,29 @@
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>191200</v>
+        <v>175700</v>
       </c>
       <c r="E46" s="3">
-        <v>122700</v>
+        <v>195200</v>
       </c>
       <c r="F46" s="3">
-        <v>139300</v>
+        <v>113600</v>
       </c>
       <c r="G46" s="3">
-        <v>100400</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
+        <v>129000</v>
+      </c>
+      <c r="H46" s="3">
+        <v>93000</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1636,26 +1737,29 @@
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6600</v>
+        <v>6400</v>
       </c>
       <c r="E47" s="3">
-        <v>67300</v>
+        <v>6700</v>
       </c>
       <c r="F47" s="3">
-        <v>14500</v>
+        <v>62400</v>
       </c>
       <c r="G47" s="3">
-        <v>3600</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
+        <v>13400</v>
+      </c>
+      <c r="H47" s="3">
+        <v>3300</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -1663,26 +1767,29 @@
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>733700</v>
+        <v>750000</v>
       </c>
       <c r="E48" s="3">
-        <v>985600</v>
+        <v>749100</v>
       </c>
       <c r="F48" s="3">
-        <v>632700</v>
+        <v>913000</v>
       </c>
       <c r="G48" s="3">
-        <v>240900</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
+        <v>586100</v>
+      </c>
+      <c r="H48" s="3">
+        <v>223200</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1690,9 +1797,12 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1700,16 +1810,16 @@
         <v>3100</v>
       </c>
       <c r="E49" s="3">
-        <v>2000</v>
+        <v>3100</v>
       </c>
       <c r="F49" s="3">
-        <v>3600</v>
+        <v>1900</v>
       </c>
       <c r="G49" s="3">
-        <v>3100</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
+        <v>3300</v>
+      </c>
+      <c r="H49" s="3">
+        <v>2900</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -1717,9 +1827,12 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1744,9 +1857,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1771,26 +1887,29 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>29300</v>
+        <v>28300</v>
       </c>
       <c r="E52" s="3">
-        <v>20200</v>
+        <v>29900</v>
       </c>
       <c r="F52" s="3">
-        <v>10300</v>
+        <v>18700</v>
       </c>
       <c r="G52" s="3">
-        <v>6300</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
+        <v>9600</v>
+      </c>
+      <c r="H52" s="3">
+        <v>5900</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -1798,9 +1917,12 @@
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1825,26 +1947,29 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>963900</v>
+        <v>963600</v>
       </c>
       <c r="E54" s="3">
-        <v>751200</v>
+        <v>984100</v>
       </c>
       <c r="F54" s="3">
-        <v>501500</v>
+        <v>695900</v>
       </c>
       <c r="G54" s="3">
-        <v>292900</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
+        <v>464600</v>
+      </c>
+      <c r="H54" s="3">
+        <v>271300</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -1852,9 +1977,12 @@
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1866,8 +1994,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1879,25 +2008,26 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>43500</v>
+        <v>37900</v>
       </c>
       <c r="E57" s="3">
-        <v>24800</v>
+        <v>44400</v>
       </c>
       <c r="F57" s="3">
-        <v>31600</v>
+        <v>23000</v>
       </c>
       <c r="G57" s="3">
-        <v>18200</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
+        <v>29300</v>
+      </c>
+      <c r="H57" s="3">
+        <v>16800</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -1905,26 +2035,29 @@
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>64000</v>
+        <v>20100</v>
       </c>
       <c r="E58" s="3">
-        <v>70500</v>
+        <v>65400</v>
       </c>
       <c r="F58" s="3">
-        <v>51800</v>
+        <v>65300</v>
       </c>
       <c r="G58" s="3">
-        <v>25800</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
+        <v>48000</v>
+      </c>
+      <c r="H58" s="3">
+        <v>23900</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -1932,26 +2065,29 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>100100</v>
+        <v>94800</v>
       </c>
       <c r="E59" s="3">
-        <v>116400</v>
+        <v>102200</v>
       </c>
       <c r="F59" s="3">
-        <v>66600</v>
+        <v>107900</v>
       </c>
       <c r="G59" s="3">
-        <v>38600</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
+        <v>61700</v>
+      </c>
+      <c r="H59" s="3">
+        <v>35800</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -1959,26 +2095,29 @@
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>207600</v>
+        <v>152900</v>
       </c>
       <c r="E60" s="3">
-        <v>211800</v>
+        <v>211900</v>
       </c>
       <c r="F60" s="3">
-        <v>150000</v>
+        <v>196200</v>
       </c>
       <c r="G60" s="3">
-        <v>80200</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
+        <v>139000</v>
+      </c>
+      <c r="H60" s="3">
+        <v>74300</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -1986,26 +2125,29 @@
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>30700</v>
+        <v>5800</v>
       </c>
       <c r="E61" s="3">
-        <v>59800</v>
+        <v>31300</v>
       </c>
       <c r="F61" s="3">
-        <v>39800</v>
+        <v>55400</v>
       </c>
       <c r="G61" s="3">
-        <v>38100</v>
+        <v>36900</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>35300</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2013,26 +2155,29 @@
       <c r="J61" s="3">
         <v>0</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>108900</v>
+        <v>138500</v>
       </c>
       <c r="E62" s="3">
-        <v>83500</v>
+        <v>111200</v>
       </c>
       <c r="F62" s="3">
-        <v>59100</v>
+        <v>77400</v>
       </c>
       <c r="G62" s="3">
-        <v>34400</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
+        <v>54800</v>
+      </c>
+      <c r="H62" s="3">
+        <v>31900</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2040,9 +2185,12 @@
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2067,9 +2215,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2094,9 +2245,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2121,26 +2275,29 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>350900</v>
+        <v>298800</v>
       </c>
       <c r="E66" s="3">
-        <v>385300</v>
+        <v>358300</v>
       </c>
       <c r="F66" s="3">
-        <v>269900</v>
+        <v>356900</v>
       </c>
       <c r="G66" s="3">
-        <v>162600</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
+        <v>250000</v>
+      </c>
+      <c r="H66" s="3">
+        <v>150600</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2148,9 +2305,12 @@
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2162,8 +2322,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2188,9 +2349,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2215,9 +2379,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2242,9 +2409,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2269,26 +2439,29 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>408500</v>
+        <v>477600</v>
       </c>
       <c r="E72" s="3">
-        <v>212200</v>
+        <v>417100</v>
       </c>
       <c r="F72" s="3">
-        <v>117800</v>
+        <v>196600</v>
       </c>
       <c r="G72" s="3">
-        <v>58700</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
+        <v>109100</v>
+      </c>
+      <c r="H72" s="3">
+        <v>54400</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2296,9 +2469,12 @@
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2323,9 +2499,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2350,9 +2529,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2377,26 +2559,29 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>613000</v>
+        <v>664800</v>
       </c>
       <c r="E76" s="3">
-        <v>365900</v>
+        <v>625900</v>
       </c>
       <c r="F76" s="3">
-        <v>231600</v>
+        <v>339000</v>
       </c>
       <c r="G76" s="3">
-        <v>130300</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
+        <v>214600</v>
+      </c>
+      <c r="H76" s="3">
+        <v>120700</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2404,9 +2589,12 @@
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2431,58 +2619,64 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>112600</v>
+        <v>60500</v>
       </c>
       <c r="E81" s="3">
-        <v>51800</v>
+        <v>157500</v>
       </c>
       <c r="F81" s="3">
-        <v>27500</v>
+        <v>48000</v>
       </c>
       <c r="G81" s="3">
-        <v>34800</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
+        <v>25400</v>
+      </c>
+      <c r="H81" s="3">
+        <v>32300</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2490,9 +2684,12 @@
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2504,25 +2701,26 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>39600</v>
+        <v>54800</v>
       </c>
       <c r="E83" s="3">
-        <v>36300</v>
+        <v>55300</v>
       </c>
       <c r="F83" s="3">
-        <v>32400</v>
+        <v>33600</v>
       </c>
       <c r="G83" s="3">
-        <v>17300</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
+        <v>30000</v>
+      </c>
+      <c r="H83" s="3">
+        <v>16000</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -2530,9 +2728,12 @@
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2557,9 +2758,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2584,9 +2788,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2611,9 +2818,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2638,9 +2848,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2665,26 +2878,29 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>111400</v>
+        <v>133500</v>
       </c>
       <c r="E89" s="3">
-        <v>90300</v>
+        <v>203800</v>
       </c>
       <c r="F89" s="3">
-        <v>62300</v>
+        <v>83700</v>
       </c>
       <c r="G89" s="3">
-        <v>49900</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
+        <v>57700</v>
+      </c>
+      <c r="H89" s="3">
+        <v>46200</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -2692,9 +2908,12 @@
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2706,25 +2925,26 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-95600</v>
+        <v>-65100</v>
       </c>
       <c r="E91" s="3">
-        <v>-158200</v>
+        <v>-133700</v>
       </c>
       <c r="F91" s="3">
-        <v>-63500</v>
+        <v>-146500</v>
       </c>
       <c r="G91" s="3">
-        <v>-22000</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
+        <v>-58800</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-20400</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -2732,9 +2952,12 @@
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2759,9 +2982,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2786,26 +3012,29 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-14200</v>
+        <v>-81300</v>
       </c>
       <c r="E94" s="3">
-        <v>-158500</v>
+        <v>-19800</v>
       </c>
       <c r="F94" s="3">
-        <v>-64500</v>
+        <v>-146800</v>
       </c>
       <c r="G94" s="3">
-        <v>-22100</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
+        <v>-59700</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-20500</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -2813,9 +3042,12 @@
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2827,25 +3059,26 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-26400</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-37000</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-7700</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-7100</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -2853,9 +3086,12 @@
       <c r="J96" s="3">
         <v>0</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2880,9 +3116,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2907,9 +3146,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2934,26 +3176,29 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-104200</v>
+        <v>-80500</v>
       </c>
       <c r="E100" s="3">
-        <v>34700</v>
+        <v>-145700</v>
       </c>
       <c r="F100" s="3">
-        <v>-36500</v>
+        <v>32100</v>
       </c>
       <c r="G100" s="3">
-        <v>3100</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
+        <v>-33800</v>
+      </c>
+      <c r="H100" s="3">
+        <v>2900</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -2961,53 +3206,59 @@
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>32800</v>
+        <v>-2000</v>
       </c>
       <c r="E101" s="3">
-        <v>2600</v>
+        <v>-2200</v>
       </c>
       <c r="F101" s="3">
-        <v>11300</v>
+        <v>2400</v>
       </c>
       <c r="G101" s="3">
+        <v>10500</v>
+      </c>
+      <c r="H101" s="3">
         <v>1000</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>25800</v>
+        <v>-30300</v>
       </c>
       <c r="E102" s="3">
-        <v>-30800</v>
+        <v>36100</v>
       </c>
       <c r="F102" s="3">
-        <v>-27400</v>
+        <v>-28500</v>
       </c>
       <c r="G102" s="3">
-        <v>31900</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
+        <v>-25300</v>
+      </c>
+      <c r="H102" s="3">
+        <v>29500</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
@@ -3015,7 +3266,10 @@
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/LOMA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/LOMA_YR_FIN.xlsx
@@ -715,19 +715,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>677000</v>
+        <v>628400</v>
       </c>
       <c r="E8" s="3">
-        <v>577400</v>
+        <v>535900</v>
       </c>
       <c r="F8" s="3">
-        <v>438900</v>
+        <v>407300</v>
       </c>
       <c r="G8" s="3">
-        <v>379000</v>
+        <v>351800</v>
       </c>
       <c r="H8" s="3">
-        <v>228300</v>
+        <v>211900</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -745,19 +745,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>463000</v>
+        <v>429800</v>
       </c>
       <c r="E9" s="3">
-        <v>402600</v>
+        <v>373700</v>
       </c>
       <c r="F9" s="3">
-        <v>321500</v>
+        <v>298400</v>
       </c>
       <c r="G9" s="3">
-        <v>305600</v>
+        <v>283700</v>
       </c>
       <c r="H9" s="3">
-        <v>170100</v>
+        <v>157900</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -775,19 +775,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>214000</v>
+        <v>198600</v>
       </c>
       <c r="E10" s="3">
-        <v>174700</v>
+        <v>162200</v>
       </c>
       <c r="F10" s="3">
-        <v>117400</v>
+        <v>109000</v>
       </c>
       <c r="G10" s="3">
-        <v>73400</v>
+        <v>68100</v>
       </c>
       <c r="H10" s="3">
-        <v>58200</v>
+        <v>54000</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -879,10 +879,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="E14" s="3">
-        <v>13600</v>
+        <v>12600</v>
       </c>
       <c r="F14" s="3">
         <v>500</v>
@@ -909,16 +909,16 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="E15" s="3">
-        <v>4000</v>
+        <v>3700</v>
       </c>
       <c r="F15" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="G15" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="H15" s="3">
         <v>400</v>
@@ -950,19 +950,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>527500</v>
+        <v>489600</v>
       </c>
       <c r="E17" s="3">
-        <v>474000</v>
+        <v>440000</v>
       </c>
       <c r="F17" s="3">
-        <v>358400</v>
+        <v>332700</v>
       </c>
       <c r="G17" s="3">
-        <v>311900</v>
+        <v>289500</v>
       </c>
       <c r="H17" s="3">
-        <v>189900</v>
+        <v>176300</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -980,19 +980,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>149500</v>
+        <v>138800</v>
       </c>
       <c r="E18" s="3">
-        <v>103300</v>
+        <v>95900</v>
       </c>
       <c r="F18" s="3">
-        <v>80400</v>
+        <v>74700</v>
       </c>
       <c r="G18" s="3">
-        <v>67100</v>
+        <v>62300</v>
       </c>
       <c r="H18" s="3">
-        <v>38300</v>
+        <v>35600</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1024,19 +1024,19 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>3900</v>
+        <v>3600</v>
       </c>
       <c r="E20" s="3">
-        <v>21000</v>
+        <v>19500</v>
       </c>
       <c r="F20" s="3">
-        <v>-7400</v>
+        <v>-6800</v>
       </c>
       <c r="G20" s="3">
-        <v>-18000</v>
+        <v>-16700</v>
       </c>
       <c r="H20" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1054,19 +1054,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>208200</v>
+        <v>193300</v>
       </c>
       <c r="E21" s="3">
-        <v>179700</v>
+        <v>166800</v>
       </c>
       <c r="F21" s="3">
-        <v>106700</v>
+        <v>99000</v>
       </c>
       <c r="G21" s="3">
-        <v>79100</v>
+        <v>73400</v>
       </c>
       <c r="H21" s="3">
-        <v>55300</v>
+        <v>51400</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1084,19 +1084,19 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="E22" s="3">
-        <v>6200</v>
+        <v>5700</v>
       </c>
       <c r="F22" s="3">
-        <v>11600</v>
+        <v>10800</v>
       </c>
       <c r="G22" s="3">
-        <v>5500</v>
+        <v>5100</v>
       </c>
       <c r="H22" s="3">
-        <v>3500</v>
+        <v>3200</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
@@ -1114,19 +1114,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>149900</v>
+        <v>139100</v>
       </c>
       <c r="E23" s="3">
-        <v>118100</v>
+        <v>109700</v>
       </c>
       <c r="F23" s="3">
-        <v>61400</v>
+        <v>57000</v>
       </c>
       <c r="G23" s="3">
-        <v>43600</v>
+        <v>40400</v>
       </c>
       <c r="H23" s="3">
-        <v>35800</v>
+        <v>33300</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1144,19 +1144,19 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>91600</v>
+        <v>85000</v>
       </c>
       <c r="E24" s="3">
-        <v>31400</v>
+        <v>29100</v>
       </c>
       <c r="F24" s="3">
-        <v>20200</v>
+        <v>18800</v>
       </c>
       <c r="G24" s="3">
-        <v>16000</v>
+        <v>14900</v>
       </c>
       <c r="H24" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1204,19 +1204,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>58300</v>
+        <v>54100</v>
       </c>
       <c r="E26" s="3">
-        <v>86700</v>
+        <v>80500</v>
       </c>
       <c r="F26" s="3">
-        <v>41200</v>
+        <v>38300</v>
       </c>
       <c r="G26" s="3">
-        <v>27600</v>
+        <v>25600</v>
       </c>
       <c r="H26" s="3">
-        <v>33800</v>
+        <v>31400</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1234,19 +1234,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>60500</v>
+        <v>56200</v>
       </c>
       <c r="E27" s="3">
-        <v>86300</v>
+        <v>80100</v>
       </c>
       <c r="F27" s="3">
-        <v>38700</v>
+        <v>35900</v>
       </c>
       <c r="G27" s="3">
-        <v>25400</v>
+        <v>23600</v>
       </c>
       <c r="H27" s="3">
-        <v>32300</v>
+        <v>29900</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>71100</v>
+        <v>66000</v>
       </c>
       <c r="F29" s="3">
-        <v>9400</v>
+        <v>8700</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>3</v>
@@ -1384,19 +1384,19 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-3900</v>
+        <v>-3600</v>
       </c>
       <c r="E32" s="3">
-        <v>-21000</v>
+        <v>-19500</v>
       </c>
       <c r="F32" s="3">
-        <v>7400</v>
+        <v>6800</v>
       </c>
       <c r="G32" s="3">
-        <v>18000</v>
+        <v>16700</v>
       </c>
       <c r="H32" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1414,19 +1414,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>60500</v>
+        <v>56200</v>
       </c>
       <c r="E33" s="3">
-        <v>157500</v>
+        <v>146100</v>
       </c>
       <c r="F33" s="3">
-        <v>48000</v>
+        <v>44600</v>
       </c>
       <c r="G33" s="3">
-        <v>25400</v>
+        <v>23600</v>
       </c>
       <c r="H33" s="3">
-        <v>32300</v>
+        <v>29900</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1474,19 +1474,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>60500</v>
+        <v>56200</v>
       </c>
       <c r="E35" s="3">
-        <v>157500</v>
+        <v>146100</v>
       </c>
       <c r="F35" s="3">
-        <v>48000</v>
+        <v>44600</v>
       </c>
       <c r="G35" s="3">
-        <v>25400</v>
+        <v>23600</v>
       </c>
       <c r="H35" s="3">
-        <v>32300</v>
+        <v>29900</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1567,19 +1567,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3000</v>
+        <v>3300</v>
       </c>
       <c r="E41" s="3">
-        <v>3700</v>
+        <v>3400</v>
       </c>
       <c r="F41" s="3">
-        <v>3600</v>
+        <v>3300</v>
       </c>
       <c r="G41" s="3">
-        <v>11400</v>
+        <v>10600</v>
       </c>
       <c r="H41" s="3">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1597,19 +1597,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>45400</v>
+        <v>48900</v>
       </c>
       <c r="E42" s="3">
-        <v>57000</v>
+        <v>52900</v>
       </c>
       <c r="F42" s="3">
-        <v>12800</v>
+        <v>11800</v>
       </c>
       <c r="G42" s="3">
-        <v>29600</v>
+        <v>27500</v>
       </c>
       <c r="H42" s="3">
-        <v>40600</v>
+        <v>37700</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1627,19 +1627,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>45000</v>
+        <v>48500</v>
       </c>
       <c r="E43" s="3">
-        <v>55500</v>
+        <v>51500</v>
       </c>
       <c r="F43" s="3">
-        <v>38800</v>
+        <v>36000</v>
       </c>
       <c r="G43" s="3">
-        <v>33300</v>
+        <v>30900</v>
       </c>
       <c r="H43" s="3">
-        <v>19300</v>
+        <v>17900</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1657,19 +1657,19 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>79900</v>
+        <v>86100</v>
       </c>
       <c r="E44" s="3">
-        <v>76200</v>
+        <v>70700</v>
       </c>
       <c r="F44" s="3">
-        <v>60600</v>
+        <v>56200</v>
       </c>
       <c r="G44" s="3">
-        <v>53400</v>
+        <v>49600</v>
       </c>
       <c r="H44" s="3">
-        <v>32000</v>
+        <v>29700</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
@@ -1687,19 +1687,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="E45" s="3">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="F45" s="3">
         <v>1100</v>
       </c>
       <c r="G45" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="H45" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1717,19 +1717,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>175700</v>
+        <v>189300</v>
       </c>
       <c r="E46" s="3">
-        <v>195200</v>
+        <v>181200</v>
       </c>
       <c r="F46" s="3">
-        <v>113600</v>
+        <v>105500</v>
       </c>
       <c r="G46" s="3">
-        <v>129000</v>
+        <v>119800</v>
       </c>
       <c r="H46" s="3">
-        <v>93000</v>
+        <v>86300</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1747,19 +1747,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6400</v>
+        <v>6900</v>
       </c>
       <c r="E47" s="3">
-        <v>6700</v>
+        <v>6200</v>
       </c>
       <c r="F47" s="3">
-        <v>62400</v>
+        <v>57900</v>
       </c>
       <c r="G47" s="3">
-        <v>13400</v>
+        <v>12400</v>
       </c>
       <c r="H47" s="3">
-        <v>3300</v>
+        <v>3100</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -1777,19 +1777,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>750000</v>
+        <v>808000</v>
       </c>
       <c r="E48" s="3">
-        <v>749100</v>
+        <v>695300</v>
       </c>
       <c r="F48" s="3">
-        <v>913000</v>
+        <v>847500</v>
       </c>
       <c r="G48" s="3">
-        <v>586100</v>
+        <v>544000</v>
       </c>
       <c r="H48" s="3">
-        <v>223200</v>
+        <v>207200</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1807,19 +1807,19 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E49" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F49" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G49" s="3">
         <v>3100</v>
       </c>
-      <c r="E49" s="3">
-        <v>3100</v>
-      </c>
-      <c r="F49" s="3">
-        <v>1900</v>
-      </c>
-      <c r="G49" s="3">
-        <v>3300</v>
-      </c>
       <c r="H49" s="3">
-        <v>2900</v>
+        <v>2700</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -1897,19 +1897,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>28300</v>
+        <v>30500</v>
       </c>
       <c r="E52" s="3">
-        <v>29900</v>
+        <v>27800</v>
       </c>
       <c r="F52" s="3">
-        <v>18700</v>
+        <v>17400</v>
       </c>
       <c r="G52" s="3">
-        <v>9600</v>
+        <v>8900</v>
       </c>
       <c r="H52" s="3">
-        <v>5900</v>
+        <v>5400</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -1957,19 +1957,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>963600</v>
+        <v>1038100</v>
       </c>
       <c r="E54" s="3">
-        <v>984100</v>
+        <v>913500</v>
       </c>
       <c r="F54" s="3">
-        <v>695900</v>
+        <v>645900</v>
       </c>
       <c r="G54" s="3">
-        <v>464600</v>
+        <v>431300</v>
       </c>
       <c r="H54" s="3">
-        <v>271300</v>
+        <v>251900</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2015,19 +2015,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>37900</v>
+        <v>40800</v>
       </c>
       <c r="E57" s="3">
-        <v>44400</v>
+        <v>41200</v>
       </c>
       <c r="F57" s="3">
-        <v>23000</v>
+        <v>21400</v>
       </c>
       <c r="G57" s="3">
-        <v>29300</v>
+        <v>27200</v>
       </c>
       <c r="H57" s="3">
-        <v>16800</v>
+        <v>15600</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2045,19 +2045,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>20100</v>
+        <v>21700</v>
       </c>
       <c r="E58" s="3">
-        <v>65400</v>
+        <v>60700</v>
       </c>
       <c r="F58" s="3">
-        <v>65300</v>
+        <v>60600</v>
       </c>
       <c r="G58" s="3">
-        <v>48000</v>
+        <v>44600</v>
       </c>
       <c r="H58" s="3">
-        <v>23900</v>
+        <v>22200</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2075,19 +2075,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>102200</v>
+      </c>
+      <c r="E59" s="3">
         <v>94800</v>
       </c>
-      <c r="E59" s="3">
-        <v>102200</v>
-      </c>
       <c r="F59" s="3">
-        <v>107900</v>
+        <v>100100</v>
       </c>
       <c r="G59" s="3">
-        <v>61700</v>
+        <v>57300</v>
       </c>
       <c r="H59" s="3">
-        <v>35800</v>
+        <v>33200</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2105,19 +2105,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>152900</v>
+        <v>164700</v>
       </c>
       <c r="E60" s="3">
-        <v>211900</v>
+        <v>196700</v>
       </c>
       <c r="F60" s="3">
-        <v>196200</v>
+        <v>182100</v>
       </c>
       <c r="G60" s="3">
-        <v>139000</v>
+        <v>129000</v>
       </c>
       <c r="H60" s="3">
-        <v>74300</v>
+        <v>68900</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2135,19 +2135,19 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5800</v>
+        <v>6300</v>
       </c>
       <c r="E61" s="3">
-        <v>31300</v>
+        <v>29100</v>
       </c>
       <c r="F61" s="3">
-        <v>55400</v>
+        <v>51400</v>
       </c>
       <c r="G61" s="3">
-        <v>36900</v>
+        <v>34200</v>
       </c>
       <c r="H61" s="3">
-        <v>35300</v>
+        <v>32800</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2165,19 +2165,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>138500</v>
+        <v>149200</v>
       </c>
       <c r="E62" s="3">
-        <v>111200</v>
+        <v>103200</v>
       </c>
       <c r="F62" s="3">
-        <v>77400</v>
+        <v>71800</v>
       </c>
       <c r="G62" s="3">
-        <v>54800</v>
+        <v>50800</v>
       </c>
       <c r="H62" s="3">
-        <v>31900</v>
+        <v>29600</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2285,19 +2285,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>298800</v>
+        <v>321900</v>
       </c>
       <c r="E66" s="3">
-        <v>358300</v>
+        <v>332500</v>
       </c>
       <c r="F66" s="3">
-        <v>356900</v>
+        <v>331300</v>
       </c>
       <c r="G66" s="3">
-        <v>250000</v>
+        <v>232100</v>
       </c>
       <c r="H66" s="3">
-        <v>150600</v>
+        <v>139800</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2449,19 +2449,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>477600</v>
+        <v>514600</v>
       </c>
       <c r="E72" s="3">
-        <v>417100</v>
+        <v>387200</v>
       </c>
       <c r="F72" s="3">
-        <v>196600</v>
+        <v>182500</v>
       </c>
       <c r="G72" s="3">
-        <v>109100</v>
+        <v>101300</v>
       </c>
       <c r="H72" s="3">
-        <v>54400</v>
+        <v>50500</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2569,19 +2569,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>664800</v>
+        <v>716200</v>
       </c>
       <c r="E76" s="3">
-        <v>625900</v>
+        <v>580900</v>
       </c>
       <c r="F76" s="3">
-        <v>339000</v>
+        <v>314700</v>
       </c>
       <c r="G76" s="3">
-        <v>214600</v>
+        <v>199200</v>
       </c>
       <c r="H76" s="3">
-        <v>120700</v>
+        <v>112100</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2664,19 +2664,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>60500</v>
+        <v>56200</v>
       </c>
       <c r="E81" s="3">
-        <v>157500</v>
+        <v>146100</v>
       </c>
       <c r="F81" s="3">
-        <v>48000</v>
+        <v>44600</v>
       </c>
       <c r="G81" s="3">
-        <v>25400</v>
+        <v>23600</v>
       </c>
       <c r="H81" s="3">
-        <v>32300</v>
+        <v>29900</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2708,19 +2708,19 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>54800</v>
+        <v>50800</v>
       </c>
       <c r="E83" s="3">
-        <v>55300</v>
+        <v>51300</v>
       </c>
       <c r="F83" s="3">
-        <v>33600</v>
+        <v>31200</v>
       </c>
       <c r="G83" s="3">
-        <v>30000</v>
+        <v>27800</v>
       </c>
       <c r="H83" s="3">
-        <v>16000</v>
+        <v>14900</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -2888,19 +2888,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>133500</v>
+        <v>123900</v>
       </c>
       <c r="E89" s="3">
-        <v>203800</v>
+        <v>189100</v>
       </c>
       <c r="F89" s="3">
-        <v>83700</v>
+        <v>77700</v>
       </c>
       <c r="G89" s="3">
-        <v>57700</v>
+        <v>53500</v>
       </c>
       <c r="H89" s="3">
-        <v>46200</v>
+        <v>42900</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -2932,19 +2932,19 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-65100</v>
+        <v>-60500</v>
       </c>
       <c r="E91" s="3">
-        <v>-133700</v>
+        <v>-124100</v>
       </c>
       <c r="F91" s="3">
-        <v>-146500</v>
+        <v>-136000</v>
       </c>
       <c r="G91" s="3">
-        <v>-58800</v>
+        <v>-54600</v>
       </c>
       <c r="H91" s="3">
-        <v>-20400</v>
+        <v>-18900</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3022,19 +3022,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-81300</v>
+        <v>-75400</v>
       </c>
       <c r="E94" s="3">
-        <v>-19800</v>
+        <v>-18400</v>
       </c>
       <c r="F94" s="3">
-        <v>-146800</v>
+        <v>-136200</v>
       </c>
       <c r="G94" s="3">
-        <v>-59700</v>
+        <v>-55400</v>
       </c>
       <c r="H94" s="3">
-        <v>-20500</v>
+        <v>-19000</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3069,7 +3069,7 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-37000</v>
+        <v>-34300</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -3078,7 +3078,7 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-7100</v>
+        <v>-6600</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -3186,19 +3186,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-80500</v>
+        <v>-74700</v>
       </c>
       <c r="E100" s="3">
-        <v>-145700</v>
+        <v>-135200</v>
       </c>
       <c r="F100" s="3">
-        <v>32100</v>
+        <v>29800</v>
       </c>
       <c r="G100" s="3">
-        <v>-33800</v>
+        <v>-31400</v>
       </c>
       <c r="H100" s="3">
-        <v>2900</v>
+        <v>2700</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3216,19 +3216,19 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E101" s="3">
         <v>-2000</v>
       </c>
-      <c r="E101" s="3">
-        <v>-2200</v>
-      </c>
       <c r="F101" s="3">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="G101" s="3">
-        <v>10500</v>
+        <v>9700</v>
       </c>
       <c r="H101" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
@@ -3246,19 +3246,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-30300</v>
+        <v>-28100</v>
       </c>
       <c r="E102" s="3">
-        <v>36100</v>
+        <v>33500</v>
       </c>
       <c r="F102" s="3">
-        <v>-28500</v>
+        <v>-26500</v>
       </c>
       <c r="G102" s="3">
-        <v>-25300</v>
+        <v>-23500</v>
       </c>
       <c r="H102" s="3">
-        <v>29500</v>
+        <v>27400</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/LOMA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/LOMA_YR_FIN.xlsx
@@ -715,19 +715,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>628400</v>
+        <v>536300</v>
       </c>
       <c r="E8" s="3">
-        <v>535900</v>
+        <v>457400</v>
       </c>
       <c r="F8" s="3">
-        <v>407300</v>
+        <v>347600</v>
       </c>
       <c r="G8" s="3">
-        <v>351800</v>
+        <v>300200</v>
       </c>
       <c r="H8" s="3">
-        <v>211900</v>
+        <v>180800</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -745,19 +745,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>429800</v>
+        <v>366800</v>
       </c>
       <c r="E9" s="3">
-        <v>373700</v>
+        <v>319000</v>
       </c>
       <c r="F9" s="3">
-        <v>298400</v>
+        <v>254700</v>
       </c>
       <c r="G9" s="3">
-        <v>283700</v>
+        <v>242100</v>
       </c>
       <c r="H9" s="3">
-        <v>157900</v>
+        <v>134800</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -775,19 +775,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>198600</v>
+        <v>169500</v>
       </c>
       <c r="E10" s="3">
-        <v>162200</v>
+        <v>138400</v>
       </c>
       <c r="F10" s="3">
-        <v>109000</v>
+        <v>93000</v>
       </c>
       <c r="G10" s="3">
-        <v>68100</v>
+        <v>58100</v>
       </c>
       <c r="H10" s="3">
-        <v>54000</v>
+        <v>46100</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -879,13 +879,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="E14" s="3">
-        <v>12600</v>
+        <v>10700</v>
       </c>
       <c r="F14" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G14" s="3">
         <v>100</v>
@@ -909,19 +909,19 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>3200</v>
+        <v>2700</v>
       </c>
       <c r="E15" s="3">
-        <v>3700</v>
+        <v>3100</v>
       </c>
       <c r="F15" s="3">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="G15" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="H15" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
@@ -950,19 +950,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>489600</v>
+        <v>417900</v>
       </c>
       <c r="E17" s="3">
-        <v>440000</v>
+        <v>375500</v>
       </c>
       <c r="F17" s="3">
-        <v>332700</v>
+        <v>283900</v>
       </c>
       <c r="G17" s="3">
-        <v>289500</v>
+        <v>247100</v>
       </c>
       <c r="H17" s="3">
-        <v>176300</v>
+        <v>150500</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -980,19 +980,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>138800</v>
+        <v>118400</v>
       </c>
       <c r="E18" s="3">
-        <v>95900</v>
+        <v>81900</v>
       </c>
       <c r="F18" s="3">
-        <v>74700</v>
+        <v>63700</v>
       </c>
       <c r="G18" s="3">
-        <v>62300</v>
+        <v>53100</v>
       </c>
       <c r="H18" s="3">
-        <v>35600</v>
+        <v>30400</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1024,19 +1024,19 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>3600</v>
+        <v>3100</v>
       </c>
       <c r="E20" s="3">
-        <v>19500</v>
+        <v>16600</v>
       </c>
       <c r="F20" s="3">
-        <v>-6800</v>
+        <v>-5800</v>
       </c>
       <c r="G20" s="3">
-        <v>-16700</v>
+        <v>-14300</v>
       </c>
       <c r="H20" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1054,19 +1054,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>193300</v>
+        <v>165000</v>
       </c>
       <c r="E21" s="3">
-        <v>166800</v>
+        <v>142400</v>
       </c>
       <c r="F21" s="3">
-        <v>99000</v>
+        <v>84500</v>
       </c>
       <c r="G21" s="3">
-        <v>73400</v>
+        <v>62600</v>
       </c>
       <c r="H21" s="3">
-        <v>51400</v>
+        <v>43800</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1084,19 +1084,19 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>3300</v>
+        <v>2800</v>
       </c>
       <c r="E22" s="3">
-        <v>5700</v>
+        <v>4900</v>
       </c>
       <c r="F22" s="3">
-        <v>10800</v>
+        <v>9200</v>
       </c>
       <c r="G22" s="3">
-        <v>5100</v>
+        <v>4300</v>
       </c>
       <c r="H22" s="3">
-        <v>3200</v>
+        <v>2800</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
@@ -1114,19 +1114,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>139100</v>
+        <v>118800</v>
       </c>
       <c r="E23" s="3">
-        <v>109700</v>
+        <v>93600</v>
       </c>
       <c r="F23" s="3">
-        <v>57000</v>
+        <v>48700</v>
       </c>
       <c r="G23" s="3">
-        <v>40400</v>
+        <v>34500</v>
       </c>
       <c r="H23" s="3">
-        <v>33300</v>
+        <v>28400</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1144,19 +1144,19 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>85000</v>
+        <v>72600</v>
       </c>
       <c r="E24" s="3">
-        <v>29100</v>
+        <v>24900</v>
       </c>
       <c r="F24" s="3">
-        <v>18800</v>
+        <v>16000</v>
       </c>
       <c r="G24" s="3">
-        <v>14900</v>
+        <v>12700</v>
       </c>
       <c r="H24" s="3">
-        <v>1900</v>
+        <v>1600</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1204,19 +1204,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>54100</v>
+        <v>46200</v>
       </c>
       <c r="E26" s="3">
-        <v>80500</v>
+        <v>68700</v>
       </c>
       <c r="F26" s="3">
-        <v>38300</v>
+        <v>32700</v>
       </c>
       <c r="G26" s="3">
-        <v>25600</v>
+        <v>21800</v>
       </c>
       <c r="H26" s="3">
-        <v>31400</v>
+        <v>26800</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1234,19 +1234,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>56200</v>
+        <v>47900</v>
       </c>
       <c r="E27" s="3">
-        <v>80100</v>
+        <v>68400</v>
       </c>
       <c r="F27" s="3">
-        <v>35900</v>
+        <v>30600</v>
       </c>
       <c r="G27" s="3">
-        <v>23600</v>
+        <v>20200</v>
       </c>
       <c r="H27" s="3">
-        <v>29900</v>
+        <v>25600</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>66000</v>
+        <v>56400</v>
       </c>
       <c r="F29" s="3">
-        <v>8700</v>
+        <v>7400</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>3</v>
@@ -1384,19 +1384,19 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-3600</v>
+        <v>-3100</v>
       </c>
       <c r="E32" s="3">
-        <v>-19500</v>
+        <v>-16600</v>
       </c>
       <c r="F32" s="3">
-        <v>6800</v>
+        <v>5800</v>
       </c>
       <c r="G32" s="3">
-        <v>16700</v>
+        <v>14300</v>
       </c>
       <c r="H32" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1414,19 +1414,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>56200</v>
+        <v>47900</v>
       </c>
       <c r="E33" s="3">
-        <v>146100</v>
+        <v>124700</v>
       </c>
       <c r="F33" s="3">
-        <v>44600</v>
+        <v>38100</v>
       </c>
       <c r="G33" s="3">
-        <v>23600</v>
+        <v>20200</v>
       </c>
       <c r="H33" s="3">
-        <v>29900</v>
+        <v>25600</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1474,19 +1474,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>56200</v>
+        <v>47900</v>
       </c>
       <c r="E35" s="3">
-        <v>146100</v>
+        <v>124700</v>
       </c>
       <c r="F35" s="3">
-        <v>44600</v>
+        <v>38100</v>
       </c>
       <c r="G35" s="3">
-        <v>23600</v>
+        <v>20200</v>
       </c>
       <c r="H35" s="3">
-        <v>29900</v>
+        <v>25600</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1567,19 +1567,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3300</v>
+        <v>2800</v>
       </c>
       <c r="E41" s="3">
-        <v>3400</v>
+        <v>2900</v>
       </c>
       <c r="F41" s="3">
-        <v>3300</v>
+        <v>2800</v>
       </c>
       <c r="G41" s="3">
-        <v>10600</v>
+        <v>9000</v>
       </c>
       <c r="H41" s="3">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1597,19 +1597,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>48900</v>
+        <v>41700</v>
       </c>
       <c r="E42" s="3">
-        <v>52900</v>
+        <v>45200</v>
       </c>
       <c r="F42" s="3">
-        <v>11800</v>
+        <v>10100</v>
       </c>
       <c r="G42" s="3">
-        <v>27500</v>
+        <v>23500</v>
       </c>
       <c r="H42" s="3">
-        <v>37700</v>
+        <v>32100</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1627,19 +1627,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>48500</v>
+        <v>41400</v>
       </c>
       <c r="E43" s="3">
-        <v>51500</v>
+        <v>44000</v>
       </c>
       <c r="F43" s="3">
-        <v>36000</v>
+        <v>30700</v>
       </c>
       <c r="G43" s="3">
-        <v>30900</v>
+        <v>26400</v>
       </c>
       <c r="H43" s="3">
-        <v>17900</v>
+        <v>15300</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1657,19 +1657,19 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>86100</v>
+        <v>73500</v>
       </c>
       <c r="E44" s="3">
-        <v>70700</v>
+        <v>60300</v>
       </c>
       <c r="F44" s="3">
-        <v>56200</v>
+        <v>48000</v>
       </c>
       <c r="G44" s="3">
-        <v>49600</v>
+        <v>42300</v>
       </c>
       <c r="H44" s="3">
-        <v>29700</v>
+        <v>25300</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
@@ -1687,19 +1687,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="E45" s="3">
-        <v>2600</v>
+        <v>2300</v>
       </c>
       <c r="F45" s="3">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="G45" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="H45" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1717,19 +1717,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>189300</v>
+        <v>161600</v>
       </c>
       <c r="E46" s="3">
-        <v>181200</v>
+        <v>154700</v>
       </c>
       <c r="F46" s="3">
-        <v>105500</v>
+        <v>90000</v>
       </c>
       <c r="G46" s="3">
-        <v>119800</v>
+        <v>102200</v>
       </c>
       <c r="H46" s="3">
-        <v>86300</v>
+        <v>73700</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1747,19 +1747,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6900</v>
+        <v>5900</v>
       </c>
       <c r="E47" s="3">
-        <v>6200</v>
+        <v>5300</v>
       </c>
       <c r="F47" s="3">
-        <v>57900</v>
+        <v>49400</v>
       </c>
       <c r="G47" s="3">
-        <v>12400</v>
+        <v>10600</v>
       </c>
       <c r="H47" s="3">
-        <v>3100</v>
+        <v>2600</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -1777,19 +1777,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>808000</v>
+        <v>689600</v>
       </c>
       <c r="E48" s="3">
-        <v>695300</v>
+        <v>593400</v>
       </c>
       <c r="F48" s="3">
-        <v>847500</v>
+        <v>723300</v>
       </c>
       <c r="G48" s="3">
-        <v>544000</v>
+        <v>464300</v>
       </c>
       <c r="H48" s="3">
-        <v>207200</v>
+        <v>176800</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1807,19 +1807,19 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3400</v>
+        <v>2900</v>
       </c>
       <c r="E49" s="3">
-        <v>2900</v>
+        <v>2500</v>
       </c>
       <c r="F49" s="3">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="G49" s="3">
-        <v>3100</v>
+        <v>2600</v>
       </c>
       <c r="H49" s="3">
-        <v>2700</v>
+        <v>2300</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -1897,19 +1897,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>30500</v>
+        <v>26100</v>
       </c>
       <c r="E52" s="3">
-        <v>27800</v>
+        <v>23700</v>
       </c>
       <c r="F52" s="3">
-        <v>17400</v>
+        <v>14800</v>
       </c>
       <c r="G52" s="3">
-        <v>8900</v>
+        <v>7600</v>
       </c>
       <c r="H52" s="3">
-        <v>5400</v>
+        <v>4600</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -1957,19 +1957,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1038100</v>
+        <v>886000</v>
       </c>
       <c r="E54" s="3">
-        <v>913500</v>
+        <v>779600</v>
       </c>
       <c r="F54" s="3">
-        <v>645900</v>
+        <v>551300</v>
       </c>
       <c r="G54" s="3">
-        <v>431300</v>
+        <v>368100</v>
       </c>
       <c r="H54" s="3">
-        <v>251900</v>
+        <v>214900</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2015,19 +2015,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>40800</v>
+        <v>34800</v>
       </c>
       <c r="E57" s="3">
-        <v>41200</v>
+        <v>35200</v>
       </c>
       <c r="F57" s="3">
-        <v>21400</v>
+        <v>18200</v>
       </c>
       <c r="G57" s="3">
-        <v>27200</v>
+        <v>23200</v>
       </c>
       <c r="H57" s="3">
-        <v>15600</v>
+        <v>13300</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2045,19 +2045,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>21700</v>
+        <v>18500</v>
       </c>
       <c r="E58" s="3">
-        <v>60700</v>
+        <v>51800</v>
       </c>
       <c r="F58" s="3">
-        <v>60600</v>
+        <v>51800</v>
       </c>
       <c r="G58" s="3">
-        <v>44600</v>
+        <v>38000</v>
       </c>
       <c r="H58" s="3">
-        <v>22200</v>
+        <v>18900</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2075,19 +2075,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>102200</v>
+        <v>87200</v>
       </c>
       <c r="E59" s="3">
-        <v>94800</v>
+        <v>80900</v>
       </c>
       <c r="F59" s="3">
-        <v>100100</v>
+        <v>85400</v>
       </c>
       <c r="G59" s="3">
-        <v>57300</v>
+        <v>48900</v>
       </c>
       <c r="H59" s="3">
-        <v>33200</v>
+        <v>28300</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2105,19 +2105,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>164700</v>
+        <v>140600</v>
       </c>
       <c r="E60" s="3">
-        <v>196700</v>
+        <v>167900</v>
       </c>
       <c r="F60" s="3">
-        <v>182100</v>
+        <v>155400</v>
       </c>
       <c r="G60" s="3">
-        <v>129000</v>
+        <v>110100</v>
       </c>
       <c r="H60" s="3">
-        <v>68900</v>
+        <v>58800</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2135,19 +2135,19 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6300</v>
+        <v>5400</v>
       </c>
       <c r="E61" s="3">
-        <v>29100</v>
+        <v>24800</v>
       </c>
       <c r="F61" s="3">
-        <v>51400</v>
+        <v>43900</v>
       </c>
       <c r="G61" s="3">
-        <v>34200</v>
+        <v>29200</v>
       </c>
       <c r="H61" s="3">
-        <v>32800</v>
+        <v>28000</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2165,19 +2165,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>149200</v>
+        <v>127400</v>
       </c>
       <c r="E62" s="3">
-        <v>103200</v>
+        <v>88100</v>
       </c>
       <c r="F62" s="3">
-        <v>71800</v>
+        <v>61300</v>
       </c>
       <c r="G62" s="3">
-        <v>50800</v>
+        <v>43400</v>
       </c>
       <c r="H62" s="3">
-        <v>29600</v>
+        <v>25200</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2285,19 +2285,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>321900</v>
+        <v>274700</v>
       </c>
       <c r="E66" s="3">
-        <v>332500</v>
+        <v>283800</v>
       </c>
       <c r="F66" s="3">
-        <v>331300</v>
+        <v>282700</v>
       </c>
       <c r="G66" s="3">
-        <v>232100</v>
+        <v>198100</v>
       </c>
       <c r="H66" s="3">
-        <v>139800</v>
+        <v>119300</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2449,19 +2449,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>514600</v>
+        <v>439200</v>
       </c>
       <c r="E72" s="3">
-        <v>387200</v>
+        <v>330400</v>
       </c>
       <c r="F72" s="3">
-        <v>182500</v>
+        <v>155700</v>
       </c>
       <c r="G72" s="3">
-        <v>101300</v>
+        <v>86400</v>
       </c>
       <c r="H72" s="3">
-        <v>50500</v>
+        <v>43100</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2569,19 +2569,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>716200</v>
+        <v>611300</v>
       </c>
       <c r="E76" s="3">
-        <v>580900</v>
+        <v>495800</v>
       </c>
       <c r="F76" s="3">
-        <v>314700</v>
+        <v>268600</v>
       </c>
       <c r="G76" s="3">
-        <v>199200</v>
+        <v>170000</v>
       </c>
       <c r="H76" s="3">
-        <v>112100</v>
+        <v>95600</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2664,19 +2664,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>56200</v>
+        <v>47900</v>
       </c>
       <c r="E81" s="3">
-        <v>146100</v>
+        <v>124700</v>
       </c>
       <c r="F81" s="3">
-        <v>44600</v>
+        <v>38100</v>
       </c>
       <c r="G81" s="3">
-        <v>23600</v>
+        <v>20200</v>
       </c>
       <c r="H81" s="3">
-        <v>29900</v>
+        <v>25600</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2708,19 +2708,19 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>50800</v>
+        <v>43400</v>
       </c>
       <c r="E83" s="3">
-        <v>51300</v>
+        <v>43800</v>
       </c>
       <c r="F83" s="3">
-        <v>31200</v>
+        <v>26600</v>
       </c>
       <c r="G83" s="3">
-        <v>27800</v>
+        <v>23800</v>
       </c>
       <c r="H83" s="3">
-        <v>14900</v>
+        <v>12700</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -2888,19 +2888,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>123900</v>
+        <v>105700</v>
       </c>
       <c r="E89" s="3">
-        <v>189100</v>
+        <v>161400</v>
       </c>
       <c r="F89" s="3">
-        <v>77700</v>
+        <v>66300</v>
       </c>
       <c r="G89" s="3">
-        <v>53500</v>
+        <v>45700</v>
       </c>
       <c r="H89" s="3">
-        <v>42900</v>
+        <v>36600</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -2932,19 +2932,19 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-60500</v>
+        <v>-51600</v>
       </c>
       <c r="E91" s="3">
-        <v>-124100</v>
+        <v>-105900</v>
       </c>
       <c r="F91" s="3">
-        <v>-136000</v>
+        <v>-116100</v>
       </c>
       <c r="G91" s="3">
-        <v>-54600</v>
+        <v>-46600</v>
       </c>
       <c r="H91" s="3">
-        <v>-18900</v>
+        <v>-16100</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3022,19 +3022,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-75400</v>
+        <v>-64400</v>
       </c>
       <c r="E94" s="3">
-        <v>-18400</v>
+        <v>-15700</v>
       </c>
       <c r="F94" s="3">
-        <v>-136200</v>
+        <v>-116300</v>
       </c>
       <c r="G94" s="3">
-        <v>-55400</v>
+        <v>-47300</v>
       </c>
       <c r="H94" s="3">
-        <v>-19000</v>
+        <v>-16200</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3069,7 +3069,7 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-34300</v>
+        <v>-29300</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -3078,7 +3078,7 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-6600</v>
+        <v>-5600</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -3186,19 +3186,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-74700</v>
+        <v>-63800</v>
       </c>
       <c r="E100" s="3">
-        <v>-135200</v>
+        <v>-115400</v>
       </c>
       <c r="F100" s="3">
-        <v>29800</v>
+        <v>25500</v>
       </c>
       <c r="G100" s="3">
-        <v>-31400</v>
+        <v>-26800</v>
       </c>
       <c r="H100" s="3">
-        <v>2700</v>
+        <v>2300</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3216,19 +3216,19 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1900</v>
+        <v>-1600</v>
       </c>
       <c r="E101" s="3">
-        <v>-2000</v>
+        <v>-1700</v>
       </c>
       <c r="F101" s="3">
-        <v>2200</v>
+        <v>1900</v>
       </c>
       <c r="G101" s="3">
-        <v>9700</v>
+        <v>8300</v>
       </c>
       <c r="H101" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
@@ -3246,19 +3246,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-28100</v>
+        <v>-24000</v>
       </c>
       <c r="E102" s="3">
-        <v>33500</v>
+        <v>28600</v>
       </c>
       <c r="F102" s="3">
-        <v>-26500</v>
+        <v>-22600</v>
       </c>
       <c r="G102" s="3">
-        <v>-23500</v>
+        <v>-20100</v>
       </c>
       <c r="H102" s="3">
-        <v>27400</v>
+        <v>23400</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/LOMA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/LOMA_YR_FIN.xlsx
@@ -715,19 +715,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>536300</v>
+        <v>459700</v>
       </c>
       <c r="E8" s="3">
-        <v>457400</v>
+        <v>392000</v>
       </c>
       <c r="F8" s="3">
-        <v>347600</v>
+        <v>298000</v>
       </c>
       <c r="G8" s="3">
-        <v>300200</v>
+        <v>257300</v>
       </c>
       <c r="H8" s="3">
-        <v>180800</v>
+        <v>155000</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -745,19 +745,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>366800</v>
+        <v>314400</v>
       </c>
       <c r="E9" s="3">
-        <v>319000</v>
+        <v>273400</v>
       </c>
       <c r="F9" s="3">
-        <v>254700</v>
+        <v>218300</v>
       </c>
       <c r="G9" s="3">
-        <v>242100</v>
+        <v>207500</v>
       </c>
       <c r="H9" s="3">
-        <v>134800</v>
+        <v>115500</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -775,19 +775,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>169500</v>
+        <v>145300</v>
       </c>
       <c r="E10" s="3">
-        <v>138400</v>
+        <v>118600</v>
       </c>
       <c r="F10" s="3">
-        <v>93000</v>
+        <v>79700</v>
       </c>
       <c r="G10" s="3">
-        <v>58100</v>
+        <v>49800</v>
       </c>
       <c r="H10" s="3">
-        <v>46100</v>
+        <v>39500</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -879,13 +879,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="E14" s="3">
-        <v>10700</v>
+        <v>9200</v>
       </c>
       <c r="F14" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G14" s="3">
         <v>100</v>
@@ -909,16 +909,16 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E15" s="3">
         <v>2700</v>
       </c>
-      <c r="E15" s="3">
-        <v>3100</v>
-      </c>
       <c r="F15" s="3">
-        <v>1700</v>
+        <v>1400</v>
       </c>
       <c r="G15" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="H15" s="3">
         <v>300</v>
@@ -950,19 +950,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>417900</v>
+        <v>358200</v>
       </c>
       <c r="E17" s="3">
-        <v>375500</v>
+        <v>321900</v>
       </c>
       <c r="F17" s="3">
-        <v>283900</v>
+        <v>243400</v>
       </c>
       <c r="G17" s="3">
-        <v>247100</v>
+        <v>211800</v>
       </c>
       <c r="H17" s="3">
-        <v>150500</v>
+        <v>129000</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -980,19 +980,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>118400</v>
+        <v>101500</v>
       </c>
       <c r="E18" s="3">
-        <v>81900</v>
+        <v>70200</v>
       </c>
       <c r="F18" s="3">
-        <v>63700</v>
+        <v>54600</v>
       </c>
       <c r="G18" s="3">
-        <v>53100</v>
+        <v>45500</v>
       </c>
       <c r="H18" s="3">
-        <v>30400</v>
+        <v>26000</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1024,19 +1024,19 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>3100</v>
+        <v>2600</v>
       </c>
       <c r="E20" s="3">
-        <v>16600</v>
+        <v>14300</v>
       </c>
       <c r="F20" s="3">
-        <v>-5800</v>
+        <v>-5000</v>
       </c>
       <c r="G20" s="3">
-        <v>-14300</v>
+        <v>-12200</v>
       </c>
       <c r="H20" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1054,19 +1054,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>165000</v>
+        <v>141400</v>
       </c>
       <c r="E21" s="3">
-        <v>142400</v>
+        <v>122000</v>
       </c>
       <c r="F21" s="3">
-        <v>84500</v>
+        <v>72500</v>
       </c>
       <c r="G21" s="3">
-        <v>62600</v>
+        <v>53700</v>
       </c>
       <c r="H21" s="3">
-        <v>43800</v>
+        <v>37600</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1084,19 +1084,19 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="E22" s="3">
-        <v>4900</v>
+        <v>4200</v>
       </c>
       <c r="F22" s="3">
-        <v>9200</v>
+        <v>7900</v>
       </c>
       <c r="G22" s="3">
-        <v>4300</v>
+        <v>3700</v>
       </c>
       <c r="H22" s="3">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
@@ -1114,19 +1114,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>118800</v>
+        <v>101800</v>
       </c>
       <c r="E23" s="3">
-        <v>93600</v>
+        <v>80200</v>
       </c>
       <c r="F23" s="3">
-        <v>48700</v>
+        <v>41700</v>
       </c>
       <c r="G23" s="3">
-        <v>34500</v>
+        <v>29600</v>
       </c>
       <c r="H23" s="3">
-        <v>28400</v>
+        <v>24300</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1144,19 +1144,19 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>72600</v>
+        <v>62200</v>
       </c>
       <c r="E24" s="3">
-        <v>24900</v>
+        <v>21300</v>
       </c>
       <c r="F24" s="3">
-        <v>16000</v>
+        <v>13700</v>
       </c>
       <c r="G24" s="3">
-        <v>12700</v>
+        <v>10900</v>
       </c>
       <c r="H24" s="3">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1204,19 +1204,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>46200</v>
+        <v>39600</v>
       </c>
       <c r="E26" s="3">
-        <v>68700</v>
+        <v>58900</v>
       </c>
       <c r="F26" s="3">
-        <v>32700</v>
+        <v>28000</v>
       </c>
       <c r="G26" s="3">
-        <v>21800</v>
+        <v>18700</v>
       </c>
       <c r="H26" s="3">
-        <v>26800</v>
+        <v>22900</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1234,19 +1234,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>47900</v>
+        <v>41100</v>
       </c>
       <c r="E27" s="3">
-        <v>68400</v>
+        <v>58600</v>
       </c>
       <c r="F27" s="3">
-        <v>30600</v>
+        <v>26200</v>
       </c>
       <c r="G27" s="3">
-        <v>20200</v>
+        <v>17300</v>
       </c>
       <c r="H27" s="3">
-        <v>25600</v>
+        <v>21900</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>56400</v>
+        <v>48300</v>
       </c>
       <c r="F29" s="3">
-        <v>7400</v>
+        <v>6400</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>3</v>
@@ -1384,19 +1384,19 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-3100</v>
+        <v>-2600</v>
       </c>
       <c r="E32" s="3">
-        <v>-16600</v>
+        <v>-14300</v>
       </c>
       <c r="F32" s="3">
-        <v>5800</v>
+        <v>5000</v>
       </c>
       <c r="G32" s="3">
-        <v>14300</v>
+        <v>12200</v>
       </c>
       <c r="H32" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1414,19 +1414,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>47900</v>
+        <v>41100</v>
       </c>
       <c r="E33" s="3">
-        <v>124700</v>
+        <v>106900</v>
       </c>
       <c r="F33" s="3">
-        <v>38100</v>
+        <v>32600</v>
       </c>
       <c r="G33" s="3">
-        <v>20200</v>
+        <v>17300</v>
       </c>
       <c r="H33" s="3">
-        <v>25600</v>
+        <v>21900</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1474,19 +1474,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>47900</v>
+        <v>41100</v>
       </c>
       <c r="E35" s="3">
-        <v>124700</v>
+        <v>106900</v>
       </c>
       <c r="F35" s="3">
-        <v>38100</v>
+        <v>32600</v>
       </c>
       <c r="G35" s="3">
-        <v>20200</v>
+        <v>17300</v>
       </c>
       <c r="H35" s="3">
-        <v>25600</v>
+        <v>21900</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1567,19 +1567,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2800</v>
+        <v>3400</v>
       </c>
       <c r="E41" s="3">
-        <v>2900</v>
+        <v>2500</v>
       </c>
       <c r="F41" s="3">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="G41" s="3">
-        <v>9000</v>
+        <v>7700</v>
       </c>
       <c r="H41" s="3">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1597,19 +1597,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>41700</v>
+        <v>51200</v>
       </c>
       <c r="E42" s="3">
-        <v>45200</v>
+        <v>38700</v>
       </c>
       <c r="F42" s="3">
-        <v>10100</v>
+        <v>8700</v>
       </c>
       <c r="G42" s="3">
-        <v>23500</v>
+        <v>20100</v>
       </c>
       <c r="H42" s="3">
-        <v>32100</v>
+        <v>27600</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1627,19 +1627,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>41400</v>
+        <v>50700</v>
       </c>
       <c r="E43" s="3">
-        <v>44000</v>
+        <v>37700</v>
       </c>
       <c r="F43" s="3">
-        <v>30700</v>
+        <v>26300</v>
       </c>
       <c r="G43" s="3">
-        <v>26400</v>
+        <v>22600</v>
       </c>
       <c r="H43" s="3">
-        <v>15300</v>
+        <v>13100</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1657,19 +1657,19 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>73500</v>
+        <v>90100</v>
       </c>
       <c r="E44" s="3">
-        <v>60300</v>
+        <v>51700</v>
       </c>
       <c r="F44" s="3">
-        <v>48000</v>
+        <v>41100</v>
       </c>
       <c r="G44" s="3">
-        <v>42300</v>
+        <v>36300</v>
       </c>
       <c r="H44" s="3">
-        <v>25300</v>
+        <v>21700</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
@@ -1687,19 +1687,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2200</v>
+        <v>2700</v>
       </c>
       <c r="E45" s="3">
-        <v>2300</v>
+        <v>1900</v>
       </c>
       <c r="F45" s="3">
+        <v>800</v>
+      </c>
+      <c r="G45" s="3">
         <v>900</v>
       </c>
-      <c r="G45" s="3">
-        <v>1000</v>
-      </c>
       <c r="H45" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1717,19 +1717,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>161600</v>
+        <v>198100</v>
       </c>
       <c r="E46" s="3">
-        <v>154700</v>
+        <v>132600</v>
       </c>
       <c r="F46" s="3">
-        <v>90000</v>
+        <v>77200</v>
       </c>
       <c r="G46" s="3">
-        <v>102200</v>
+        <v>87600</v>
       </c>
       <c r="H46" s="3">
-        <v>73700</v>
+        <v>63200</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1747,19 +1747,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5900</v>
+        <v>7300</v>
       </c>
       <c r="E47" s="3">
-        <v>5300</v>
+        <v>4600</v>
       </c>
       <c r="F47" s="3">
-        <v>49400</v>
+        <v>42400</v>
       </c>
       <c r="G47" s="3">
-        <v>10600</v>
+        <v>9100</v>
       </c>
       <c r="H47" s="3">
-        <v>2600</v>
+        <v>2200</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -1777,19 +1777,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>689600</v>
+        <v>845700</v>
       </c>
       <c r="E48" s="3">
-        <v>593400</v>
+        <v>508700</v>
       </c>
       <c r="F48" s="3">
-        <v>723300</v>
+        <v>620000</v>
       </c>
       <c r="G48" s="3">
-        <v>464300</v>
+        <v>398000</v>
       </c>
       <c r="H48" s="3">
-        <v>176800</v>
+        <v>151600</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1807,19 +1807,19 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2900</v>
+        <v>3500</v>
       </c>
       <c r="E49" s="3">
-        <v>2500</v>
+        <v>2100</v>
       </c>
       <c r="F49" s="3">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="G49" s="3">
-        <v>2600</v>
+        <v>2300</v>
       </c>
       <c r="H49" s="3">
-        <v>2300</v>
+        <v>2000</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -1897,19 +1897,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>26100</v>
+        <v>32000</v>
       </c>
       <c r="E52" s="3">
-        <v>23700</v>
+        <v>20300</v>
       </c>
       <c r="F52" s="3">
-        <v>14800</v>
+        <v>12700</v>
       </c>
       <c r="G52" s="3">
-        <v>7600</v>
+        <v>6500</v>
       </c>
       <c r="H52" s="3">
-        <v>4600</v>
+        <v>4000</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -1957,19 +1957,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>886000</v>
+        <v>1086600</v>
       </c>
       <c r="E54" s="3">
-        <v>779600</v>
+        <v>668200</v>
       </c>
       <c r="F54" s="3">
-        <v>551300</v>
+        <v>472500</v>
       </c>
       <c r="G54" s="3">
-        <v>368100</v>
+        <v>315500</v>
       </c>
       <c r="H54" s="3">
-        <v>214900</v>
+        <v>184200</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2015,19 +2015,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>34800</v>
+        <v>42700</v>
       </c>
       <c r="E57" s="3">
-        <v>35200</v>
+        <v>30200</v>
       </c>
       <c r="F57" s="3">
-        <v>18200</v>
+        <v>15600</v>
       </c>
       <c r="G57" s="3">
-        <v>23200</v>
+        <v>19900</v>
       </c>
       <c r="H57" s="3">
-        <v>13300</v>
+        <v>11400</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2045,19 +2045,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>18500</v>
+        <v>22700</v>
       </c>
       <c r="E58" s="3">
-        <v>51800</v>
+        <v>44400</v>
       </c>
       <c r="F58" s="3">
-        <v>51800</v>
+        <v>44400</v>
       </c>
       <c r="G58" s="3">
-        <v>38000</v>
+        <v>32600</v>
       </c>
       <c r="H58" s="3">
-        <v>18900</v>
+        <v>16200</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2075,19 +2075,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>87200</v>
+        <v>106900</v>
       </c>
       <c r="E59" s="3">
-        <v>80900</v>
+        <v>69400</v>
       </c>
       <c r="F59" s="3">
-        <v>85400</v>
+        <v>73200</v>
       </c>
       <c r="G59" s="3">
-        <v>48900</v>
+        <v>41900</v>
       </c>
       <c r="H59" s="3">
-        <v>28300</v>
+        <v>24300</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2105,19 +2105,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>140600</v>
+        <v>172400</v>
       </c>
       <c r="E60" s="3">
-        <v>167900</v>
+        <v>143900</v>
       </c>
       <c r="F60" s="3">
-        <v>155400</v>
+        <v>133200</v>
       </c>
       <c r="G60" s="3">
-        <v>110100</v>
+        <v>94400</v>
       </c>
       <c r="H60" s="3">
-        <v>58800</v>
+        <v>50400</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2135,19 +2135,19 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5400</v>
+        <v>6600</v>
       </c>
       <c r="E61" s="3">
-        <v>24800</v>
+        <v>21300</v>
       </c>
       <c r="F61" s="3">
-        <v>43900</v>
+        <v>37600</v>
       </c>
       <c r="G61" s="3">
-        <v>29200</v>
+        <v>25000</v>
       </c>
       <c r="H61" s="3">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2165,19 +2165,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>127400</v>
+        <v>156200</v>
       </c>
       <c r="E62" s="3">
-        <v>88100</v>
+        <v>75500</v>
       </c>
       <c r="F62" s="3">
-        <v>61300</v>
+        <v>52500</v>
       </c>
       <c r="G62" s="3">
-        <v>43400</v>
+        <v>37200</v>
       </c>
       <c r="H62" s="3">
-        <v>25200</v>
+        <v>21600</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2285,19 +2285,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>274700</v>
+        <v>336900</v>
       </c>
       <c r="E66" s="3">
-        <v>283800</v>
+        <v>243300</v>
       </c>
       <c r="F66" s="3">
-        <v>282700</v>
+        <v>242300</v>
       </c>
       <c r="G66" s="3">
-        <v>198100</v>
+        <v>169800</v>
       </c>
       <c r="H66" s="3">
-        <v>119300</v>
+        <v>102300</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2449,19 +2449,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>439200</v>
+        <v>538600</v>
       </c>
       <c r="E72" s="3">
-        <v>330400</v>
+        <v>283200</v>
       </c>
       <c r="F72" s="3">
-        <v>155700</v>
+        <v>133500</v>
       </c>
       <c r="G72" s="3">
-        <v>86400</v>
+        <v>74100</v>
       </c>
       <c r="H72" s="3">
-        <v>43100</v>
+        <v>36900</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2569,19 +2569,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>611300</v>
+        <v>749700</v>
       </c>
       <c r="E76" s="3">
-        <v>495800</v>
+        <v>425000</v>
       </c>
       <c r="F76" s="3">
-        <v>268600</v>
+        <v>230200</v>
       </c>
       <c r="G76" s="3">
-        <v>170000</v>
+        <v>145700</v>
       </c>
       <c r="H76" s="3">
-        <v>95600</v>
+        <v>82000</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2664,19 +2664,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>47900</v>
+        <v>41100</v>
       </c>
       <c r="E81" s="3">
-        <v>124700</v>
+        <v>106900</v>
       </c>
       <c r="F81" s="3">
-        <v>38100</v>
+        <v>32600</v>
       </c>
       <c r="G81" s="3">
-        <v>20200</v>
+        <v>17300</v>
       </c>
       <c r="H81" s="3">
-        <v>25600</v>
+        <v>21900</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2708,19 +2708,19 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>43400</v>
+        <v>37200</v>
       </c>
       <c r="E83" s="3">
-        <v>43800</v>
+        <v>37600</v>
       </c>
       <c r="F83" s="3">
-        <v>26600</v>
+        <v>22800</v>
       </c>
       <c r="G83" s="3">
-        <v>23800</v>
+        <v>20400</v>
       </c>
       <c r="H83" s="3">
-        <v>12700</v>
+        <v>10900</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -2888,19 +2888,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>105700</v>
+        <v>90600</v>
       </c>
       <c r="E89" s="3">
-        <v>161400</v>
+        <v>138400</v>
       </c>
       <c r="F89" s="3">
-        <v>66300</v>
+        <v>56800</v>
       </c>
       <c r="G89" s="3">
-        <v>45700</v>
+        <v>39200</v>
       </c>
       <c r="H89" s="3">
-        <v>36600</v>
+        <v>31400</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -2932,19 +2932,19 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-51600</v>
+        <v>-44200</v>
       </c>
       <c r="E91" s="3">
-        <v>-105900</v>
+        <v>-90800</v>
       </c>
       <c r="F91" s="3">
-        <v>-116100</v>
+        <v>-99500</v>
       </c>
       <c r="G91" s="3">
-        <v>-46600</v>
+        <v>-39900</v>
       </c>
       <c r="H91" s="3">
-        <v>-16100</v>
+        <v>-13800</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3022,19 +3022,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-64400</v>
+        <v>-55200</v>
       </c>
       <c r="E94" s="3">
-        <v>-15700</v>
+        <v>-13500</v>
       </c>
       <c r="F94" s="3">
-        <v>-116300</v>
+        <v>-99700</v>
       </c>
       <c r="G94" s="3">
-        <v>-47300</v>
+        <v>-40500</v>
       </c>
       <c r="H94" s="3">
-        <v>-16200</v>
+        <v>-13900</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3069,7 +3069,7 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-29300</v>
+        <v>-25100</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -3078,7 +3078,7 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-5600</v>
+        <v>-4800</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -3186,19 +3186,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-63800</v>
+        <v>-54700</v>
       </c>
       <c r="E100" s="3">
-        <v>-115400</v>
+        <v>-98900</v>
       </c>
       <c r="F100" s="3">
-        <v>25500</v>
+        <v>21800</v>
       </c>
       <c r="G100" s="3">
-        <v>-26800</v>
+        <v>-22900</v>
       </c>
       <c r="H100" s="3">
-        <v>2300</v>
+        <v>1900</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3216,19 +3216,19 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1600</v>
+        <v>-1400</v>
       </c>
       <c r="E101" s="3">
-        <v>-1700</v>
+        <v>-1500</v>
       </c>
       <c r="F101" s="3">
-        <v>1900</v>
+        <v>1600</v>
       </c>
       <c r="G101" s="3">
-        <v>8300</v>
+        <v>7100</v>
       </c>
       <c r="H101" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
@@ -3246,19 +3246,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-24000</v>
+        <v>-20600</v>
       </c>
       <c r="E102" s="3">
-        <v>28600</v>
+        <v>24500</v>
       </c>
       <c r="F102" s="3">
-        <v>-22600</v>
+        <v>-19400</v>
       </c>
       <c r="G102" s="3">
-        <v>-20100</v>
+        <v>-17200</v>
       </c>
       <c r="H102" s="3">
-        <v>23400</v>
+        <v>20100</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/LOMA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/LOMA_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="92">
   <si>
     <t>LOMA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,72 +665,75 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>459700</v>
+        <v>724200</v>
       </c>
       <c r="E8" s="3">
-        <v>392000</v>
+        <v>716100</v>
       </c>
       <c r="F8" s="3">
-        <v>298000</v>
+        <v>313500</v>
       </c>
       <c r="G8" s="3">
-        <v>257300</v>
+        <v>238300</v>
       </c>
       <c r="H8" s="3">
-        <v>155000</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
+        <v>205800</v>
+      </c>
+      <c r="I8" s="3">
+        <v>123900</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -738,29 +741,32 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>314400</v>
+        <v>528600</v>
       </c>
       <c r="E9" s="3">
-        <v>273400</v>
+        <v>489700</v>
       </c>
       <c r="F9" s="3">
-        <v>218300</v>
+        <v>218600</v>
       </c>
       <c r="G9" s="3">
-        <v>207500</v>
+        <v>174600</v>
       </c>
       <c r="H9" s="3">
-        <v>115500</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
+        <v>165900</v>
+      </c>
+      <c r="I9" s="3">
+        <v>92400</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -768,29 +774,32 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>145300</v>
+        <v>195600</v>
       </c>
       <c r="E10" s="3">
-        <v>118600</v>
+        <v>226300</v>
       </c>
       <c r="F10" s="3">
-        <v>79700</v>
+        <v>94900</v>
       </c>
       <c r="G10" s="3">
-        <v>49800</v>
+        <v>63700</v>
       </c>
       <c r="H10" s="3">
-        <v>39500</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
+        <v>39800</v>
+      </c>
+      <c r="I10" s="3">
+        <v>31600</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -798,9 +807,12 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,8 +825,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -842,9 +855,12 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,29 +888,32 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1300</v>
+        <v>1900</v>
       </c>
       <c r="E14" s="3">
-        <v>9200</v>
+        <v>2100</v>
       </c>
       <c r="F14" s="3">
+        <v>7400</v>
+      </c>
+      <c r="G14" s="3">
         <v>300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>100</v>
       </c>
-      <c r="H14" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
@@ -902,29 +921,32 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2300</v>
+        <v>4000</v>
       </c>
       <c r="E15" s="3">
-        <v>2700</v>
+        <v>3600</v>
       </c>
       <c r="F15" s="3">
-        <v>1400</v>
+        <v>2100</v>
       </c>
       <c r="G15" s="3">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="H15" s="3">
-        <v>300</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
+        <v>500</v>
+      </c>
+      <c r="I15" s="3">
+        <v>200</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>3</v>
@@ -932,9 +954,12 @@
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -944,28 +969,29 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>358200</v>
+        <v>581400</v>
       </c>
       <c r="E17" s="3">
-        <v>321900</v>
+        <v>557900</v>
       </c>
       <c r="F17" s="3">
-        <v>243400</v>
+        <v>257400</v>
       </c>
       <c r="G17" s="3">
-        <v>211800</v>
+        <v>194600</v>
       </c>
       <c r="H17" s="3">
-        <v>129000</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
+        <v>169400</v>
+      </c>
+      <c r="I17" s="3">
+        <v>103100</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -973,29 +999,32 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>101500</v>
+        <v>142800</v>
       </c>
       <c r="E18" s="3">
-        <v>70200</v>
+        <v>158100</v>
       </c>
       <c r="F18" s="3">
-        <v>54600</v>
+        <v>56100</v>
       </c>
       <c r="G18" s="3">
-        <v>45500</v>
+        <v>43700</v>
       </c>
       <c r="H18" s="3">
-        <v>26000</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
+        <v>36400</v>
+      </c>
+      <c r="I18" s="3">
+        <v>20800</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1003,9 +1032,12 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1018,28 +1050,29 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>2600</v>
+        <v>-59000</v>
       </c>
       <c r="E20" s="3">
-        <v>14300</v>
+        <v>5700</v>
       </c>
       <c r="F20" s="3">
-        <v>-5000</v>
+        <v>11400</v>
       </c>
       <c r="G20" s="3">
-        <v>-12200</v>
+        <v>-4000</v>
       </c>
       <c r="H20" s="3">
-        <v>700</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
+        <v>-9800</v>
+      </c>
+      <c r="I20" s="3">
+        <v>500</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1047,26 +1080,29 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>141400</v>
+        <v>113600</v>
       </c>
       <c r="E21" s="3">
-        <v>122000</v>
+        <v>193900</v>
       </c>
       <c r="F21" s="3">
-        <v>72500</v>
+        <v>85800</v>
       </c>
       <c r="G21" s="3">
-        <v>53700</v>
+        <v>56000</v>
       </c>
       <c r="H21" s="3">
-        <v>37600</v>
+        <v>35300</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1077,29 +1113,32 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>2400</v>
+        <v>28900</v>
       </c>
       <c r="E22" s="3">
-        <v>4200</v>
+        <v>5300</v>
       </c>
       <c r="F22" s="3">
-        <v>7900</v>
+        <v>3400</v>
       </c>
       <c r="G22" s="3">
-        <v>3700</v>
+        <v>6300</v>
       </c>
       <c r="H22" s="3">
-        <v>2400</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
+        <v>3000</v>
+      </c>
+      <c r="I22" s="3">
+        <v>1900</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
@@ -1107,29 +1146,32 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>101800</v>
+        <v>54900</v>
       </c>
       <c r="E23" s="3">
-        <v>80200</v>
+        <v>158600</v>
       </c>
       <c r="F23" s="3">
-        <v>41700</v>
+        <v>64200</v>
       </c>
       <c r="G23" s="3">
-        <v>29600</v>
+        <v>33400</v>
       </c>
       <c r="H23" s="3">
-        <v>24300</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
+        <v>23700</v>
+      </c>
+      <c r="I23" s="3">
+        <v>19500</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1137,29 +1179,32 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>62200</v>
+        <v>45900</v>
       </c>
       <c r="E24" s="3">
-        <v>21300</v>
+        <v>96900</v>
       </c>
       <c r="F24" s="3">
-        <v>13700</v>
+        <v>17000</v>
       </c>
       <c r="G24" s="3">
-        <v>10900</v>
+        <v>11000</v>
       </c>
       <c r="H24" s="3">
-        <v>1400</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
+        <v>8700</v>
+      </c>
+      <c r="I24" s="3">
+        <v>1100</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
@@ -1167,9 +1212,12 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1197,29 +1245,32 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>39600</v>
+        <v>9000</v>
       </c>
       <c r="E26" s="3">
-        <v>58900</v>
+        <v>61700</v>
       </c>
       <c r="F26" s="3">
-        <v>28000</v>
+        <v>47100</v>
       </c>
       <c r="G26" s="3">
-        <v>18700</v>
+        <v>22400</v>
       </c>
       <c r="H26" s="3">
-        <v>22900</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
+        <v>15000</v>
+      </c>
+      <c r="I26" s="3">
+        <v>18400</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1227,29 +1278,32 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>41100</v>
+        <v>9700</v>
       </c>
       <c r="E27" s="3">
-        <v>58600</v>
+        <v>64000</v>
       </c>
       <c r="F27" s="3">
-        <v>26200</v>
+        <v>46900</v>
       </c>
       <c r="G27" s="3">
-        <v>17300</v>
+        <v>21000</v>
       </c>
       <c r="H27" s="3">
-        <v>21900</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
+        <v>13800</v>
+      </c>
+      <c r="I27" s="3">
+        <v>17500</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1257,9 +1311,12 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1287,9 +1344,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1297,13 +1357,13 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>48300</v>
+        <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>6400</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>3</v>
+        <v>38600</v>
+      </c>
+      <c r="G29" s="3">
+        <v>5100</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>3</v>
@@ -1317,9 +1377,12 @@
       <c r="K29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1347,9 +1410,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1377,29 +1443,32 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-2600</v>
+        <v>59000</v>
       </c>
       <c r="E32" s="3">
-        <v>-14300</v>
+        <v>-5700</v>
       </c>
       <c r="F32" s="3">
-        <v>5000</v>
+        <v>-11400</v>
       </c>
       <c r="G32" s="3">
-        <v>12200</v>
+        <v>4000</v>
       </c>
       <c r="H32" s="3">
-        <v>-700</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
+        <v>9800</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-500</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1407,29 +1476,32 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>41100</v>
+        <v>9700</v>
       </c>
       <c r="E33" s="3">
-        <v>106900</v>
+        <v>64000</v>
       </c>
       <c r="F33" s="3">
-        <v>32600</v>
+        <v>85500</v>
       </c>
       <c r="G33" s="3">
-        <v>17300</v>
+        <v>26100</v>
       </c>
       <c r="H33" s="3">
-        <v>21900</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
+        <v>13800</v>
+      </c>
+      <c r="I33" s="3">
+        <v>17500</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1437,9 +1509,12 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1467,29 +1542,32 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>41100</v>
+        <v>9700</v>
       </c>
       <c r="E35" s="3">
-        <v>106900</v>
+        <v>64000</v>
       </c>
       <c r="F35" s="3">
-        <v>32600</v>
+        <v>85500</v>
       </c>
       <c r="G35" s="3">
-        <v>17300</v>
+        <v>26100</v>
       </c>
       <c r="H35" s="3">
-        <v>21900</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
+        <v>13800</v>
+      </c>
+      <c r="I35" s="3">
+        <v>17500</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1497,44 +1575,50 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1547,8 +1631,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1561,28 +1646,29 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="E41" s="3">
-        <v>2500</v>
+        <v>3200</v>
       </c>
       <c r="F41" s="3">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="G41" s="3">
-        <v>7700</v>
+        <v>1900</v>
       </c>
       <c r="H41" s="3">
-        <v>1700</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
+        <v>6200</v>
+      </c>
+      <c r="I41" s="3">
+        <v>1400</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1590,29 +1676,32 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>51200</v>
+        <v>21200</v>
       </c>
       <c r="E42" s="3">
-        <v>38700</v>
+        <v>48000</v>
       </c>
       <c r="F42" s="3">
-        <v>8700</v>
+        <v>30900</v>
       </c>
       <c r="G42" s="3">
-        <v>20100</v>
+        <v>6900</v>
       </c>
       <c r="H42" s="3">
-        <v>27600</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
+        <v>16100</v>
+      </c>
+      <c r="I42" s="3">
+        <v>22000</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
@@ -1620,29 +1709,32 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>50700</v>
+        <v>69200</v>
       </c>
       <c r="E43" s="3">
-        <v>37700</v>
+        <v>47600</v>
       </c>
       <c r="F43" s="3">
-        <v>26300</v>
+        <v>30100</v>
       </c>
       <c r="G43" s="3">
-        <v>22600</v>
+        <v>21000</v>
       </c>
       <c r="H43" s="3">
-        <v>13100</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
+        <v>18100</v>
+      </c>
+      <c r="I43" s="3">
+        <v>10500</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1650,29 +1742,32 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>90100</v>
+        <v>101800</v>
       </c>
       <c r="E44" s="3">
-        <v>51700</v>
+        <v>84500</v>
       </c>
       <c r="F44" s="3">
-        <v>41100</v>
+        <v>41400</v>
       </c>
       <c r="G44" s="3">
-        <v>36300</v>
+        <v>32900</v>
       </c>
       <c r="H44" s="3">
-        <v>21700</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
+        <v>29000</v>
+      </c>
+      <c r="I44" s="3">
+        <v>17400</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
@@ -1680,29 +1775,32 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2700</v>
+        <v>5600</v>
       </c>
       <c r="E45" s="3">
-        <v>1900</v>
+        <v>2500</v>
       </c>
       <c r="F45" s="3">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="G45" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="H45" s="3">
-        <v>800</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
+        <v>700</v>
+      </c>
+      <c r="I45" s="3">
+        <v>700</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1710,29 +1808,32 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>198100</v>
+        <v>201000</v>
       </c>
       <c r="E46" s="3">
-        <v>132600</v>
+        <v>185900</v>
       </c>
       <c r="F46" s="3">
-        <v>77200</v>
+        <v>106000</v>
       </c>
       <c r="G46" s="3">
-        <v>87600</v>
+        <v>61700</v>
       </c>
       <c r="H46" s="3">
-        <v>63200</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
+        <v>70100</v>
+      </c>
+      <c r="I46" s="3">
+        <v>50500</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1740,29 +1841,32 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E47" s="3">
+        <v>6800</v>
+      </c>
+      <c r="F47" s="3">
+        <v>3600</v>
+      </c>
+      <c r="G47" s="3">
+        <v>33900</v>
+      </c>
+      <c r="H47" s="3">
         <v>7300</v>
       </c>
-      <c r="E47" s="3">
-        <v>4600</v>
-      </c>
-      <c r="F47" s="3">
-        <v>42400</v>
-      </c>
-      <c r="G47" s="3">
-        <v>9100</v>
-      </c>
-      <c r="H47" s="3">
-        <v>2200</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
+      <c r="I47" s="3">
+        <v>1800</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -1770,29 +1874,32 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>845700</v>
+        <v>771100</v>
       </c>
       <c r="E48" s="3">
-        <v>508700</v>
+        <v>793200</v>
       </c>
       <c r="F48" s="3">
-        <v>620000</v>
+        <v>406800</v>
       </c>
       <c r="G48" s="3">
-        <v>398000</v>
+        <v>495800</v>
       </c>
       <c r="H48" s="3">
-        <v>151600</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
+        <v>318300</v>
+      </c>
+      <c r="I48" s="3">
+        <v>121200</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -1800,29 +1907,32 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3500</v>
+        <v>2900</v>
       </c>
       <c r="E49" s="3">
-        <v>2100</v>
+        <v>3300</v>
       </c>
       <c r="F49" s="3">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="G49" s="3">
-        <v>2300</v>
+        <v>1000</v>
       </c>
       <c r="H49" s="3">
-        <v>2000</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
+        <v>1800</v>
+      </c>
+      <c r="I49" s="3">
+        <v>1600</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -1830,9 +1940,12 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1860,9 +1973,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1890,29 +2006,32 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>32000</v>
+        <v>31800</v>
       </c>
       <c r="E52" s="3">
-        <v>20300</v>
+        <v>30000</v>
       </c>
       <c r="F52" s="3">
-        <v>12700</v>
+        <v>16200</v>
       </c>
       <c r="G52" s="3">
-        <v>6500</v>
+        <v>10200</v>
       </c>
       <c r="H52" s="3">
-        <v>4000</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
+        <v>5200</v>
+      </c>
+      <c r="I52" s="3">
+        <v>3200</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -1920,9 +2039,12 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1950,29 +2072,32 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1086600</v>
+        <v>1012400</v>
       </c>
       <c r="E54" s="3">
-        <v>668200</v>
+        <v>1019200</v>
       </c>
       <c r="F54" s="3">
-        <v>472500</v>
+        <v>534400</v>
       </c>
       <c r="G54" s="3">
-        <v>315500</v>
+        <v>377900</v>
       </c>
       <c r="H54" s="3">
-        <v>184200</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
+        <v>252300</v>
+      </c>
+      <c r="I54" s="3">
+        <v>147300</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -1980,9 +2105,12 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1995,8 +2123,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2009,28 +2138,29 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>42700</v>
+        <v>62500</v>
       </c>
       <c r="E57" s="3">
-        <v>30200</v>
+        <v>40100</v>
       </c>
       <c r="F57" s="3">
-        <v>15600</v>
+        <v>24100</v>
       </c>
       <c r="G57" s="3">
-        <v>19900</v>
+        <v>12500</v>
       </c>
       <c r="H57" s="3">
-        <v>11400</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
+        <v>15900</v>
+      </c>
+      <c r="I57" s="3">
+        <v>9100</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2038,29 +2168,32 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>22700</v>
+        <v>55800</v>
       </c>
       <c r="E58" s="3">
-        <v>44400</v>
+        <v>21300</v>
       </c>
       <c r="F58" s="3">
-        <v>44400</v>
+        <v>35500</v>
       </c>
       <c r="G58" s="3">
-        <v>32600</v>
+        <v>35500</v>
       </c>
       <c r="H58" s="3">
-        <v>16200</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
+        <v>26100</v>
+      </c>
+      <c r="I58" s="3">
+        <v>13000</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2068,29 +2201,32 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>106900</v>
+        <v>90100</v>
       </c>
       <c r="E59" s="3">
-        <v>69400</v>
+        <v>100300</v>
       </c>
       <c r="F59" s="3">
-        <v>73200</v>
+        <v>55500</v>
       </c>
       <c r="G59" s="3">
-        <v>41900</v>
+        <v>58600</v>
       </c>
       <c r="H59" s="3">
-        <v>24300</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
+        <v>33500</v>
+      </c>
+      <c r="I59" s="3">
+        <v>19400</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2098,29 +2234,32 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>172400</v>
+        <v>208300</v>
       </c>
       <c r="E60" s="3">
-        <v>143900</v>
+        <v>161700</v>
       </c>
       <c r="F60" s="3">
-        <v>133200</v>
+        <v>115100</v>
       </c>
       <c r="G60" s="3">
-        <v>94400</v>
+        <v>106500</v>
       </c>
       <c r="H60" s="3">
-        <v>50400</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
+        <v>75500</v>
+      </c>
+      <c r="I60" s="3">
+        <v>40300</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2128,29 +2267,32 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6600</v>
+        <v>53200</v>
       </c>
       <c r="E61" s="3">
-        <v>21300</v>
+        <v>6200</v>
       </c>
       <c r="F61" s="3">
-        <v>37600</v>
+        <v>17000</v>
       </c>
       <c r="G61" s="3">
-        <v>25000</v>
+        <v>30100</v>
       </c>
       <c r="H61" s="3">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>19200</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2158,29 +2300,32 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>156200</v>
+        <v>172300</v>
       </c>
       <c r="E62" s="3">
-        <v>75500</v>
+        <v>146500</v>
       </c>
       <c r="F62" s="3">
-        <v>52500</v>
+        <v>60400</v>
       </c>
       <c r="G62" s="3">
-        <v>37200</v>
+        <v>42000</v>
       </c>
       <c r="H62" s="3">
-        <v>21600</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
+        <v>29700</v>
+      </c>
+      <c r="I62" s="3">
+        <v>17300</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2188,9 +2333,12 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2218,9 +2366,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2248,9 +2399,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2278,29 +2432,32 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>336900</v>
+        <v>434800</v>
       </c>
       <c r="E66" s="3">
-        <v>243300</v>
+        <v>316000</v>
       </c>
       <c r="F66" s="3">
-        <v>242300</v>
+        <v>194500</v>
       </c>
       <c r="G66" s="3">
-        <v>169800</v>
+        <v>193800</v>
       </c>
       <c r="H66" s="3">
-        <v>102300</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
+        <v>135800</v>
+      </c>
+      <c r="I66" s="3">
+        <v>81800</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2308,9 +2465,12 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2323,8 +2483,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2352,9 +2513,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2382,9 +2546,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2412,9 +2579,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2442,29 +2612,32 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>538600</v>
+        <v>388300</v>
       </c>
       <c r="E72" s="3">
-        <v>283200</v>
+        <v>505200</v>
       </c>
       <c r="F72" s="3">
-        <v>133500</v>
+        <v>226500</v>
       </c>
       <c r="G72" s="3">
-        <v>74100</v>
+        <v>106700</v>
       </c>
       <c r="H72" s="3">
-        <v>36900</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
+        <v>59200</v>
+      </c>
+      <c r="I72" s="3">
+        <v>29500</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2472,9 +2645,12 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2502,9 +2678,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2532,9 +2711,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2562,29 +2744,32 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>749700</v>
+        <v>577600</v>
       </c>
       <c r="E76" s="3">
-        <v>425000</v>
+        <v>703200</v>
       </c>
       <c r="F76" s="3">
-        <v>230200</v>
+        <v>339800</v>
       </c>
       <c r="G76" s="3">
-        <v>145700</v>
+        <v>184100</v>
       </c>
       <c r="H76" s="3">
-        <v>82000</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
+        <v>116500</v>
+      </c>
+      <c r="I76" s="3">
+        <v>65600</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -2592,9 +2777,12 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2622,64 +2810,70 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>41100</v>
+        <v>9700</v>
       </c>
       <c r="E81" s="3">
-        <v>106900</v>
+        <v>64000</v>
       </c>
       <c r="F81" s="3">
-        <v>32600</v>
+        <v>85500</v>
       </c>
       <c r="G81" s="3">
-        <v>17300</v>
+        <v>26100</v>
       </c>
       <c r="H81" s="3">
-        <v>21900</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
+        <v>13800</v>
+      </c>
+      <c r="I81" s="3">
+        <v>17500</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -2687,9 +2881,12 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2702,28 +2899,29 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>37200</v>
+        <v>66300</v>
       </c>
       <c r="E83" s="3">
-        <v>37600</v>
+        <v>57900</v>
       </c>
       <c r="F83" s="3">
-        <v>22800</v>
+        <v>30000</v>
       </c>
       <c r="G83" s="3">
-        <v>20400</v>
+        <v>18200</v>
       </c>
       <c r="H83" s="3">
-        <v>10900</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
+        <v>16300</v>
+      </c>
+      <c r="I83" s="3">
+        <v>8700</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -2731,9 +2929,12 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2761,9 +2962,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2791,9 +2995,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2821,9 +3028,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2851,9 +3061,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2881,29 +3094,32 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>90600</v>
+        <v>138400</v>
       </c>
       <c r="E89" s="3">
-        <v>138400</v>
+        <v>128200</v>
       </c>
       <c r="F89" s="3">
-        <v>56800</v>
+        <v>110600</v>
       </c>
       <c r="G89" s="3">
-        <v>39200</v>
+        <v>45400</v>
       </c>
       <c r="H89" s="3">
-        <v>31400</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
+        <v>31300</v>
+      </c>
+      <c r="I89" s="3">
+        <v>25100</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -2911,9 +3127,12 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2926,28 +3145,29 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-44200</v>
+        <v>-50900</v>
       </c>
       <c r="E91" s="3">
-        <v>-90800</v>
+        <v>-68900</v>
       </c>
       <c r="F91" s="3">
-        <v>-99500</v>
+        <v>-72600</v>
       </c>
       <c r="G91" s="3">
-        <v>-39900</v>
+        <v>-79600</v>
       </c>
       <c r="H91" s="3">
-        <v>-13800</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
+        <v>-31900</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-11100</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -2955,9 +3175,12 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2985,9 +3208,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3015,29 +3241,32 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-55200</v>
+        <v>-23500</v>
       </c>
       <c r="E94" s="3">
-        <v>-13500</v>
+        <v>-86000</v>
       </c>
       <c r="F94" s="3">
-        <v>-99700</v>
+        <v>-10800</v>
       </c>
       <c r="G94" s="3">
-        <v>-40500</v>
+        <v>-79700</v>
       </c>
       <c r="H94" s="3">
-        <v>-13900</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
+        <v>-32400</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-11100</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3045,9 +3274,12 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3060,28 +3292,29 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-108800</v>
       </c>
       <c r="E96" s="3">
-        <v>-25100</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-20100</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-4800</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-3800</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -3089,9 +3322,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3119,9 +3355,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3149,9 +3388,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3179,29 +3421,32 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-54700</v>
+        <v>-123700</v>
       </c>
       <c r="E100" s="3">
-        <v>-98900</v>
+        <v>-85100</v>
       </c>
       <c r="F100" s="3">
-        <v>21800</v>
+        <v>-79100</v>
       </c>
       <c r="G100" s="3">
-        <v>-22900</v>
+        <v>17500</v>
       </c>
       <c r="H100" s="3">
-        <v>1900</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
+        <v>-18300</v>
+      </c>
+      <c r="I100" s="3">
+        <v>1600</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3209,29 +3454,32 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1400</v>
+        <v>1100</v>
       </c>
       <c r="E101" s="3">
-        <v>-1500</v>
+        <v>10900</v>
       </c>
       <c r="F101" s="3">
-        <v>1600</v>
+        <v>-1200</v>
       </c>
       <c r="G101" s="3">
-        <v>7100</v>
+        <v>1300</v>
       </c>
       <c r="H101" s="3">
-        <v>700</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
+        <v>5700</v>
+      </c>
+      <c r="I101" s="3">
+        <v>500</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
@@ -3239,29 +3487,32 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-20600</v>
+        <v>-7600</v>
       </c>
       <c r="E102" s="3">
-        <v>24500</v>
+        <v>-32100</v>
       </c>
       <c r="F102" s="3">
-        <v>-19400</v>
+        <v>19600</v>
       </c>
       <c r="G102" s="3">
-        <v>-17200</v>
+        <v>-15500</v>
       </c>
       <c r="H102" s="3">
-        <v>20100</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
+        <v>-13800</v>
+      </c>
+      <c r="I102" s="3">
+        <v>16000</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
@@ -3269,7 +3520,10 @@
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/LOMA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/LOMA_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="92">
   <si>
     <t>LOMA</t>
   </si>
@@ -718,22 +718,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>724200</v>
+        <v>625500</v>
       </c>
       <c r="E8" s="3">
-        <v>716100</v>
+        <v>618500</v>
       </c>
       <c r="F8" s="3">
-        <v>313500</v>
+        <v>270800</v>
       </c>
       <c r="G8" s="3">
-        <v>238300</v>
+        <v>205800</v>
       </c>
       <c r="H8" s="3">
-        <v>205800</v>
+        <v>177700</v>
       </c>
       <c r="I8" s="3">
-        <v>123900</v>
+        <v>107100</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -751,22 +751,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>528600</v>
+        <v>456600</v>
       </c>
       <c r="E9" s="3">
-        <v>489700</v>
+        <v>423000</v>
       </c>
       <c r="F9" s="3">
-        <v>218600</v>
+        <v>188800</v>
       </c>
       <c r="G9" s="3">
-        <v>174600</v>
+        <v>150800</v>
       </c>
       <c r="H9" s="3">
-        <v>165900</v>
+        <v>143300</v>
       </c>
       <c r="I9" s="3">
-        <v>92400</v>
+        <v>79800</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -784,22 +784,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>195600</v>
+        <v>168900</v>
       </c>
       <c r="E10" s="3">
-        <v>226300</v>
+        <v>195500</v>
       </c>
       <c r="F10" s="3">
-        <v>94900</v>
+        <v>82000</v>
       </c>
       <c r="G10" s="3">
-        <v>63700</v>
+        <v>55100</v>
       </c>
       <c r="H10" s="3">
-        <v>39800</v>
+        <v>34400</v>
       </c>
       <c r="I10" s="3">
-        <v>31600</v>
+        <v>27300</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -898,19 +898,19 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1900</v>
+        <v>1600</v>
       </c>
       <c r="E14" s="3">
-        <v>2100</v>
+        <v>1800</v>
       </c>
       <c r="F14" s="3">
-        <v>7400</v>
+        <v>6400</v>
       </c>
       <c r="G14" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -931,19 +931,19 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="E15" s="3">
-        <v>3600</v>
+        <v>3100</v>
       </c>
       <c r="F15" s="3">
-        <v>2100</v>
+        <v>1900</v>
       </c>
       <c r="G15" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="H15" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I15" s="3">
         <v>200</v>
@@ -976,22 +976,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>581400</v>
+        <v>502200</v>
       </c>
       <c r="E17" s="3">
-        <v>557900</v>
+        <v>481900</v>
       </c>
       <c r="F17" s="3">
-        <v>257400</v>
+        <v>222300</v>
       </c>
       <c r="G17" s="3">
-        <v>194600</v>
+        <v>168100</v>
       </c>
       <c r="H17" s="3">
-        <v>169400</v>
+        <v>146300</v>
       </c>
       <c r="I17" s="3">
-        <v>103100</v>
+        <v>89100</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1009,22 +1009,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>142800</v>
+        <v>123300</v>
       </c>
       <c r="E18" s="3">
-        <v>158100</v>
+        <v>136600</v>
       </c>
       <c r="F18" s="3">
-        <v>56100</v>
+        <v>48500</v>
       </c>
       <c r="G18" s="3">
-        <v>43700</v>
+        <v>37700</v>
       </c>
       <c r="H18" s="3">
-        <v>36400</v>
+        <v>31500</v>
       </c>
       <c r="I18" s="3">
-        <v>20800</v>
+        <v>18000</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1057,19 +1057,19 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-59000</v>
+        <v>-50900</v>
       </c>
       <c r="E20" s="3">
-        <v>5700</v>
+        <v>4900</v>
       </c>
       <c r="F20" s="3">
-        <v>11400</v>
+        <v>9800</v>
       </c>
       <c r="G20" s="3">
-        <v>-4000</v>
+        <v>-3500</v>
       </c>
       <c r="H20" s="3">
-        <v>-9800</v>
+        <v>-8500</v>
       </c>
       <c r="I20" s="3">
         <v>500</v>
@@ -1090,22 +1090,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>113600</v>
+        <v>129800</v>
       </c>
       <c r="E21" s="3">
-        <v>193900</v>
+        <v>191700</v>
       </c>
       <c r="F21" s="3">
-        <v>85800</v>
+        <v>84300</v>
       </c>
       <c r="G21" s="3">
-        <v>56000</v>
+        <v>50100</v>
       </c>
       <c r="H21" s="3">
-        <v>35300</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
+        <v>37100</v>
+      </c>
+      <c r="I21" s="3">
+        <v>26000</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1123,22 +1123,22 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>28900</v>
+        <v>25000</v>
       </c>
       <c r="E22" s="3">
-        <v>5300</v>
+        <v>4600</v>
       </c>
       <c r="F22" s="3">
-        <v>3400</v>
+        <v>2900</v>
       </c>
       <c r="G22" s="3">
-        <v>6300</v>
+        <v>5500</v>
       </c>
       <c r="H22" s="3">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="I22" s="3">
-        <v>1900</v>
+        <v>1600</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
@@ -1156,22 +1156,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>54900</v>
+        <v>47400</v>
       </c>
       <c r="E23" s="3">
-        <v>158600</v>
+        <v>136900</v>
       </c>
       <c r="F23" s="3">
-        <v>64200</v>
+        <v>55400</v>
       </c>
       <c r="G23" s="3">
-        <v>33400</v>
+        <v>28800</v>
       </c>
       <c r="H23" s="3">
-        <v>23700</v>
+        <v>20400</v>
       </c>
       <c r="I23" s="3">
-        <v>19500</v>
+        <v>16800</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1189,22 +1189,22 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>45900</v>
+        <v>39600</v>
       </c>
       <c r="E24" s="3">
-        <v>96900</v>
+        <v>83700</v>
       </c>
       <c r="F24" s="3">
-        <v>17000</v>
+        <v>14700</v>
       </c>
       <c r="G24" s="3">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="H24" s="3">
-        <v>8700</v>
+        <v>7500</v>
       </c>
       <c r="I24" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
@@ -1255,22 +1255,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>9000</v>
+        <v>7800</v>
       </c>
       <c r="E26" s="3">
-        <v>61700</v>
+        <v>53300</v>
       </c>
       <c r="F26" s="3">
-        <v>47100</v>
+        <v>40700</v>
       </c>
       <c r="G26" s="3">
-        <v>22400</v>
+        <v>19300</v>
       </c>
       <c r="H26" s="3">
-        <v>15000</v>
+        <v>12900</v>
       </c>
       <c r="I26" s="3">
-        <v>18400</v>
+        <v>15900</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1288,22 +1288,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>9700</v>
+        <v>8400</v>
       </c>
       <c r="E27" s="3">
-        <v>64000</v>
+        <v>55300</v>
       </c>
       <c r="F27" s="3">
-        <v>46900</v>
+        <v>40500</v>
       </c>
       <c r="G27" s="3">
-        <v>21000</v>
+        <v>18100</v>
       </c>
       <c r="H27" s="3">
-        <v>13800</v>
+        <v>11900</v>
       </c>
       <c r="I27" s="3">
-        <v>17500</v>
+        <v>15100</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1360,10 +1360,10 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>38600</v>
+        <v>33400</v>
       </c>
       <c r="G29" s="3">
-        <v>5100</v>
+        <v>4400</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>3</v>
@@ -1453,19 +1453,19 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>59000</v>
+        <v>50900</v>
       </c>
       <c r="E32" s="3">
-        <v>-5700</v>
+        <v>-4900</v>
       </c>
       <c r="F32" s="3">
-        <v>-11400</v>
+        <v>-9800</v>
       </c>
       <c r="G32" s="3">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="H32" s="3">
-        <v>9800</v>
+        <v>8500</v>
       </c>
       <c r="I32" s="3">
         <v>-500</v>
@@ -1486,22 +1486,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>9700</v>
+        <v>8400</v>
       </c>
       <c r="E33" s="3">
-        <v>64000</v>
+        <v>55300</v>
       </c>
       <c r="F33" s="3">
-        <v>85500</v>
+        <v>73800</v>
       </c>
       <c r="G33" s="3">
-        <v>26100</v>
+        <v>22500</v>
       </c>
       <c r="H33" s="3">
-        <v>13800</v>
+        <v>11900</v>
       </c>
       <c r="I33" s="3">
-        <v>17500</v>
+        <v>15100</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1552,22 +1552,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>9700</v>
+        <v>8400</v>
       </c>
       <c r="E35" s="3">
-        <v>64000</v>
+        <v>55300</v>
       </c>
       <c r="F35" s="3">
-        <v>85500</v>
+        <v>73800</v>
       </c>
       <c r="G35" s="3">
-        <v>26100</v>
+        <v>22500</v>
       </c>
       <c r="H35" s="3">
-        <v>13800</v>
+        <v>11900</v>
       </c>
       <c r="I35" s="3">
-        <v>17500</v>
+        <v>15100</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1653,22 +1653,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="E41" s="3">
-        <v>3200</v>
+        <v>2800</v>
       </c>
       <c r="F41" s="3">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="G41" s="3">
-        <v>1900</v>
+        <v>1700</v>
       </c>
       <c r="H41" s="3">
-        <v>6200</v>
+        <v>5300</v>
       </c>
       <c r="I41" s="3">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1686,22 +1686,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>21200</v>
+        <v>22300</v>
       </c>
       <c r="E42" s="3">
-        <v>48000</v>
+        <v>41500</v>
       </c>
       <c r="F42" s="3">
-        <v>30900</v>
+        <v>26700</v>
       </c>
       <c r="G42" s="3">
-        <v>6900</v>
+        <v>6000</v>
       </c>
       <c r="H42" s="3">
-        <v>16100</v>
+        <v>13900</v>
       </c>
       <c r="I42" s="3">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
@@ -1719,22 +1719,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>69200</v>
+        <v>138300</v>
       </c>
       <c r="E43" s="3">
-        <v>47600</v>
+        <v>41100</v>
       </c>
       <c r="F43" s="3">
-        <v>30100</v>
+        <v>26000</v>
       </c>
       <c r="G43" s="3">
-        <v>21000</v>
+        <v>18200</v>
       </c>
       <c r="H43" s="3">
-        <v>18100</v>
+        <v>15600</v>
       </c>
       <c r="I43" s="3">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1752,22 +1752,22 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>101800</v>
+        <v>195000</v>
       </c>
       <c r="E44" s="3">
-        <v>84500</v>
+        <v>73000</v>
       </c>
       <c r="F44" s="3">
-        <v>41400</v>
+        <v>35700</v>
       </c>
       <c r="G44" s="3">
-        <v>32900</v>
+        <v>28400</v>
       </c>
       <c r="H44" s="3">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="I44" s="3">
-        <v>17400</v>
+        <v>15000</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
@@ -1785,22 +1785,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>5600</v>
+        <v>4800</v>
       </c>
       <c r="E45" s="3">
-        <v>2500</v>
+        <v>2100</v>
       </c>
       <c r="F45" s="3">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="G45" s="3">
+        <v>500</v>
+      </c>
+      <c r="H45" s="3">
         <v>600</v>
       </c>
-      <c r="H45" s="3">
-        <v>700</v>
-      </c>
       <c r="I45" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1818,22 +1818,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>201000</v>
+        <v>211400</v>
       </c>
       <c r="E46" s="3">
-        <v>185900</v>
+        <v>160500</v>
       </c>
       <c r="F46" s="3">
-        <v>106000</v>
+        <v>91600</v>
       </c>
       <c r="G46" s="3">
-        <v>61700</v>
+        <v>53300</v>
       </c>
       <c r="H46" s="3">
-        <v>70100</v>
+        <v>60500</v>
       </c>
       <c r="I46" s="3">
-        <v>50500</v>
+        <v>43600</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1851,22 +1851,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5600</v>
+        <v>5900</v>
       </c>
       <c r="E47" s="3">
-        <v>6800</v>
+        <v>5900</v>
       </c>
       <c r="F47" s="3">
-        <v>3600</v>
+        <v>3200</v>
       </c>
       <c r="G47" s="3">
-        <v>33900</v>
+        <v>29300</v>
       </c>
       <c r="H47" s="3">
-        <v>7300</v>
+        <v>6300</v>
       </c>
       <c r="I47" s="3">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -1884,22 +1884,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>771100</v>
+        <v>1472200</v>
       </c>
       <c r="E48" s="3">
-        <v>793200</v>
+        <v>685100</v>
       </c>
       <c r="F48" s="3">
-        <v>406800</v>
+        <v>351300</v>
       </c>
       <c r="G48" s="3">
-        <v>495800</v>
+        <v>428200</v>
       </c>
       <c r="H48" s="3">
-        <v>318300</v>
+        <v>274900</v>
       </c>
       <c r="I48" s="3">
-        <v>121200</v>
+        <v>104700</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -1917,22 +1917,22 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E49" s="3">
         <v>2900</v>
       </c>
-      <c r="E49" s="3">
-        <v>3300</v>
-      </c>
       <c r="F49" s="3">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="G49" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="H49" s="3">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="I49" s="3">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -2016,22 +2016,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>31800</v>
+        <v>33500</v>
       </c>
       <c r="E52" s="3">
-        <v>30000</v>
+        <v>25900</v>
       </c>
       <c r="F52" s="3">
-        <v>16200</v>
+        <v>14000</v>
       </c>
       <c r="G52" s="3">
-        <v>10200</v>
+        <v>8800</v>
       </c>
       <c r="H52" s="3">
-        <v>5200</v>
+        <v>4500</v>
       </c>
       <c r="I52" s="3">
-        <v>3200</v>
+        <v>2800</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2082,22 +2082,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1012400</v>
+        <v>1064500</v>
       </c>
       <c r="E54" s="3">
-        <v>1019200</v>
+        <v>880300</v>
       </c>
       <c r="F54" s="3">
-        <v>534400</v>
+        <v>461500</v>
       </c>
       <c r="G54" s="3">
-        <v>377900</v>
+        <v>326400</v>
       </c>
       <c r="H54" s="3">
-        <v>252300</v>
+        <v>217900</v>
       </c>
       <c r="I54" s="3">
-        <v>147300</v>
+        <v>127300</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2145,22 +2145,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>62500</v>
+        <v>146800</v>
       </c>
       <c r="E57" s="3">
-        <v>40100</v>
+        <v>34600</v>
       </c>
       <c r="F57" s="3">
-        <v>24100</v>
+        <v>20800</v>
       </c>
       <c r="G57" s="3">
-        <v>12500</v>
+        <v>10800</v>
       </c>
       <c r="H57" s="3">
-        <v>15900</v>
+        <v>13700</v>
       </c>
       <c r="I57" s="3">
-        <v>9100</v>
+        <v>7900</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2178,22 +2178,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>55800</v>
+        <v>58600</v>
       </c>
       <c r="E58" s="3">
-        <v>21300</v>
+        <v>18400</v>
       </c>
       <c r="F58" s="3">
-        <v>35500</v>
+        <v>30700</v>
       </c>
       <c r="G58" s="3">
-        <v>35500</v>
+        <v>30600</v>
       </c>
       <c r="H58" s="3">
-        <v>26100</v>
+        <v>22500</v>
       </c>
       <c r="I58" s="3">
-        <v>13000</v>
+        <v>11200</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2211,22 +2211,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>90100</v>
+        <v>89900</v>
       </c>
       <c r="E59" s="3">
-        <v>100300</v>
+        <v>86600</v>
       </c>
       <c r="F59" s="3">
-        <v>55500</v>
+        <v>47900</v>
       </c>
       <c r="G59" s="3">
-        <v>58600</v>
+        <v>50600</v>
       </c>
       <c r="H59" s="3">
-        <v>33500</v>
+        <v>28900</v>
       </c>
       <c r="I59" s="3">
-        <v>19400</v>
+        <v>16800</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2244,22 +2244,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>208300</v>
+        <v>219000</v>
       </c>
       <c r="E60" s="3">
-        <v>161700</v>
+        <v>139700</v>
       </c>
       <c r="F60" s="3">
-        <v>115100</v>
+        <v>99400</v>
       </c>
       <c r="G60" s="3">
-        <v>106500</v>
+        <v>92000</v>
       </c>
       <c r="H60" s="3">
-        <v>75500</v>
+        <v>65200</v>
       </c>
       <c r="I60" s="3">
-        <v>40300</v>
+        <v>34800</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2277,22 +2277,22 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>53200</v>
+        <v>55900</v>
       </c>
       <c r="E61" s="3">
-        <v>6200</v>
+        <v>5300</v>
       </c>
       <c r="F61" s="3">
-        <v>17000</v>
+        <v>14700</v>
       </c>
       <c r="G61" s="3">
-        <v>30100</v>
+        <v>26000</v>
       </c>
       <c r="H61" s="3">
-        <v>20000</v>
+        <v>17300</v>
       </c>
       <c r="I61" s="3">
-        <v>19200</v>
+        <v>16600</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2310,22 +2310,22 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>172300</v>
+        <v>186800</v>
       </c>
       <c r="E62" s="3">
-        <v>146500</v>
+        <v>126500</v>
       </c>
       <c r="F62" s="3">
-        <v>60400</v>
+        <v>52100</v>
       </c>
       <c r="G62" s="3">
-        <v>42000</v>
+        <v>36300</v>
       </c>
       <c r="H62" s="3">
-        <v>29700</v>
+        <v>25700</v>
       </c>
       <c r="I62" s="3">
-        <v>17300</v>
+        <v>14900</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2442,22 +2442,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>434800</v>
+        <v>457200</v>
       </c>
       <c r="E66" s="3">
-        <v>316000</v>
+        <v>272900</v>
       </c>
       <c r="F66" s="3">
-        <v>194500</v>
+        <v>168000</v>
       </c>
       <c r="G66" s="3">
-        <v>193800</v>
+        <v>167400</v>
       </c>
       <c r="H66" s="3">
-        <v>135800</v>
+        <v>117300</v>
       </c>
       <c r="I66" s="3">
-        <v>81800</v>
+        <v>70600</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2622,22 +2622,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>388300</v>
+        <v>408300</v>
       </c>
       <c r="E72" s="3">
-        <v>505200</v>
+        <v>436400</v>
       </c>
       <c r="F72" s="3">
-        <v>226500</v>
+        <v>195600</v>
       </c>
       <c r="G72" s="3">
-        <v>106700</v>
+        <v>92200</v>
       </c>
       <c r="H72" s="3">
-        <v>59200</v>
+        <v>51200</v>
       </c>
       <c r="I72" s="3">
-        <v>29500</v>
+        <v>25500</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2754,22 +2754,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>577600</v>
+        <v>607300</v>
       </c>
       <c r="E76" s="3">
-        <v>703200</v>
+        <v>607400</v>
       </c>
       <c r="F76" s="3">
-        <v>339800</v>
+        <v>293500</v>
       </c>
       <c r="G76" s="3">
-        <v>184100</v>
+        <v>159000</v>
       </c>
       <c r="H76" s="3">
-        <v>116500</v>
+        <v>100600</v>
       </c>
       <c r="I76" s="3">
-        <v>65600</v>
+        <v>56600</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -2858,22 +2858,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>9700</v>
+        <v>8400</v>
       </c>
       <c r="E81" s="3">
-        <v>64000</v>
+        <v>55300</v>
       </c>
       <c r="F81" s="3">
-        <v>85500</v>
+        <v>73800</v>
       </c>
       <c r="G81" s="3">
-        <v>26100</v>
+        <v>22500</v>
       </c>
       <c r="H81" s="3">
-        <v>13800</v>
+        <v>11900</v>
       </c>
       <c r="I81" s="3">
-        <v>17500</v>
+        <v>15100</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -2906,22 +2906,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>66300</v>
+        <v>57200</v>
       </c>
       <c r="E83" s="3">
-        <v>57900</v>
+        <v>50000</v>
       </c>
       <c r="F83" s="3">
-        <v>30000</v>
+        <v>25900</v>
       </c>
       <c r="G83" s="3">
-        <v>18200</v>
+        <v>15800</v>
       </c>
       <c r="H83" s="3">
-        <v>16300</v>
+        <v>14100</v>
       </c>
       <c r="I83" s="3">
-        <v>8700</v>
+        <v>7500</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -3104,22 +3104,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>138400</v>
+        <v>119600</v>
       </c>
       <c r="E89" s="3">
-        <v>128200</v>
+        <v>110700</v>
       </c>
       <c r="F89" s="3">
-        <v>110600</v>
+        <v>95600</v>
       </c>
       <c r="G89" s="3">
-        <v>45400</v>
+        <v>39200</v>
       </c>
       <c r="H89" s="3">
-        <v>31300</v>
+        <v>27100</v>
       </c>
       <c r="I89" s="3">
-        <v>25100</v>
+        <v>21700</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3152,22 +3152,22 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-50900</v>
+        <v>-44000</v>
       </c>
       <c r="E91" s="3">
-        <v>-68900</v>
+        <v>-59500</v>
       </c>
       <c r="F91" s="3">
-        <v>-72600</v>
+        <v>-62700</v>
       </c>
       <c r="G91" s="3">
-        <v>-79600</v>
+        <v>-68700</v>
       </c>
       <c r="H91" s="3">
-        <v>-31900</v>
+        <v>-27600</v>
       </c>
       <c r="I91" s="3">
-        <v>-11100</v>
+        <v>-9600</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -3251,22 +3251,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-23500</v>
+        <v>-20300</v>
       </c>
       <c r="E94" s="3">
-        <v>-86000</v>
+        <v>-74300</v>
       </c>
       <c r="F94" s="3">
-        <v>-10800</v>
+        <v>-9300</v>
       </c>
       <c r="G94" s="3">
-        <v>-79700</v>
+        <v>-68800</v>
       </c>
       <c r="H94" s="3">
-        <v>-32400</v>
+        <v>-28000</v>
       </c>
       <c r="I94" s="3">
-        <v>-11100</v>
+        <v>-9600</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3299,13 +3299,13 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-108800</v>
+        <v>-94000</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-20100</v>
+        <v>-17300</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-3800</v>
+        <v>-3300</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -3431,22 +3431,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-123700</v>
+        <v>-106800</v>
       </c>
       <c r="E100" s="3">
-        <v>-85100</v>
+        <v>-73500</v>
       </c>
       <c r="F100" s="3">
-        <v>-79100</v>
+        <v>-68300</v>
       </c>
       <c r="G100" s="3">
-        <v>17500</v>
+        <v>15100</v>
       </c>
       <c r="H100" s="3">
-        <v>-18300</v>
+        <v>-15800</v>
       </c>
       <c r="I100" s="3">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3464,19 +3464,19 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>9400</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G101" s="3">
         <v>1100</v>
       </c>
-      <c r="E101" s="3">
-        <v>10900</v>
-      </c>
-      <c r="F101" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="G101" s="3">
-        <v>1300</v>
-      </c>
       <c r="H101" s="3">
-        <v>5700</v>
+        <v>4900</v>
       </c>
       <c r="I101" s="3">
         <v>500</v>
@@ -3497,22 +3497,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-7600</v>
+        <v>-6600</v>
       </c>
       <c r="E102" s="3">
-        <v>-32100</v>
+        <v>-27700</v>
       </c>
       <c r="F102" s="3">
-        <v>19600</v>
+        <v>16900</v>
       </c>
       <c r="G102" s="3">
-        <v>-15500</v>
+        <v>-13400</v>
       </c>
       <c r="H102" s="3">
-        <v>-13800</v>
+        <v>-11900</v>
       </c>
       <c r="I102" s="3">
-        <v>16000</v>
+        <v>13900</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/LOMA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/LOMA_YR_FIN.xlsx
@@ -718,22 +718,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>625500</v>
+        <v>415100</v>
       </c>
       <c r="E8" s="3">
-        <v>618500</v>
+        <v>410400</v>
       </c>
       <c r="F8" s="3">
-        <v>270800</v>
+        <v>179700</v>
       </c>
       <c r="G8" s="3">
-        <v>205800</v>
+        <v>136600</v>
       </c>
       <c r="H8" s="3">
-        <v>177700</v>
+        <v>117900</v>
       </c>
       <c r="I8" s="3">
-        <v>107100</v>
+        <v>71000</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -751,22 +751,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>456600</v>
+        <v>303000</v>
       </c>
       <c r="E9" s="3">
-        <v>423000</v>
+        <v>280700</v>
       </c>
       <c r="F9" s="3">
-        <v>188800</v>
+        <v>125300</v>
       </c>
       <c r="G9" s="3">
-        <v>150800</v>
+        <v>100000</v>
       </c>
       <c r="H9" s="3">
-        <v>143300</v>
+        <v>95100</v>
       </c>
       <c r="I9" s="3">
-        <v>79800</v>
+        <v>52900</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -784,22 +784,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>168900</v>
+        <v>112100</v>
       </c>
       <c r="E10" s="3">
-        <v>195500</v>
+        <v>129700</v>
       </c>
       <c r="F10" s="3">
-        <v>82000</v>
+        <v>54400</v>
       </c>
       <c r="G10" s="3">
-        <v>55100</v>
+        <v>36500</v>
       </c>
       <c r="H10" s="3">
-        <v>34400</v>
+        <v>22800</v>
       </c>
       <c r="I10" s="3">
-        <v>27300</v>
+        <v>18100</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -898,13 +898,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1600</v>
+        <v>1100</v>
       </c>
       <c r="E14" s="3">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="F14" s="3">
-        <v>6400</v>
+        <v>4200</v>
       </c>
       <c r="G14" s="3">
         <v>200</v>
@@ -931,22 +931,22 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>3500</v>
+        <v>2300</v>
       </c>
       <c r="E15" s="3">
-        <v>3100</v>
+        <v>2100</v>
       </c>
       <c r="F15" s="3">
-        <v>1900</v>
+        <v>1200</v>
       </c>
       <c r="G15" s="3">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="H15" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>3</v>
@@ -976,22 +976,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>502200</v>
+        <v>333200</v>
       </c>
       <c r="E17" s="3">
-        <v>481900</v>
+        <v>319800</v>
       </c>
       <c r="F17" s="3">
-        <v>222300</v>
+        <v>147500</v>
       </c>
       <c r="G17" s="3">
-        <v>168100</v>
+        <v>111500</v>
       </c>
       <c r="H17" s="3">
-        <v>146300</v>
+        <v>97100</v>
       </c>
       <c r="I17" s="3">
-        <v>89100</v>
+        <v>59100</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1009,22 +1009,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>123300</v>
+        <v>81800</v>
       </c>
       <c r="E18" s="3">
-        <v>136600</v>
+        <v>90600</v>
       </c>
       <c r="F18" s="3">
-        <v>48500</v>
+        <v>32200</v>
       </c>
       <c r="G18" s="3">
-        <v>37700</v>
+        <v>25000</v>
       </c>
       <c r="H18" s="3">
-        <v>31500</v>
+        <v>20900</v>
       </c>
       <c r="I18" s="3">
-        <v>18000</v>
+        <v>11900</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1057,22 +1057,22 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-50900</v>
+        <v>-33800</v>
       </c>
       <c r="E20" s="3">
-        <v>4900</v>
+        <v>3300</v>
       </c>
       <c r="F20" s="3">
-        <v>9800</v>
+        <v>6500</v>
       </c>
       <c r="G20" s="3">
-        <v>-3500</v>
+        <v>-2300</v>
       </c>
       <c r="H20" s="3">
-        <v>-8500</v>
+        <v>-5600</v>
       </c>
       <c r="I20" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1090,22 +1090,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>129800</v>
+        <v>86000</v>
       </c>
       <c r="E21" s="3">
-        <v>191700</v>
+        <v>127100</v>
       </c>
       <c r="F21" s="3">
-        <v>84300</v>
+        <v>55900</v>
       </c>
       <c r="G21" s="3">
-        <v>50100</v>
+        <v>33200</v>
       </c>
       <c r="H21" s="3">
-        <v>37100</v>
+        <v>24600</v>
       </c>
       <c r="I21" s="3">
-        <v>26000</v>
+        <v>17200</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1123,22 +1123,22 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>25000</v>
+        <v>16600</v>
       </c>
       <c r="E22" s="3">
-        <v>4600</v>
+        <v>3000</v>
       </c>
       <c r="F22" s="3">
-        <v>2900</v>
+        <v>1900</v>
       </c>
       <c r="G22" s="3">
-        <v>5500</v>
+        <v>3600</v>
       </c>
       <c r="H22" s="3">
-        <v>2600</v>
+        <v>1700</v>
       </c>
       <c r="I22" s="3">
-        <v>1600</v>
+        <v>1100</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
@@ -1156,22 +1156,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>47400</v>
+        <v>31500</v>
       </c>
       <c r="E23" s="3">
-        <v>136900</v>
+        <v>90900</v>
       </c>
       <c r="F23" s="3">
-        <v>55400</v>
+        <v>36800</v>
       </c>
       <c r="G23" s="3">
-        <v>28800</v>
+        <v>19100</v>
       </c>
       <c r="H23" s="3">
-        <v>20400</v>
+        <v>13600</v>
       </c>
       <c r="I23" s="3">
-        <v>16800</v>
+        <v>11200</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1189,22 +1189,22 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>39600</v>
+        <v>26300</v>
       </c>
       <c r="E24" s="3">
-        <v>83700</v>
+        <v>55500</v>
       </c>
       <c r="F24" s="3">
-        <v>14700</v>
+        <v>9800</v>
       </c>
       <c r="G24" s="3">
-        <v>9500</v>
+        <v>6300</v>
       </c>
       <c r="H24" s="3">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="I24" s="3">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
@@ -1255,22 +1255,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>7800</v>
+        <v>5200</v>
       </c>
       <c r="E26" s="3">
-        <v>53300</v>
+        <v>35300</v>
       </c>
       <c r="F26" s="3">
-        <v>40700</v>
+        <v>27000</v>
       </c>
       <c r="G26" s="3">
-        <v>19300</v>
+        <v>12800</v>
       </c>
       <c r="H26" s="3">
-        <v>12900</v>
+        <v>8600</v>
       </c>
       <c r="I26" s="3">
-        <v>15900</v>
+        <v>10500</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1288,22 +1288,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>8400</v>
+        <v>5500</v>
       </c>
       <c r="E27" s="3">
-        <v>55300</v>
+        <v>36700</v>
       </c>
       <c r="F27" s="3">
-        <v>40500</v>
+        <v>26900</v>
       </c>
       <c r="G27" s="3">
-        <v>18100</v>
+        <v>12000</v>
       </c>
       <c r="H27" s="3">
-        <v>11900</v>
+        <v>7900</v>
       </c>
       <c r="I27" s="3">
-        <v>15100</v>
+        <v>10000</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1360,10 +1360,10 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>33400</v>
+        <v>22100</v>
       </c>
       <c r="G29" s="3">
-        <v>4400</v>
+        <v>2900</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>3</v>
@@ -1453,22 +1453,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>50900</v>
+        <v>33800</v>
       </c>
       <c r="E32" s="3">
-        <v>-4900</v>
+        <v>-3300</v>
       </c>
       <c r="F32" s="3">
-        <v>-9800</v>
+        <v>-6500</v>
       </c>
       <c r="G32" s="3">
-        <v>3500</v>
+        <v>2300</v>
       </c>
       <c r="H32" s="3">
-        <v>8500</v>
+        <v>5600</v>
       </c>
       <c r="I32" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1486,22 +1486,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>8400</v>
+        <v>5500</v>
       </c>
       <c r="E33" s="3">
-        <v>55300</v>
+        <v>36700</v>
       </c>
       <c r="F33" s="3">
-        <v>73800</v>
+        <v>49000</v>
       </c>
       <c r="G33" s="3">
-        <v>22500</v>
+        <v>14900</v>
       </c>
       <c r="H33" s="3">
-        <v>11900</v>
+        <v>7900</v>
       </c>
       <c r="I33" s="3">
-        <v>15100</v>
+        <v>10000</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1552,22 +1552,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>8400</v>
+        <v>5500</v>
       </c>
       <c r="E35" s="3">
-        <v>55300</v>
+        <v>36700</v>
       </c>
       <c r="F35" s="3">
-        <v>73800</v>
+        <v>49000</v>
       </c>
       <c r="G35" s="3">
-        <v>22500</v>
+        <v>14900</v>
       </c>
       <c r="H35" s="3">
-        <v>11900</v>
+        <v>7900</v>
       </c>
       <c r="I35" s="3">
-        <v>15100</v>
+        <v>10000</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1653,22 +1653,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F41" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G41" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H41" s="3">
         <v>3500</v>
       </c>
-      <c r="E41" s="3">
-        <v>2800</v>
-      </c>
-      <c r="F41" s="3">
-        <v>1700</v>
-      </c>
-      <c r="G41" s="3">
-        <v>1700</v>
-      </c>
-      <c r="H41" s="3">
-        <v>5300</v>
-      </c>
       <c r="I41" s="3">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1686,22 +1686,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>22300</v>
+        <v>12100</v>
       </c>
       <c r="E42" s="3">
-        <v>41500</v>
+        <v>27500</v>
       </c>
       <c r="F42" s="3">
-        <v>26700</v>
+        <v>17700</v>
       </c>
       <c r="G42" s="3">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="H42" s="3">
-        <v>13900</v>
+        <v>9200</v>
       </c>
       <c r="I42" s="3">
-        <v>19000</v>
+        <v>12600</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
@@ -1719,22 +1719,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>138300</v>
+        <v>39600</v>
       </c>
       <c r="E43" s="3">
-        <v>41100</v>
+        <v>27300</v>
       </c>
       <c r="F43" s="3">
-        <v>26000</v>
+        <v>17300</v>
       </c>
       <c r="G43" s="3">
-        <v>18200</v>
+        <v>12100</v>
       </c>
       <c r="H43" s="3">
-        <v>15600</v>
+        <v>10400</v>
       </c>
       <c r="I43" s="3">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1752,22 +1752,22 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>195000</v>
+        <v>58400</v>
       </c>
       <c r="E44" s="3">
-        <v>73000</v>
+        <v>48500</v>
       </c>
       <c r="F44" s="3">
-        <v>35700</v>
+        <v>23700</v>
       </c>
       <c r="G44" s="3">
-        <v>28400</v>
+        <v>18900</v>
       </c>
       <c r="H44" s="3">
-        <v>25000</v>
+        <v>16600</v>
       </c>
       <c r="I44" s="3">
-        <v>15000</v>
+        <v>9900</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
@@ -1785,22 +1785,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>4800</v>
+        <v>3200</v>
       </c>
       <c r="E45" s="3">
-        <v>2100</v>
+        <v>1400</v>
       </c>
       <c r="F45" s="3">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="G45" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H45" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="I45" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1818,22 +1818,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>211400</v>
+        <v>115200</v>
       </c>
       <c r="E46" s="3">
-        <v>160500</v>
+        <v>106500</v>
       </c>
       <c r="F46" s="3">
-        <v>91600</v>
+        <v>60800</v>
       </c>
       <c r="G46" s="3">
-        <v>53300</v>
+        <v>35400</v>
       </c>
       <c r="H46" s="3">
-        <v>60500</v>
+        <v>40200</v>
       </c>
       <c r="I46" s="3">
-        <v>43600</v>
+        <v>28900</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1851,22 +1851,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5900</v>
+        <v>3200</v>
       </c>
       <c r="E47" s="3">
-        <v>5900</v>
+        <v>3900</v>
       </c>
       <c r="F47" s="3">
-        <v>3200</v>
+        <v>2100</v>
       </c>
       <c r="G47" s="3">
-        <v>29300</v>
+        <v>19400</v>
       </c>
       <c r="H47" s="3">
-        <v>6300</v>
+        <v>4200</v>
       </c>
       <c r="I47" s="3">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -1884,22 +1884,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1472200</v>
+        <v>441900</v>
       </c>
       <c r="E48" s="3">
-        <v>685100</v>
+        <v>454600</v>
       </c>
       <c r="F48" s="3">
-        <v>351300</v>
+        <v>233100</v>
       </c>
       <c r="G48" s="3">
-        <v>428200</v>
+        <v>284100</v>
       </c>
       <c r="H48" s="3">
-        <v>274900</v>
+        <v>182400</v>
       </c>
       <c r="I48" s="3">
-        <v>104700</v>
+        <v>69500</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -1917,22 +1917,22 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3000</v>
+        <v>1600</v>
       </c>
       <c r="E49" s="3">
-        <v>2900</v>
+        <v>1900</v>
       </c>
       <c r="F49" s="3">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G49" s="3">
+        <v>600</v>
+      </c>
+      <c r="H49" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I49" s="3">
         <v>900</v>
-      </c>
-      <c r="H49" s="3">
-        <v>1600</v>
-      </c>
-      <c r="I49" s="3">
-        <v>1400</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -2016,22 +2016,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>33500</v>
+        <v>18200</v>
       </c>
       <c r="E52" s="3">
-        <v>25900</v>
+        <v>17200</v>
       </c>
       <c r="F52" s="3">
-        <v>14000</v>
+        <v>9300</v>
       </c>
       <c r="G52" s="3">
-        <v>8800</v>
+        <v>5800</v>
       </c>
       <c r="H52" s="3">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="I52" s="3">
-        <v>2800</v>
+        <v>1800</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2082,22 +2082,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1064500</v>
+        <v>580300</v>
       </c>
       <c r="E54" s="3">
-        <v>880300</v>
+        <v>584100</v>
       </c>
       <c r="F54" s="3">
-        <v>461500</v>
+        <v>306300</v>
       </c>
       <c r="G54" s="3">
-        <v>326400</v>
+        <v>216600</v>
       </c>
       <c r="H54" s="3">
-        <v>217900</v>
+        <v>144600</v>
       </c>
       <c r="I54" s="3">
-        <v>127300</v>
+        <v>84400</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2145,22 +2145,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>146800</v>
+        <v>35800</v>
       </c>
       <c r="E57" s="3">
-        <v>34600</v>
+        <v>23000</v>
       </c>
       <c r="F57" s="3">
-        <v>20800</v>
+        <v>13800</v>
       </c>
       <c r="G57" s="3">
-        <v>10800</v>
+        <v>7200</v>
       </c>
       <c r="H57" s="3">
-        <v>13700</v>
+        <v>9100</v>
       </c>
       <c r="I57" s="3">
-        <v>7900</v>
+        <v>5200</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2178,22 +2178,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>58600</v>
+        <v>32000</v>
       </c>
       <c r="E58" s="3">
-        <v>18400</v>
+        <v>12200</v>
       </c>
       <c r="F58" s="3">
-        <v>30700</v>
+        <v>20300</v>
       </c>
       <c r="G58" s="3">
-        <v>30600</v>
+        <v>20300</v>
       </c>
       <c r="H58" s="3">
-        <v>22500</v>
+        <v>14900</v>
       </c>
       <c r="I58" s="3">
-        <v>11200</v>
+        <v>7400</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2211,22 +2211,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>89900</v>
+        <v>51600</v>
       </c>
       <c r="E59" s="3">
-        <v>86600</v>
+        <v>57500</v>
       </c>
       <c r="F59" s="3">
-        <v>47900</v>
+        <v>31800</v>
       </c>
       <c r="G59" s="3">
-        <v>50600</v>
+        <v>33600</v>
       </c>
       <c r="H59" s="3">
-        <v>28900</v>
+        <v>19200</v>
       </c>
       <c r="I59" s="3">
-        <v>16800</v>
+        <v>11100</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2244,22 +2244,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>219000</v>
+        <v>119400</v>
       </c>
       <c r="E60" s="3">
-        <v>139700</v>
+        <v>92700</v>
       </c>
       <c r="F60" s="3">
-        <v>99400</v>
+        <v>66000</v>
       </c>
       <c r="G60" s="3">
-        <v>92000</v>
+        <v>61100</v>
       </c>
       <c r="H60" s="3">
-        <v>65200</v>
+        <v>43300</v>
       </c>
       <c r="I60" s="3">
-        <v>34800</v>
+        <v>23100</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2277,22 +2277,22 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>55900</v>
+        <v>30500</v>
       </c>
       <c r="E61" s="3">
-        <v>5300</v>
+        <v>3500</v>
       </c>
       <c r="F61" s="3">
-        <v>14700</v>
+        <v>9800</v>
       </c>
       <c r="G61" s="3">
-        <v>26000</v>
+        <v>17200</v>
       </c>
       <c r="H61" s="3">
-        <v>17300</v>
+        <v>11500</v>
       </c>
       <c r="I61" s="3">
-        <v>16600</v>
+        <v>11000</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2310,22 +2310,22 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>186800</v>
+        <v>98800</v>
       </c>
       <c r="E62" s="3">
-        <v>126500</v>
+        <v>84000</v>
       </c>
       <c r="F62" s="3">
-        <v>52100</v>
+        <v>34600</v>
       </c>
       <c r="G62" s="3">
-        <v>36300</v>
+        <v>24100</v>
       </c>
       <c r="H62" s="3">
-        <v>25700</v>
+        <v>17000</v>
       </c>
       <c r="I62" s="3">
-        <v>14900</v>
+        <v>9900</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2442,22 +2442,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>457200</v>
+        <v>249200</v>
       </c>
       <c r="E66" s="3">
-        <v>272900</v>
+        <v>181100</v>
       </c>
       <c r="F66" s="3">
-        <v>168000</v>
+        <v>111500</v>
       </c>
       <c r="G66" s="3">
-        <v>167400</v>
+        <v>111100</v>
       </c>
       <c r="H66" s="3">
-        <v>117300</v>
+        <v>77800</v>
       </c>
       <c r="I66" s="3">
-        <v>70600</v>
+        <v>46900</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2622,22 +2622,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>408300</v>
+        <v>222500</v>
       </c>
       <c r="E72" s="3">
-        <v>436400</v>
+        <v>289600</v>
       </c>
       <c r="F72" s="3">
-        <v>195600</v>
+        <v>129800</v>
       </c>
       <c r="G72" s="3">
-        <v>92200</v>
+        <v>61200</v>
       </c>
       <c r="H72" s="3">
-        <v>51200</v>
+        <v>34000</v>
       </c>
       <c r="I72" s="3">
-        <v>25500</v>
+        <v>16900</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2754,22 +2754,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>607300</v>
+        <v>331100</v>
       </c>
       <c r="E76" s="3">
-        <v>607400</v>
+        <v>403000</v>
       </c>
       <c r="F76" s="3">
-        <v>293500</v>
+        <v>194800</v>
       </c>
       <c r="G76" s="3">
-        <v>159000</v>
+        <v>105500</v>
       </c>
       <c r="H76" s="3">
-        <v>100600</v>
+        <v>66800</v>
       </c>
       <c r="I76" s="3">
-        <v>56600</v>
+        <v>37600</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -2858,22 +2858,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>8400</v>
+        <v>5500</v>
       </c>
       <c r="E81" s="3">
-        <v>55300</v>
+        <v>36700</v>
       </c>
       <c r="F81" s="3">
-        <v>73800</v>
+        <v>49000</v>
       </c>
       <c r="G81" s="3">
-        <v>22500</v>
+        <v>14900</v>
       </c>
       <c r="H81" s="3">
-        <v>11900</v>
+        <v>7900</v>
       </c>
       <c r="I81" s="3">
-        <v>15100</v>
+        <v>10000</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -2906,22 +2906,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>57200</v>
+        <v>38000</v>
       </c>
       <c r="E83" s="3">
-        <v>50000</v>
+        <v>33200</v>
       </c>
       <c r="F83" s="3">
-        <v>25900</v>
+        <v>17200</v>
       </c>
       <c r="G83" s="3">
-        <v>15800</v>
+        <v>10500</v>
       </c>
       <c r="H83" s="3">
-        <v>14100</v>
+        <v>9300</v>
       </c>
       <c r="I83" s="3">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -3104,22 +3104,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>119600</v>
+        <v>79300</v>
       </c>
       <c r="E89" s="3">
-        <v>110700</v>
+        <v>73500</v>
       </c>
       <c r="F89" s="3">
-        <v>95600</v>
+        <v>63400</v>
       </c>
       <c r="G89" s="3">
-        <v>39200</v>
+        <v>26000</v>
       </c>
       <c r="H89" s="3">
-        <v>27100</v>
+        <v>18000</v>
       </c>
       <c r="I89" s="3">
-        <v>21700</v>
+        <v>14400</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3152,22 +3152,22 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-44000</v>
+        <v>-29200</v>
       </c>
       <c r="E91" s="3">
-        <v>-59500</v>
+        <v>-39500</v>
       </c>
       <c r="F91" s="3">
-        <v>-62700</v>
+        <v>-41600</v>
       </c>
       <c r="G91" s="3">
-        <v>-68700</v>
+        <v>-45600</v>
       </c>
       <c r="H91" s="3">
-        <v>-27600</v>
+        <v>-18300</v>
       </c>
       <c r="I91" s="3">
-        <v>-9600</v>
+        <v>-6300</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -3251,22 +3251,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-20300</v>
+        <v>-13500</v>
       </c>
       <c r="E94" s="3">
-        <v>-74300</v>
+        <v>-49300</v>
       </c>
       <c r="F94" s="3">
-        <v>-9300</v>
+        <v>-6200</v>
       </c>
       <c r="G94" s="3">
-        <v>-68800</v>
+        <v>-45700</v>
       </c>
       <c r="H94" s="3">
-        <v>-28000</v>
+        <v>-18600</v>
       </c>
       <c r="I94" s="3">
-        <v>-9600</v>
+        <v>-6400</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3299,13 +3299,13 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-94000</v>
+        <v>-62400</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-17300</v>
+        <v>-11500</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-3300</v>
+        <v>-2200</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -3431,22 +3431,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-106800</v>
+        <v>-70900</v>
       </c>
       <c r="E100" s="3">
-        <v>-73500</v>
+        <v>-48800</v>
       </c>
       <c r="F100" s="3">
-        <v>-68300</v>
+        <v>-45300</v>
       </c>
       <c r="G100" s="3">
-        <v>15100</v>
+        <v>10000</v>
       </c>
       <c r="H100" s="3">
-        <v>-15800</v>
+        <v>-10500</v>
       </c>
       <c r="I100" s="3">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3464,22 +3464,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="E101" s="3">
-        <v>9400</v>
+        <v>6200</v>
       </c>
       <c r="F101" s="3">
-        <v>-1000</v>
+        <v>-700</v>
       </c>
       <c r="G101" s="3">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="H101" s="3">
-        <v>4900</v>
+        <v>3300</v>
       </c>
       <c r="I101" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
@@ -3497,22 +3497,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-6600</v>
+        <v>-4400</v>
       </c>
       <c r="E102" s="3">
-        <v>-27700</v>
+        <v>-18400</v>
       </c>
       <c r="F102" s="3">
-        <v>16900</v>
+        <v>11200</v>
       </c>
       <c r="G102" s="3">
-        <v>-13400</v>
+        <v>-8900</v>
       </c>
       <c r="H102" s="3">
-        <v>-11900</v>
+        <v>-7900</v>
       </c>
       <c r="I102" s="3">
-        <v>13900</v>
+        <v>9200</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/LOMA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/LOMA_YR_FIN.xlsx
@@ -718,22 +718,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>415100</v>
+        <v>410700</v>
       </c>
       <c r="E8" s="3">
-        <v>410400</v>
+        <v>406100</v>
       </c>
       <c r="F8" s="3">
-        <v>179700</v>
+        <v>177800</v>
       </c>
       <c r="G8" s="3">
-        <v>136600</v>
+        <v>135100</v>
       </c>
       <c r="H8" s="3">
-        <v>117900</v>
+        <v>116700</v>
       </c>
       <c r="I8" s="3">
-        <v>71000</v>
+        <v>70300</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -751,22 +751,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>303000</v>
+        <v>299800</v>
       </c>
       <c r="E9" s="3">
-        <v>280700</v>
+        <v>277700</v>
       </c>
       <c r="F9" s="3">
-        <v>125300</v>
+        <v>124000</v>
       </c>
       <c r="G9" s="3">
-        <v>100000</v>
+        <v>99000</v>
       </c>
       <c r="H9" s="3">
-        <v>95100</v>
+        <v>94100</v>
       </c>
       <c r="I9" s="3">
-        <v>52900</v>
+        <v>52400</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -784,22 +784,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>112100</v>
+        <v>110900</v>
       </c>
       <c r="E10" s="3">
-        <v>129700</v>
+        <v>128400</v>
       </c>
       <c r="F10" s="3">
-        <v>54400</v>
+        <v>53800</v>
       </c>
       <c r="G10" s="3">
-        <v>36500</v>
+        <v>36100</v>
       </c>
       <c r="H10" s="3">
-        <v>22800</v>
+        <v>22600</v>
       </c>
       <c r="I10" s="3">
-        <v>18100</v>
+        <v>17900</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -934,7 +934,7 @@
         <v>2300</v>
       </c>
       <c r="E15" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="F15" s="3">
         <v>1200</v>
@@ -976,22 +976,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>333200</v>
+        <v>329800</v>
       </c>
       <c r="E17" s="3">
-        <v>319800</v>
+        <v>316400</v>
       </c>
       <c r="F17" s="3">
-        <v>147500</v>
+        <v>146000</v>
       </c>
       <c r="G17" s="3">
-        <v>111500</v>
+        <v>110400</v>
       </c>
       <c r="H17" s="3">
-        <v>97100</v>
+        <v>96000</v>
       </c>
       <c r="I17" s="3">
-        <v>59100</v>
+        <v>58500</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1009,22 +1009,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>81800</v>
+        <v>81000</v>
       </c>
       <c r="E18" s="3">
-        <v>90600</v>
+        <v>89700</v>
       </c>
       <c r="F18" s="3">
-        <v>32200</v>
+        <v>31800</v>
       </c>
       <c r="G18" s="3">
-        <v>25000</v>
+        <v>24800</v>
       </c>
       <c r="H18" s="3">
-        <v>20900</v>
+        <v>20700</v>
       </c>
       <c r="I18" s="3">
-        <v>11900</v>
+        <v>11800</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1057,10 +1057,10 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-33800</v>
+        <v>-33400</v>
       </c>
       <c r="E20" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="F20" s="3">
         <v>6500</v>
@@ -1090,22 +1090,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>86000</v>
+        <v>85200</v>
       </c>
       <c r="E21" s="3">
-        <v>127100</v>
+        <v>125900</v>
       </c>
       <c r="F21" s="3">
-        <v>55900</v>
+        <v>55400</v>
       </c>
       <c r="G21" s="3">
-        <v>33200</v>
+        <v>32900</v>
       </c>
       <c r="H21" s="3">
-        <v>24600</v>
+        <v>24400</v>
       </c>
       <c r="I21" s="3">
-        <v>17200</v>
+        <v>17100</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1123,7 +1123,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>16600</v>
+        <v>16400</v>
       </c>
       <c r="E22" s="3">
         <v>3000</v>
@@ -1156,22 +1156,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>31500</v>
+        <v>31100</v>
       </c>
       <c r="E23" s="3">
-        <v>90900</v>
+        <v>89900</v>
       </c>
       <c r="F23" s="3">
-        <v>36800</v>
+        <v>36400</v>
       </c>
       <c r="G23" s="3">
-        <v>19100</v>
+        <v>18900</v>
       </c>
       <c r="H23" s="3">
-        <v>13600</v>
+        <v>13400</v>
       </c>
       <c r="I23" s="3">
-        <v>11200</v>
+        <v>11000</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1189,19 +1189,19 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>26300</v>
+        <v>26000</v>
       </c>
       <c r="E24" s="3">
-        <v>55500</v>
+        <v>54900</v>
       </c>
       <c r="F24" s="3">
-        <v>9800</v>
+        <v>9700</v>
       </c>
       <c r="G24" s="3">
-        <v>6300</v>
+        <v>6200</v>
       </c>
       <c r="H24" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="I24" s="3">
         <v>600</v>
@@ -1255,22 +1255,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="E26" s="3">
-        <v>35300</v>
+        <v>35000</v>
       </c>
       <c r="F26" s="3">
-        <v>27000</v>
+        <v>26700</v>
       </c>
       <c r="G26" s="3">
-        <v>12800</v>
+        <v>12700</v>
       </c>
       <c r="H26" s="3">
-        <v>8600</v>
+        <v>8500</v>
       </c>
       <c r="I26" s="3">
-        <v>10500</v>
+        <v>10400</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1291,19 +1291,19 @@
         <v>5500</v>
       </c>
       <c r="E27" s="3">
-        <v>36700</v>
+        <v>36300</v>
       </c>
       <c r="F27" s="3">
-        <v>26900</v>
+        <v>26600</v>
       </c>
       <c r="G27" s="3">
-        <v>12000</v>
+        <v>11900</v>
       </c>
       <c r="H27" s="3">
-        <v>7900</v>
+        <v>7800</v>
       </c>
       <c r="I27" s="3">
-        <v>10000</v>
+        <v>9900</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1360,7 +1360,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>22100</v>
+        <v>21900</v>
       </c>
       <c r="G29" s="3">
         <v>2900</v>
@@ -1453,10 +1453,10 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>33800</v>
+        <v>33400</v>
       </c>
       <c r="E32" s="3">
-        <v>-3300</v>
+        <v>-3200</v>
       </c>
       <c r="F32" s="3">
         <v>-6500</v>
@@ -1489,19 +1489,19 @@
         <v>5500</v>
       </c>
       <c r="E33" s="3">
-        <v>36700</v>
+        <v>36300</v>
       </c>
       <c r="F33" s="3">
-        <v>49000</v>
+        <v>48500</v>
       </c>
       <c r="G33" s="3">
-        <v>14900</v>
+        <v>14800</v>
       </c>
       <c r="H33" s="3">
-        <v>7900</v>
+        <v>7800</v>
       </c>
       <c r="I33" s="3">
-        <v>10000</v>
+        <v>9900</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1555,19 +1555,19 @@
         <v>5500</v>
       </c>
       <c r="E35" s="3">
-        <v>36700</v>
+        <v>36300</v>
       </c>
       <c r="F35" s="3">
-        <v>49000</v>
+        <v>48500</v>
       </c>
       <c r="G35" s="3">
-        <v>14900</v>
+        <v>14800</v>
       </c>
       <c r="H35" s="3">
-        <v>7900</v>
+        <v>7800</v>
       </c>
       <c r="I35" s="3">
-        <v>10000</v>
+        <v>9900</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1659,7 +1659,7 @@
         <v>1800</v>
       </c>
       <c r="F41" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="G41" s="3">
         <v>1100</v>
@@ -1686,22 +1686,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>12100</v>
+        <v>12000</v>
       </c>
       <c r="E42" s="3">
-        <v>27500</v>
+        <v>27200</v>
       </c>
       <c r="F42" s="3">
-        <v>17700</v>
+        <v>17600</v>
       </c>
       <c r="G42" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="H42" s="3">
-        <v>9200</v>
+        <v>9100</v>
       </c>
       <c r="I42" s="3">
-        <v>12600</v>
+        <v>12500</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
@@ -1719,22 +1719,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>39600</v>
+        <v>39200</v>
       </c>
       <c r="E43" s="3">
-        <v>27300</v>
+        <v>27000</v>
       </c>
       <c r="F43" s="3">
-        <v>17300</v>
+        <v>17100</v>
       </c>
       <c r="G43" s="3">
-        <v>12100</v>
+        <v>11900</v>
       </c>
       <c r="H43" s="3">
-        <v>10400</v>
+        <v>10300</v>
       </c>
       <c r="I43" s="3">
-        <v>6000</v>
+        <v>5900</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1752,22 +1752,22 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>58400</v>
+        <v>57700</v>
       </c>
       <c r="E44" s="3">
-        <v>48500</v>
+        <v>47900</v>
       </c>
       <c r="F44" s="3">
-        <v>23700</v>
+        <v>23500</v>
       </c>
       <c r="G44" s="3">
-        <v>18900</v>
+        <v>18700</v>
       </c>
       <c r="H44" s="3">
-        <v>16600</v>
+        <v>16400</v>
       </c>
       <c r="I44" s="3">
-        <v>9900</v>
+        <v>9800</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
@@ -1785,7 +1785,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="E45" s="3">
         <v>1400</v>
@@ -1818,22 +1818,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>115200</v>
+        <v>114000</v>
       </c>
       <c r="E46" s="3">
-        <v>106500</v>
+        <v>105400</v>
       </c>
       <c r="F46" s="3">
-        <v>60800</v>
+        <v>60100</v>
       </c>
       <c r="G46" s="3">
-        <v>35400</v>
+        <v>35000</v>
       </c>
       <c r="H46" s="3">
-        <v>40200</v>
+        <v>39700</v>
       </c>
       <c r="I46" s="3">
-        <v>28900</v>
+        <v>28600</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1860,10 +1860,10 @@
         <v>2100</v>
       </c>
       <c r="G47" s="3">
-        <v>19400</v>
+        <v>19200</v>
       </c>
       <c r="H47" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="I47" s="3">
         <v>1000</v>
@@ -1884,22 +1884,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>441900</v>
+        <v>437300</v>
       </c>
       <c r="E48" s="3">
-        <v>454600</v>
+        <v>449900</v>
       </c>
       <c r="F48" s="3">
-        <v>233100</v>
+        <v>230700</v>
       </c>
       <c r="G48" s="3">
-        <v>284100</v>
+        <v>281200</v>
       </c>
       <c r="H48" s="3">
-        <v>182400</v>
+        <v>180500</v>
       </c>
       <c r="I48" s="3">
-        <v>69500</v>
+        <v>68700</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -2016,19 +2016,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>18200</v>
+        <v>18100</v>
       </c>
       <c r="E52" s="3">
-        <v>17200</v>
+        <v>17000</v>
       </c>
       <c r="F52" s="3">
-        <v>9300</v>
+        <v>9200</v>
       </c>
       <c r="G52" s="3">
         <v>5800</v>
       </c>
       <c r="H52" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="I52" s="3">
         <v>1800</v>
@@ -2082,22 +2082,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>580300</v>
+        <v>574200</v>
       </c>
       <c r="E54" s="3">
-        <v>584100</v>
+        <v>578000</v>
       </c>
       <c r="F54" s="3">
-        <v>306300</v>
+        <v>303100</v>
       </c>
       <c r="G54" s="3">
-        <v>216600</v>
+        <v>214300</v>
       </c>
       <c r="H54" s="3">
-        <v>144600</v>
+        <v>143100</v>
       </c>
       <c r="I54" s="3">
-        <v>84400</v>
+        <v>83600</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2145,19 +2145,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>35800</v>
+        <v>35400</v>
       </c>
       <c r="E57" s="3">
-        <v>23000</v>
+        <v>22700</v>
       </c>
       <c r="F57" s="3">
-        <v>13800</v>
+        <v>13700</v>
       </c>
       <c r="G57" s="3">
-        <v>7200</v>
+        <v>7100</v>
       </c>
       <c r="H57" s="3">
-        <v>9100</v>
+        <v>9000</v>
       </c>
       <c r="I57" s="3">
         <v>5200</v>
@@ -2178,19 +2178,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>32000</v>
+        <v>31600</v>
       </c>
       <c r="E58" s="3">
-        <v>12200</v>
+        <v>12100</v>
       </c>
       <c r="F58" s="3">
-        <v>20300</v>
+        <v>20100</v>
       </c>
       <c r="G58" s="3">
-        <v>20300</v>
+        <v>20100</v>
       </c>
       <c r="H58" s="3">
-        <v>14900</v>
+        <v>14800</v>
       </c>
       <c r="I58" s="3">
         <v>7400</v>
@@ -2211,22 +2211,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>51600</v>
+        <v>51100</v>
       </c>
       <c r="E59" s="3">
-        <v>57500</v>
+        <v>56900</v>
       </c>
       <c r="F59" s="3">
-        <v>31800</v>
+        <v>31500</v>
       </c>
       <c r="G59" s="3">
-        <v>33600</v>
+        <v>33200</v>
       </c>
       <c r="H59" s="3">
-        <v>19200</v>
+        <v>19000</v>
       </c>
       <c r="I59" s="3">
-        <v>11100</v>
+        <v>11000</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2244,22 +2244,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>119400</v>
+        <v>118100</v>
       </c>
       <c r="E60" s="3">
-        <v>92700</v>
+        <v>91700</v>
       </c>
       <c r="F60" s="3">
-        <v>66000</v>
+        <v>65300</v>
       </c>
       <c r="G60" s="3">
-        <v>61100</v>
+        <v>60400</v>
       </c>
       <c r="H60" s="3">
-        <v>43300</v>
+        <v>42800</v>
       </c>
       <c r="I60" s="3">
-        <v>23100</v>
+        <v>22900</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2277,22 +2277,22 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>30500</v>
+        <v>30200</v>
       </c>
       <c r="E61" s="3">
         <v>3500</v>
       </c>
       <c r="F61" s="3">
-        <v>9800</v>
+        <v>9700</v>
       </c>
       <c r="G61" s="3">
-        <v>17200</v>
+        <v>17100</v>
       </c>
       <c r="H61" s="3">
-        <v>11500</v>
+        <v>11400</v>
       </c>
       <c r="I61" s="3">
-        <v>11000</v>
+        <v>10900</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2310,22 +2310,22 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>98800</v>
+        <v>97700</v>
       </c>
       <c r="E62" s="3">
-        <v>84000</v>
+        <v>83100</v>
       </c>
       <c r="F62" s="3">
-        <v>34600</v>
+        <v>34200</v>
       </c>
       <c r="G62" s="3">
-        <v>24100</v>
+        <v>23800</v>
       </c>
       <c r="H62" s="3">
-        <v>17000</v>
+        <v>16900</v>
       </c>
       <c r="I62" s="3">
-        <v>9900</v>
+        <v>9800</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2442,22 +2442,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>249200</v>
+        <v>246600</v>
       </c>
       <c r="E66" s="3">
-        <v>181100</v>
+        <v>179200</v>
       </c>
       <c r="F66" s="3">
-        <v>111500</v>
+        <v>110300</v>
       </c>
       <c r="G66" s="3">
-        <v>111100</v>
+        <v>109900</v>
       </c>
       <c r="H66" s="3">
-        <v>77800</v>
+        <v>77000</v>
       </c>
       <c r="I66" s="3">
-        <v>46900</v>
+        <v>46400</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2622,22 +2622,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>222500</v>
+        <v>220200</v>
       </c>
       <c r="E72" s="3">
-        <v>289600</v>
+        <v>286500</v>
       </c>
       <c r="F72" s="3">
-        <v>129800</v>
+        <v>128500</v>
       </c>
       <c r="G72" s="3">
-        <v>61200</v>
+        <v>60500</v>
       </c>
       <c r="H72" s="3">
-        <v>34000</v>
+        <v>33600</v>
       </c>
       <c r="I72" s="3">
-        <v>16900</v>
+        <v>16700</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2754,22 +2754,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>331100</v>
+        <v>327600</v>
       </c>
       <c r="E76" s="3">
-        <v>403000</v>
+        <v>398800</v>
       </c>
       <c r="F76" s="3">
-        <v>194800</v>
+        <v>192700</v>
       </c>
       <c r="G76" s="3">
-        <v>105500</v>
+        <v>104400</v>
       </c>
       <c r="H76" s="3">
-        <v>66800</v>
+        <v>66100</v>
       </c>
       <c r="I76" s="3">
-        <v>37600</v>
+        <v>37200</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -2861,19 +2861,19 @@
         <v>5500</v>
       </c>
       <c r="E81" s="3">
-        <v>36700</v>
+        <v>36300</v>
       </c>
       <c r="F81" s="3">
-        <v>49000</v>
+        <v>48500</v>
       </c>
       <c r="G81" s="3">
-        <v>14900</v>
+        <v>14800</v>
       </c>
       <c r="H81" s="3">
-        <v>7900</v>
+        <v>7800</v>
       </c>
       <c r="I81" s="3">
-        <v>10000</v>
+        <v>9900</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -2906,22 +2906,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>38000</v>
+        <v>37600</v>
       </c>
       <c r="E83" s="3">
-        <v>33200</v>
+        <v>32900</v>
       </c>
       <c r="F83" s="3">
-        <v>17200</v>
+        <v>17000</v>
       </c>
       <c r="G83" s="3">
-        <v>10500</v>
+        <v>10300</v>
       </c>
       <c r="H83" s="3">
-        <v>9300</v>
+        <v>9200</v>
       </c>
       <c r="I83" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -3104,22 +3104,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>79300</v>
+        <v>78500</v>
       </c>
       <c r="E89" s="3">
-        <v>73500</v>
+        <v>72700</v>
       </c>
       <c r="F89" s="3">
-        <v>63400</v>
+        <v>62700</v>
       </c>
       <c r="G89" s="3">
-        <v>26000</v>
+        <v>25800</v>
       </c>
       <c r="H89" s="3">
-        <v>18000</v>
+        <v>17800</v>
       </c>
       <c r="I89" s="3">
-        <v>14400</v>
+        <v>14200</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3152,19 +3152,19 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-29200</v>
+        <v>-28900</v>
       </c>
       <c r="E91" s="3">
-        <v>-39500</v>
+        <v>-39100</v>
       </c>
       <c r="F91" s="3">
-        <v>-41600</v>
+        <v>-41200</v>
       </c>
       <c r="G91" s="3">
-        <v>-45600</v>
+        <v>-45100</v>
       </c>
       <c r="H91" s="3">
-        <v>-18300</v>
+        <v>-18100</v>
       </c>
       <c r="I91" s="3">
         <v>-6300</v>
@@ -3251,22 +3251,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-13500</v>
+        <v>-13300</v>
       </c>
       <c r="E94" s="3">
-        <v>-49300</v>
+        <v>-48800</v>
       </c>
       <c r="F94" s="3">
-        <v>-6200</v>
+        <v>-6100</v>
       </c>
       <c r="G94" s="3">
-        <v>-45700</v>
+        <v>-45200</v>
       </c>
       <c r="H94" s="3">
-        <v>-18600</v>
+        <v>-18400</v>
       </c>
       <c r="I94" s="3">
-        <v>-6400</v>
+        <v>-6300</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3299,13 +3299,13 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-62400</v>
+        <v>-61700</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-11500</v>
+        <v>-11400</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -3431,19 +3431,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-70900</v>
+        <v>-70100</v>
       </c>
       <c r="E100" s="3">
-        <v>-48800</v>
+        <v>-48300</v>
       </c>
       <c r="F100" s="3">
-        <v>-45300</v>
+        <v>-44900</v>
       </c>
       <c r="G100" s="3">
-        <v>10000</v>
+        <v>9900</v>
       </c>
       <c r="H100" s="3">
-        <v>-10500</v>
+        <v>-10400</v>
       </c>
       <c r="I100" s="3">
         <v>900</v>
@@ -3464,7 +3464,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E101" s="3">
         <v>6200</v>
@@ -3473,10 +3473,10 @@
         <v>-700</v>
       </c>
       <c r="G101" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="H101" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="I101" s="3">
         <v>300</v>
@@ -3497,22 +3497,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-4400</v>
+        <v>-4300</v>
       </c>
       <c r="E102" s="3">
-        <v>-18400</v>
+        <v>-18200</v>
       </c>
       <c r="F102" s="3">
-        <v>11200</v>
+        <v>11100</v>
       </c>
       <c r="G102" s="3">
-        <v>-8900</v>
+        <v>-8800</v>
       </c>
       <c r="H102" s="3">
-        <v>-7900</v>
+        <v>-7800</v>
       </c>
       <c r="I102" s="3">
-        <v>9200</v>
+        <v>9100</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
